--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5880"/>
+    <workbookView xWindow="3384" yWindow="1656" windowWidth="17280" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>x1</t>
   </si>
@@ -37,7 +37,13 @@
     <t>action</t>
   </si>
   <si>
-    <t>s</t>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>hold</t>
   </si>
 </sst>
 </file>
@@ -355,15 +361,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <sheetData>
-    <row r="1" ht="15.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,27 +392,280 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>-2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>-2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>-2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>x1</t>
   </si>
@@ -361,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="G10" sqref="G10"/>
@@ -668,6 +668,305 @@
         <v>9</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>-2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>-2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-2</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>-2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="10">
   <si>
     <t>x1</t>
   </si>
@@ -361,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="G10" sqref="G10"/>
@@ -967,6 +967,2513 @@
         <v>7</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>-2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>-2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>-2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-2</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>-2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-2</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-2</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>-2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-2</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>-2</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-2</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>-2</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-2</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-2</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>-2</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>-2</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>-2</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>-2</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>-2</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>-2</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>-2</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>-2</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>-2</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>-2</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>-2</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>-2</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>-2</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>-2</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>10</v>
+      </c>
+      <c r="G124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>-2</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>-2</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>10</v>
+      </c>
+      <c r="G128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>10</v>
+      </c>
+      <c r="G130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>-2</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>-2</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>10</v>
+      </c>
+      <c r="G134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>10</v>
+      </c>
+      <c r="G135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>-2</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>10</v>
+      </c>
+      <c r="G136" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="10">
   <si>
     <t>x1</t>
   </si>
@@ -361,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2052"/>
+  <dimension ref="A1:G2472"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="G10" sqref="G10"/>
@@ -47542,6 +47542,9666 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2053" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2053">
+        <v>0</v>
+      </c>
+      <c r="B2053">
+        <v>1</v>
+      </c>
+      <c r="C2053">
+        <v>0</v>
+      </c>
+      <c r="D2053">
+        <v>0</v>
+      </c>
+      <c r="E2053">
+        <v>1</v>
+      </c>
+      <c r="F2053">
+        <v>10</v>
+      </c>
+      <c r="G2053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2054">
+        <v>0</v>
+      </c>
+      <c r="B2054">
+        <v>1</v>
+      </c>
+      <c r="C2054">
+        <v>0</v>
+      </c>
+      <c r="D2054">
+        <v>-2</v>
+      </c>
+      <c r="E2054">
+        <v>1</v>
+      </c>
+      <c r="F2054">
+        <v>10</v>
+      </c>
+      <c r="G2054" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2055">
+        <v>-2</v>
+      </c>
+      <c r="B2055">
+        <v>1</v>
+      </c>
+      <c r="C2055">
+        <v>0</v>
+      </c>
+      <c r="D2055">
+        <v>0</v>
+      </c>
+      <c r="E2055">
+        <v>1</v>
+      </c>
+      <c r="F2055">
+        <v>10</v>
+      </c>
+      <c r="G2055" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2056">
+        <v>0</v>
+      </c>
+      <c r="B2056">
+        <v>1</v>
+      </c>
+      <c r="C2056">
+        <v>0</v>
+      </c>
+      <c r="D2056">
+        <v>2</v>
+      </c>
+      <c r="E2056">
+        <v>1</v>
+      </c>
+      <c r="F2056">
+        <v>10</v>
+      </c>
+      <c r="G2056" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2057">
+        <v>2</v>
+      </c>
+      <c r="B2057">
+        <v>1</v>
+      </c>
+      <c r="C2057">
+        <v>0</v>
+      </c>
+      <c r="D2057">
+        <v>2</v>
+      </c>
+      <c r="E2057">
+        <v>1</v>
+      </c>
+      <c r="F2057">
+        <v>10</v>
+      </c>
+      <c r="G2057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2058">
+        <v>2</v>
+      </c>
+      <c r="B2058">
+        <v>1</v>
+      </c>
+      <c r="C2058">
+        <v>0</v>
+      </c>
+      <c r="D2058">
+        <v>0</v>
+      </c>
+      <c r="E2058">
+        <v>1</v>
+      </c>
+      <c r="F2058">
+        <v>10</v>
+      </c>
+      <c r="G2058" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2059">
+        <v>0</v>
+      </c>
+      <c r="B2059">
+        <v>1</v>
+      </c>
+      <c r="C2059">
+        <v>0</v>
+      </c>
+      <c r="D2059">
+        <v>0</v>
+      </c>
+      <c r="E2059">
+        <v>1</v>
+      </c>
+      <c r="F2059">
+        <v>10</v>
+      </c>
+      <c r="G2059" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2060">
+        <v>0</v>
+      </c>
+      <c r="B2060">
+        <v>1</v>
+      </c>
+      <c r="C2060">
+        <v>0</v>
+      </c>
+      <c r="D2060">
+        <v>2</v>
+      </c>
+      <c r="E2060">
+        <v>1</v>
+      </c>
+      <c r="F2060">
+        <v>10</v>
+      </c>
+      <c r="G2060" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2061">
+        <v>2</v>
+      </c>
+      <c r="B2061">
+        <v>1</v>
+      </c>
+      <c r="C2061">
+        <v>0</v>
+      </c>
+      <c r="D2061">
+        <v>2</v>
+      </c>
+      <c r="E2061">
+        <v>1</v>
+      </c>
+      <c r="F2061">
+        <v>10</v>
+      </c>
+      <c r="G2061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2062">
+        <v>2</v>
+      </c>
+      <c r="B2062">
+        <v>1</v>
+      </c>
+      <c r="C2062">
+        <v>0</v>
+      </c>
+      <c r="D2062">
+        <v>0</v>
+      </c>
+      <c r="E2062">
+        <v>1</v>
+      </c>
+      <c r="F2062">
+        <v>10</v>
+      </c>
+      <c r="G2062" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2063">
+        <v>0</v>
+      </c>
+      <c r="B2063">
+        <v>1</v>
+      </c>
+      <c r="C2063">
+        <v>0</v>
+      </c>
+      <c r="D2063">
+        <v>0</v>
+      </c>
+      <c r="E2063">
+        <v>1</v>
+      </c>
+      <c r="F2063">
+        <v>10</v>
+      </c>
+      <c r="G2063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2064">
+        <v>0</v>
+      </c>
+      <c r="B2064">
+        <v>1</v>
+      </c>
+      <c r="C2064">
+        <v>0</v>
+      </c>
+      <c r="D2064">
+        <v>-2</v>
+      </c>
+      <c r="E2064">
+        <v>1</v>
+      </c>
+      <c r="F2064">
+        <v>10</v>
+      </c>
+      <c r="G2064" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2065">
+        <v>-2</v>
+      </c>
+      <c r="B2065">
+        <v>1</v>
+      </c>
+      <c r="C2065">
+        <v>0</v>
+      </c>
+      <c r="D2065">
+        <v>-2</v>
+      </c>
+      <c r="E2065">
+        <v>1</v>
+      </c>
+      <c r="F2065">
+        <v>10</v>
+      </c>
+      <c r="G2065" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2066">
+        <v>-2</v>
+      </c>
+      <c r="B2066">
+        <v>1</v>
+      </c>
+      <c r="C2066">
+        <v>0</v>
+      </c>
+      <c r="D2066">
+        <v>0</v>
+      </c>
+      <c r="E2066">
+        <v>1</v>
+      </c>
+      <c r="F2066">
+        <v>10</v>
+      </c>
+      <c r="G2066" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2067">
+        <v>0</v>
+      </c>
+      <c r="B2067">
+        <v>1</v>
+      </c>
+      <c r="C2067">
+        <v>0</v>
+      </c>
+      <c r="D2067">
+        <v>0</v>
+      </c>
+      <c r="E2067">
+        <v>1</v>
+      </c>
+      <c r="F2067">
+        <v>10</v>
+      </c>
+      <c r="G2067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2068">
+        <v>-2</v>
+      </c>
+      <c r="B2068">
+        <v>1</v>
+      </c>
+      <c r="C2068">
+        <v>0</v>
+      </c>
+      <c r="D2068">
+        <v>0</v>
+      </c>
+      <c r="E2068">
+        <v>1</v>
+      </c>
+      <c r="F2068">
+        <v>10</v>
+      </c>
+      <c r="G2068" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2069">
+        <v>-2</v>
+      </c>
+      <c r="B2069">
+        <v>1</v>
+      </c>
+      <c r="C2069">
+        <v>0</v>
+      </c>
+      <c r="D2069">
+        <v>-2</v>
+      </c>
+      <c r="E2069">
+        <v>1</v>
+      </c>
+      <c r="F2069">
+        <v>10</v>
+      </c>
+      <c r="G2069" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2070">
+        <v>-2</v>
+      </c>
+      <c r="B2070">
+        <v>1</v>
+      </c>
+      <c r="C2070">
+        <v>0</v>
+      </c>
+      <c r="D2070">
+        <v>2</v>
+      </c>
+      <c r="E2070">
+        <v>1</v>
+      </c>
+      <c r="F2070">
+        <v>10</v>
+      </c>
+      <c r="G2070" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2071">
+        <v>-2</v>
+      </c>
+      <c r="B2071">
+        <v>1</v>
+      </c>
+      <c r="C2071">
+        <v>0</v>
+      </c>
+      <c r="D2071">
+        <v>0</v>
+      </c>
+      <c r="E2071">
+        <v>1</v>
+      </c>
+      <c r="F2071">
+        <v>10</v>
+      </c>
+      <c r="G2071" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2072">
+        <v>-2</v>
+      </c>
+      <c r="B2072">
+        <v>1</v>
+      </c>
+      <c r="C2072">
+        <v>0</v>
+      </c>
+      <c r="D2072">
+        <v>0</v>
+      </c>
+      <c r="E2072">
+        <v>1</v>
+      </c>
+      <c r="F2072">
+        <v>10</v>
+      </c>
+      <c r="G2072" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2073">
+        <v>0</v>
+      </c>
+      <c r="B2073">
+        <v>1</v>
+      </c>
+      <c r="C2073">
+        <v>0</v>
+      </c>
+      <c r="D2073">
+        <v>0</v>
+      </c>
+      <c r="E2073">
+        <v>1</v>
+      </c>
+      <c r="F2073">
+        <v>10</v>
+      </c>
+      <c r="G2073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2074">
+        <v>0</v>
+      </c>
+      <c r="B2074">
+        <v>1</v>
+      </c>
+      <c r="C2074">
+        <v>0</v>
+      </c>
+      <c r="D2074">
+        <v>-2</v>
+      </c>
+      <c r="E2074">
+        <v>1</v>
+      </c>
+      <c r="F2074">
+        <v>10</v>
+      </c>
+      <c r="G2074" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2075">
+        <v>-2</v>
+      </c>
+      <c r="B2075">
+        <v>1</v>
+      </c>
+      <c r="C2075">
+        <v>0</v>
+      </c>
+      <c r="D2075">
+        <v>-2</v>
+      </c>
+      <c r="E2075">
+        <v>1</v>
+      </c>
+      <c r="F2075">
+        <v>10</v>
+      </c>
+      <c r="G2075" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2076">
+        <v>-2</v>
+      </c>
+      <c r="B2076">
+        <v>1</v>
+      </c>
+      <c r="C2076">
+        <v>0</v>
+      </c>
+      <c r="D2076">
+        <v>0</v>
+      </c>
+      <c r="E2076">
+        <v>1</v>
+      </c>
+      <c r="F2076">
+        <v>10</v>
+      </c>
+      <c r="G2076" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2077">
+        <v>0</v>
+      </c>
+      <c r="B2077">
+        <v>1</v>
+      </c>
+      <c r="C2077">
+        <v>0</v>
+      </c>
+      <c r="D2077">
+        <v>2</v>
+      </c>
+      <c r="E2077">
+        <v>1</v>
+      </c>
+      <c r="F2077">
+        <v>10</v>
+      </c>
+      <c r="G2077" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2078">
+        <v>2</v>
+      </c>
+      <c r="B2078">
+        <v>1</v>
+      </c>
+      <c r="C2078">
+        <v>0</v>
+      </c>
+      <c r="D2078">
+        <v>2</v>
+      </c>
+      <c r="E2078">
+        <v>1</v>
+      </c>
+      <c r="F2078">
+        <v>10</v>
+      </c>
+      <c r="G2078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2079">
+        <v>2</v>
+      </c>
+      <c r="B2079">
+        <v>1</v>
+      </c>
+      <c r="C2079">
+        <v>0</v>
+      </c>
+      <c r="D2079">
+        <v>0</v>
+      </c>
+      <c r="E2079">
+        <v>1</v>
+      </c>
+      <c r="F2079">
+        <v>10</v>
+      </c>
+      <c r="G2079" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2080">
+        <v>0</v>
+      </c>
+      <c r="B2080">
+        <v>1</v>
+      </c>
+      <c r="C2080">
+        <v>0</v>
+      </c>
+      <c r="D2080">
+        <v>0</v>
+      </c>
+      <c r="E2080">
+        <v>1</v>
+      </c>
+      <c r="F2080">
+        <v>10</v>
+      </c>
+      <c r="G2080" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2081">
+        <v>0</v>
+      </c>
+      <c r="B2081">
+        <v>1</v>
+      </c>
+      <c r="C2081">
+        <v>0</v>
+      </c>
+      <c r="D2081">
+        <v>2</v>
+      </c>
+      <c r="E2081">
+        <v>1</v>
+      </c>
+      <c r="F2081">
+        <v>10</v>
+      </c>
+      <c r="G2081" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2082">
+        <v>2</v>
+      </c>
+      <c r="B2082">
+        <v>1</v>
+      </c>
+      <c r="C2082">
+        <v>0</v>
+      </c>
+      <c r="D2082">
+        <v>2</v>
+      </c>
+      <c r="E2082">
+        <v>1</v>
+      </c>
+      <c r="F2082">
+        <v>10</v>
+      </c>
+      <c r="G2082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2083">
+        <v>2</v>
+      </c>
+      <c r="B2083">
+        <v>1</v>
+      </c>
+      <c r="C2083">
+        <v>0</v>
+      </c>
+      <c r="D2083">
+        <v>0</v>
+      </c>
+      <c r="E2083">
+        <v>1</v>
+      </c>
+      <c r="F2083">
+        <v>10</v>
+      </c>
+      <c r="G2083" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2084">
+        <v>0</v>
+      </c>
+      <c r="B2084">
+        <v>1</v>
+      </c>
+      <c r="C2084">
+        <v>0</v>
+      </c>
+      <c r="D2084">
+        <v>0</v>
+      </c>
+      <c r="E2084">
+        <v>1</v>
+      </c>
+      <c r="F2084">
+        <v>10</v>
+      </c>
+      <c r="G2084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2085">
+        <v>0</v>
+      </c>
+      <c r="B2085">
+        <v>1</v>
+      </c>
+      <c r="C2085">
+        <v>0</v>
+      </c>
+      <c r="D2085">
+        <v>-2</v>
+      </c>
+      <c r="E2085">
+        <v>1</v>
+      </c>
+      <c r="F2085">
+        <v>10</v>
+      </c>
+      <c r="G2085" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2086">
+        <v>-2</v>
+      </c>
+      <c r="B2086">
+        <v>1</v>
+      </c>
+      <c r="C2086">
+        <v>0</v>
+      </c>
+      <c r="D2086">
+        <v>-2</v>
+      </c>
+      <c r="E2086">
+        <v>1</v>
+      </c>
+      <c r="F2086">
+        <v>10</v>
+      </c>
+      <c r="G2086" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2087">
+        <v>-2</v>
+      </c>
+      <c r="B2087">
+        <v>1</v>
+      </c>
+      <c r="C2087">
+        <v>0</v>
+      </c>
+      <c r="D2087">
+        <v>0</v>
+      </c>
+      <c r="E2087">
+        <v>1</v>
+      </c>
+      <c r="F2087">
+        <v>10</v>
+      </c>
+      <c r="G2087" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2088">
+        <v>0</v>
+      </c>
+      <c r="B2088">
+        <v>1</v>
+      </c>
+      <c r="C2088">
+        <v>0</v>
+      </c>
+      <c r="D2088">
+        <v>0</v>
+      </c>
+      <c r="E2088">
+        <v>1</v>
+      </c>
+      <c r="F2088">
+        <v>10</v>
+      </c>
+      <c r="G2088" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2089">
+        <v>0</v>
+      </c>
+      <c r="B2089">
+        <v>1</v>
+      </c>
+      <c r="C2089">
+        <v>0</v>
+      </c>
+      <c r="D2089">
+        <v>2</v>
+      </c>
+      <c r="E2089">
+        <v>1</v>
+      </c>
+      <c r="F2089">
+        <v>10</v>
+      </c>
+      <c r="G2089" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2090">
+        <v>2</v>
+      </c>
+      <c r="B2090">
+        <v>1</v>
+      </c>
+      <c r="C2090">
+        <v>0</v>
+      </c>
+      <c r="D2090">
+        <v>2</v>
+      </c>
+      <c r="E2090">
+        <v>1</v>
+      </c>
+      <c r="F2090">
+        <v>10</v>
+      </c>
+      <c r="G2090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2091">
+        <v>2</v>
+      </c>
+      <c r="B2091">
+        <v>1</v>
+      </c>
+      <c r="C2091">
+        <v>0</v>
+      </c>
+      <c r="D2091">
+        <v>0</v>
+      </c>
+      <c r="E2091">
+        <v>1</v>
+      </c>
+      <c r="F2091">
+        <v>10</v>
+      </c>
+      <c r="G2091" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2092">
+        <v>0</v>
+      </c>
+      <c r="B2092">
+        <v>1</v>
+      </c>
+      <c r="C2092">
+        <v>0</v>
+      </c>
+      <c r="D2092">
+        <v>0</v>
+      </c>
+      <c r="E2092">
+        <v>1</v>
+      </c>
+      <c r="F2092">
+        <v>10</v>
+      </c>
+      <c r="G2092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2093">
+        <v>0</v>
+      </c>
+      <c r="B2093">
+        <v>1</v>
+      </c>
+      <c r="C2093">
+        <v>0</v>
+      </c>
+      <c r="D2093">
+        <v>-2</v>
+      </c>
+      <c r="E2093">
+        <v>1</v>
+      </c>
+      <c r="F2093">
+        <v>10</v>
+      </c>
+      <c r="G2093" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2094">
+        <v>-2</v>
+      </c>
+      <c r="B2094">
+        <v>1</v>
+      </c>
+      <c r="C2094">
+        <v>0</v>
+      </c>
+      <c r="D2094">
+        <v>-2</v>
+      </c>
+      <c r="E2094">
+        <v>1</v>
+      </c>
+      <c r="F2094">
+        <v>10</v>
+      </c>
+      <c r="G2094" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2095">
+        <v>-2</v>
+      </c>
+      <c r="B2095">
+        <v>1</v>
+      </c>
+      <c r="C2095">
+        <v>0</v>
+      </c>
+      <c r="D2095">
+        <v>0</v>
+      </c>
+      <c r="E2095">
+        <v>1</v>
+      </c>
+      <c r="F2095">
+        <v>10</v>
+      </c>
+      <c r="G2095" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2096">
+        <v>0</v>
+      </c>
+      <c r="B2096">
+        <v>1</v>
+      </c>
+      <c r="C2096">
+        <v>0</v>
+      </c>
+      <c r="D2096">
+        <v>0</v>
+      </c>
+      <c r="E2096">
+        <v>1</v>
+      </c>
+      <c r="F2096">
+        <v>10</v>
+      </c>
+      <c r="G2096" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2097">
+        <v>0</v>
+      </c>
+      <c r="B2097">
+        <v>1</v>
+      </c>
+      <c r="C2097">
+        <v>0</v>
+      </c>
+      <c r="D2097">
+        <v>2</v>
+      </c>
+      <c r="E2097">
+        <v>1</v>
+      </c>
+      <c r="F2097">
+        <v>10</v>
+      </c>
+      <c r="G2097" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2098">
+        <v>2</v>
+      </c>
+      <c r="B2098">
+        <v>1</v>
+      </c>
+      <c r="C2098">
+        <v>0</v>
+      </c>
+      <c r="D2098">
+        <v>2</v>
+      </c>
+      <c r="E2098">
+        <v>1</v>
+      </c>
+      <c r="F2098">
+        <v>10</v>
+      </c>
+      <c r="G2098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2099">
+        <v>2</v>
+      </c>
+      <c r="B2099">
+        <v>1</v>
+      </c>
+      <c r="C2099">
+        <v>0</v>
+      </c>
+      <c r="D2099">
+        <v>0</v>
+      </c>
+      <c r="E2099">
+        <v>1</v>
+      </c>
+      <c r="F2099">
+        <v>10</v>
+      </c>
+      <c r="G2099" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2100">
+        <v>0</v>
+      </c>
+      <c r="B2100">
+        <v>1</v>
+      </c>
+      <c r="C2100">
+        <v>0</v>
+      </c>
+      <c r="D2100">
+        <v>0</v>
+      </c>
+      <c r="E2100">
+        <v>1</v>
+      </c>
+      <c r="F2100">
+        <v>10</v>
+      </c>
+      <c r="G2100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2101">
+        <v>0</v>
+      </c>
+      <c r="B2101">
+        <v>1</v>
+      </c>
+      <c r="C2101">
+        <v>0</v>
+      </c>
+      <c r="D2101">
+        <v>-2</v>
+      </c>
+      <c r="E2101">
+        <v>1</v>
+      </c>
+      <c r="F2101">
+        <v>10</v>
+      </c>
+      <c r="G2101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2102">
+        <v>-2</v>
+      </c>
+      <c r="B2102">
+        <v>1</v>
+      </c>
+      <c r="C2102">
+        <v>0</v>
+      </c>
+      <c r="D2102">
+        <v>-2</v>
+      </c>
+      <c r="E2102">
+        <v>1</v>
+      </c>
+      <c r="F2102">
+        <v>10</v>
+      </c>
+      <c r="G2102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2103">
+        <v>-2</v>
+      </c>
+      <c r="B2103">
+        <v>1</v>
+      </c>
+      <c r="C2103">
+        <v>0</v>
+      </c>
+      <c r="D2103">
+        <v>0</v>
+      </c>
+      <c r="E2103">
+        <v>1</v>
+      </c>
+      <c r="F2103">
+        <v>10</v>
+      </c>
+      <c r="G2103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2104">
+        <v>0</v>
+      </c>
+      <c r="B2104">
+        <v>1</v>
+      </c>
+      <c r="C2104">
+        <v>0</v>
+      </c>
+      <c r="D2104">
+        <v>0</v>
+      </c>
+      <c r="E2104">
+        <v>1</v>
+      </c>
+      <c r="F2104">
+        <v>10</v>
+      </c>
+      <c r="G2104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2105">
+        <v>0</v>
+      </c>
+      <c r="B2105">
+        <v>1</v>
+      </c>
+      <c r="C2105">
+        <v>0</v>
+      </c>
+      <c r="D2105">
+        <v>2</v>
+      </c>
+      <c r="E2105">
+        <v>1</v>
+      </c>
+      <c r="F2105">
+        <v>10</v>
+      </c>
+      <c r="G2105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2106">
+        <v>2</v>
+      </c>
+      <c r="B2106">
+        <v>1</v>
+      </c>
+      <c r="C2106">
+        <v>0</v>
+      </c>
+      <c r="D2106">
+        <v>2</v>
+      </c>
+      <c r="E2106">
+        <v>1</v>
+      </c>
+      <c r="F2106">
+        <v>10</v>
+      </c>
+      <c r="G2106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2107">
+        <v>2</v>
+      </c>
+      <c r="B2107">
+        <v>1</v>
+      </c>
+      <c r="C2107">
+        <v>0</v>
+      </c>
+      <c r="D2107">
+        <v>0</v>
+      </c>
+      <c r="E2107">
+        <v>1</v>
+      </c>
+      <c r="F2107">
+        <v>10</v>
+      </c>
+      <c r="G2107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2108">
+        <v>0</v>
+      </c>
+      <c r="B2108">
+        <v>1</v>
+      </c>
+      <c r="C2108">
+        <v>0</v>
+      </c>
+      <c r="D2108">
+        <v>0</v>
+      </c>
+      <c r="E2108">
+        <v>1</v>
+      </c>
+      <c r="F2108">
+        <v>10</v>
+      </c>
+      <c r="G2108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2109">
+        <v>0</v>
+      </c>
+      <c r="B2109">
+        <v>1</v>
+      </c>
+      <c r="C2109">
+        <v>0</v>
+      </c>
+      <c r="D2109">
+        <v>-2</v>
+      </c>
+      <c r="E2109">
+        <v>1</v>
+      </c>
+      <c r="F2109">
+        <v>10</v>
+      </c>
+      <c r="G2109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2110">
+        <v>-2</v>
+      </c>
+      <c r="B2110">
+        <v>1</v>
+      </c>
+      <c r="C2110">
+        <v>0</v>
+      </c>
+      <c r="D2110">
+        <v>-2</v>
+      </c>
+      <c r="E2110">
+        <v>1</v>
+      </c>
+      <c r="F2110">
+        <v>10</v>
+      </c>
+      <c r="G2110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2111">
+        <v>-2</v>
+      </c>
+      <c r="B2111">
+        <v>1</v>
+      </c>
+      <c r="C2111">
+        <v>0</v>
+      </c>
+      <c r="D2111">
+        <v>0</v>
+      </c>
+      <c r="E2111">
+        <v>1</v>
+      </c>
+      <c r="F2111">
+        <v>10</v>
+      </c>
+      <c r="G2111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2112">
+        <v>0</v>
+      </c>
+      <c r="B2112">
+        <v>1</v>
+      </c>
+      <c r="C2112">
+        <v>0</v>
+      </c>
+      <c r="D2112">
+        <v>2</v>
+      </c>
+      <c r="E2112">
+        <v>1</v>
+      </c>
+      <c r="F2112">
+        <v>10</v>
+      </c>
+      <c r="G2112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2113">
+        <v>2</v>
+      </c>
+      <c r="B2113">
+        <v>1</v>
+      </c>
+      <c r="C2113">
+        <v>0</v>
+      </c>
+      <c r="D2113">
+        <v>2</v>
+      </c>
+      <c r="E2113">
+        <v>1</v>
+      </c>
+      <c r="F2113">
+        <v>10</v>
+      </c>
+      <c r="G2113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2114">
+        <v>2</v>
+      </c>
+      <c r="B2114">
+        <v>1</v>
+      </c>
+      <c r="C2114">
+        <v>0</v>
+      </c>
+      <c r="D2114">
+        <v>0</v>
+      </c>
+      <c r="E2114">
+        <v>1</v>
+      </c>
+      <c r="F2114">
+        <v>10</v>
+      </c>
+      <c r="G2114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2115">
+        <v>0</v>
+      </c>
+      <c r="B2115">
+        <v>1</v>
+      </c>
+      <c r="C2115">
+        <v>0</v>
+      </c>
+      <c r="D2115">
+        <v>0</v>
+      </c>
+      <c r="E2115">
+        <v>1</v>
+      </c>
+      <c r="F2115">
+        <v>10</v>
+      </c>
+      <c r="G2115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2116">
+        <v>0</v>
+      </c>
+      <c r="B2116">
+        <v>1</v>
+      </c>
+      <c r="C2116">
+        <v>0</v>
+      </c>
+      <c r="D2116">
+        <v>-2</v>
+      </c>
+      <c r="E2116">
+        <v>1</v>
+      </c>
+      <c r="F2116">
+        <v>10</v>
+      </c>
+      <c r="G2116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2117">
+        <v>-2</v>
+      </c>
+      <c r="B2117">
+        <v>1</v>
+      </c>
+      <c r="C2117">
+        <v>0</v>
+      </c>
+      <c r="D2117">
+        <v>-2</v>
+      </c>
+      <c r="E2117">
+        <v>1</v>
+      </c>
+      <c r="F2117">
+        <v>10</v>
+      </c>
+      <c r="G2117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2118">
+        <v>-2</v>
+      </c>
+      <c r="B2118">
+        <v>1</v>
+      </c>
+      <c r="C2118">
+        <v>0</v>
+      </c>
+      <c r="D2118">
+        <v>-2</v>
+      </c>
+      <c r="E2118">
+        <v>1</v>
+      </c>
+      <c r="F2118">
+        <v>10</v>
+      </c>
+      <c r="G2118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2119">
+        <v>-2</v>
+      </c>
+      <c r="B2119">
+        <v>1</v>
+      </c>
+      <c r="C2119">
+        <v>0</v>
+      </c>
+      <c r="D2119">
+        <v>2</v>
+      </c>
+      <c r="E2119">
+        <v>1</v>
+      </c>
+      <c r="F2119">
+        <v>10</v>
+      </c>
+      <c r="G2119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2120">
+        <v>-2</v>
+      </c>
+      <c r="B2120">
+        <v>1</v>
+      </c>
+      <c r="C2120">
+        <v>0</v>
+      </c>
+      <c r="D2120">
+        <v>0</v>
+      </c>
+      <c r="E2120">
+        <v>1</v>
+      </c>
+      <c r="F2120">
+        <v>10</v>
+      </c>
+      <c r="G2120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2121">
+        <v>-2</v>
+      </c>
+      <c r="B2121">
+        <v>1</v>
+      </c>
+      <c r="C2121">
+        <v>0</v>
+      </c>
+      <c r="D2121">
+        <v>0</v>
+      </c>
+      <c r="E2121">
+        <v>1</v>
+      </c>
+      <c r="F2121">
+        <v>10</v>
+      </c>
+      <c r="G2121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2122">
+        <v>0</v>
+      </c>
+      <c r="B2122">
+        <v>1</v>
+      </c>
+      <c r="C2122">
+        <v>0</v>
+      </c>
+      <c r="D2122">
+        <v>0</v>
+      </c>
+      <c r="E2122">
+        <v>1</v>
+      </c>
+      <c r="F2122">
+        <v>10</v>
+      </c>
+      <c r="G2122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2123">
+        <v>0</v>
+      </c>
+      <c r="B2123">
+        <v>1</v>
+      </c>
+      <c r="C2123">
+        <v>0</v>
+      </c>
+      <c r="D2123">
+        <v>2</v>
+      </c>
+      <c r="E2123">
+        <v>1</v>
+      </c>
+      <c r="F2123">
+        <v>10</v>
+      </c>
+      <c r="G2123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2124">
+        <v>0</v>
+      </c>
+      <c r="B2124">
+        <v>1</v>
+      </c>
+      <c r="C2124">
+        <v>0</v>
+      </c>
+      <c r="D2124">
+        <v>0</v>
+      </c>
+      <c r="E2124">
+        <v>1</v>
+      </c>
+      <c r="F2124">
+        <v>10</v>
+      </c>
+      <c r="G2124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2125">
+        <v>0</v>
+      </c>
+      <c r="B2125">
+        <v>1</v>
+      </c>
+      <c r="C2125">
+        <v>0</v>
+      </c>
+      <c r="D2125">
+        <v>-2</v>
+      </c>
+      <c r="E2125">
+        <v>1</v>
+      </c>
+      <c r="F2125">
+        <v>10</v>
+      </c>
+      <c r="G2125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2126">
+        <v>-2</v>
+      </c>
+      <c r="B2126">
+        <v>1</v>
+      </c>
+      <c r="C2126">
+        <v>0</v>
+      </c>
+      <c r="D2126">
+        <v>-2</v>
+      </c>
+      <c r="E2126">
+        <v>1</v>
+      </c>
+      <c r="F2126">
+        <v>10</v>
+      </c>
+      <c r="G2126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2127">
+        <v>-2</v>
+      </c>
+      <c r="B2127">
+        <v>1</v>
+      </c>
+      <c r="C2127">
+        <v>0</v>
+      </c>
+      <c r="D2127">
+        <v>0</v>
+      </c>
+      <c r="E2127">
+        <v>1</v>
+      </c>
+      <c r="F2127">
+        <v>10</v>
+      </c>
+      <c r="G2127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2128">
+        <v>0</v>
+      </c>
+      <c r="B2128">
+        <v>1</v>
+      </c>
+      <c r="C2128">
+        <v>0</v>
+      </c>
+      <c r="D2128">
+        <v>0</v>
+      </c>
+      <c r="E2128">
+        <v>1</v>
+      </c>
+      <c r="F2128">
+        <v>10</v>
+      </c>
+      <c r="G2128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2129">
+        <v>0</v>
+      </c>
+      <c r="B2129">
+        <v>1</v>
+      </c>
+      <c r="C2129">
+        <v>0</v>
+      </c>
+      <c r="D2129">
+        <v>2</v>
+      </c>
+      <c r="E2129">
+        <v>1</v>
+      </c>
+      <c r="F2129">
+        <v>10</v>
+      </c>
+      <c r="G2129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2130">
+        <v>2</v>
+      </c>
+      <c r="B2130">
+        <v>1</v>
+      </c>
+      <c r="C2130">
+        <v>0</v>
+      </c>
+      <c r="D2130">
+        <v>2</v>
+      </c>
+      <c r="E2130">
+        <v>1</v>
+      </c>
+      <c r="F2130">
+        <v>10</v>
+      </c>
+      <c r="G2130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2131">
+        <v>2</v>
+      </c>
+      <c r="B2131">
+        <v>1</v>
+      </c>
+      <c r="C2131">
+        <v>0</v>
+      </c>
+      <c r="D2131">
+        <v>-2</v>
+      </c>
+      <c r="E2131">
+        <v>1</v>
+      </c>
+      <c r="F2131">
+        <v>10</v>
+      </c>
+      <c r="G2131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2132">
+        <v>2</v>
+      </c>
+      <c r="B2132">
+        <v>1</v>
+      </c>
+      <c r="C2132">
+        <v>0</v>
+      </c>
+      <c r="D2132">
+        <v>-2</v>
+      </c>
+      <c r="E2132">
+        <v>1</v>
+      </c>
+      <c r="F2132">
+        <v>10</v>
+      </c>
+      <c r="G2132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2133">
+        <v>2</v>
+      </c>
+      <c r="B2133">
+        <v>1</v>
+      </c>
+      <c r="C2133">
+        <v>0</v>
+      </c>
+      <c r="D2133">
+        <v>0</v>
+      </c>
+      <c r="E2133">
+        <v>1</v>
+      </c>
+      <c r="F2133">
+        <v>10</v>
+      </c>
+      <c r="G2133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2134">
+        <v>2</v>
+      </c>
+      <c r="B2134">
+        <v>1</v>
+      </c>
+      <c r="C2134">
+        <v>0</v>
+      </c>
+      <c r="D2134">
+        <v>2</v>
+      </c>
+      <c r="E2134">
+        <v>1</v>
+      </c>
+      <c r="F2134">
+        <v>10</v>
+      </c>
+      <c r="G2134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2135">
+        <v>2</v>
+      </c>
+      <c r="B2135">
+        <v>1</v>
+      </c>
+      <c r="C2135">
+        <v>0</v>
+      </c>
+      <c r="D2135">
+        <v>-2</v>
+      </c>
+      <c r="E2135">
+        <v>1</v>
+      </c>
+      <c r="F2135">
+        <v>10</v>
+      </c>
+      <c r="G2135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2136">
+        <v>2</v>
+      </c>
+      <c r="B2136">
+        <v>1</v>
+      </c>
+      <c r="C2136">
+        <v>0</v>
+      </c>
+      <c r="D2136">
+        <v>0</v>
+      </c>
+      <c r="E2136">
+        <v>1</v>
+      </c>
+      <c r="F2136">
+        <v>10</v>
+      </c>
+      <c r="G2136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2137">
+        <v>0</v>
+      </c>
+      <c r="B2137">
+        <v>1</v>
+      </c>
+      <c r="C2137">
+        <v>0</v>
+      </c>
+      <c r="D2137">
+        <v>0</v>
+      </c>
+      <c r="E2137">
+        <v>1</v>
+      </c>
+      <c r="F2137">
+        <v>10</v>
+      </c>
+      <c r="G2137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2138">
+        <v>0</v>
+      </c>
+      <c r="B2138">
+        <v>1</v>
+      </c>
+      <c r="C2138">
+        <v>0</v>
+      </c>
+      <c r="D2138">
+        <v>2</v>
+      </c>
+      <c r="E2138">
+        <v>1</v>
+      </c>
+      <c r="F2138">
+        <v>10</v>
+      </c>
+      <c r="G2138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2139">
+        <v>2</v>
+      </c>
+      <c r="B2139">
+        <v>1</v>
+      </c>
+      <c r="C2139">
+        <v>0</v>
+      </c>
+      <c r="D2139">
+        <v>2</v>
+      </c>
+      <c r="E2139">
+        <v>1</v>
+      </c>
+      <c r="F2139">
+        <v>10</v>
+      </c>
+      <c r="G2139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2140">
+        <v>2</v>
+      </c>
+      <c r="B2140">
+        <v>1</v>
+      </c>
+      <c r="C2140">
+        <v>0</v>
+      </c>
+      <c r="D2140">
+        <v>0</v>
+      </c>
+      <c r="E2140">
+        <v>1</v>
+      </c>
+      <c r="F2140">
+        <v>10</v>
+      </c>
+      <c r="G2140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2141">
+        <v>0</v>
+      </c>
+      <c r="B2141">
+        <v>1</v>
+      </c>
+      <c r="C2141">
+        <v>0</v>
+      </c>
+      <c r="D2141">
+        <v>0</v>
+      </c>
+      <c r="E2141">
+        <v>1</v>
+      </c>
+      <c r="F2141">
+        <v>10</v>
+      </c>
+      <c r="G2141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2142">
+        <v>0</v>
+      </c>
+      <c r="B2142">
+        <v>1</v>
+      </c>
+      <c r="C2142">
+        <v>0</v>
+      </c>
+      <c r="D2142">
+        <v>-2</v>
+      </c>
+      <c r="E2142">
+        <v>1</v>
+      </c>
+      <c r="F2142">
+        <v>10</v>
+      </c>
+      <c r="G2142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2143">
+        <v>-2</v>
+      </c>
+      <c r="B2143">
+        <v>1</v>
+      </c>
+      <c r="C2143">
+        <v>0</v>
+      </c>
+      <c r="D2143">
+        <v>-2</v>
+      </c>
+      <c r="E2143">
+        <v>1</v>
+      </c>
+      <c r="F2143">
+        <v>10</v>
+      </c>
+      <c r="G2143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2144">
+        <v>-2</v>
+      </c>
+      <c r="B2144">
+        <v>1</v>
+      </c>
+      <c r="C2144">
+        <v>0</v>
+      </c>
+      <c r="D2144">
+        <v>0</v>
+      </c>
+      <c r="E2144">
+        <v>1</v>
+      </c>
+      <c r="F2144">
+        <v>10</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2145">
+        <v>0</v>
+      </c>
+      <c r="B2145">
+        <v>1</v>
+      </c>
+      <c r="C2145">
+        <v>0</v>
+      </c>
+      <c r="D2145">
+        <v>0</v>
+      </c>
+      <c r="E2145">
+        <v>1</v>
+      </c>
+      <c r="F2145">
+        <v>10</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2146">
+        <v>0</v>
+      </c>
+      <c r="B2146">
+        <v>1</v>
+      </c>
+      <c r="C2146">
+        <v>0</v>
+      </c>
+      <c r="D2146">
+        <v>-2</v>
+      </c>
+      <c r="E2146">
+        <v>1</v>
+      </c>
+      <c r="F2146">
+        <v>10</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2147">
+        <v>-2</v>
+      </c>
+      <c r="B2147">
+        <v>1</v>
+      </c>
+      <c r="C2147">
+        <v>0</v>
+      </c>
+      <c r="D2147">
+        <v>-2</v>
+      </c>
+      <c r="E2147">
+        <v>1</v>
+      </c>
+      <c r="F2147">
+        <v>10</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2148">
+        <v>-2</v>
+      </c>
+      <c r="B2148">
+        <v>1</v>
+      </c>
+      <c r="C2148">
+        <v>0</v>
+      </c>
+      <c r="D2148">
+        <v>2</v>
+      </c>
+      <c r="E2148">
+        <v>1</v>
+      </c>
+      <c r="F2148">
+        <v>10</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2149">
+        <v>-2</v>
+      </c>
+      <c r="B2149">
+        <v>1</v>
+      </c>
+      <c r="C2149">
+        <v>0</v>
+      </c>
+      <c r="D2149">
+        <v>-2</v>
+      </c>
+      <c r="E2149">
+        <v>1</v>
+      </c>
+      <c r="F2149">
+        <v>10</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2150">
+        <v>-2</v>
+      </c>
+      <c r="B2150">
+        <v>1</v>
+      </c>
+      <c r="C2150">
+        <v>0</v>
+      </c>
+      <c r="D2150">
+        <v>0</v>
+      </c>
+      <c r="E2150">
+        <v>1</v>
+      </c>
+      <c r="F2150">
+        <v>10</v>
+      </c>
+      <c r="G2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2151">
+        <v>0</v>
+      </c>
+      <c r="B2151">
+        <v>1</v>
+      </c>
+      <c r="C2151">
+        <v>0</v>
+      </c>
+      <c r="D2151">
+        <v>0</v>
+      </c>
+      <c r="E2151">
+        <v>1</v>
+      </c>
+      <c r="F2151">
+        <v>10</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2152">
+        <v>0</v>
+      </c>
+      <c r="B2152">
+        <v>1</v>
+      </c>
+      <c r="C2152">
+        <v>0</v>
+      </c>
+      <c r="D2152">
+        <v>-2</v>
+      </c>
+      <c r="E2152">
+        <v>1</v>
+      </c>
+      <c r="F2152">
+        <v>10</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2153">
+        <v>-2</v>
+      </c>
+      <c r="B2153">
+        <v>1</v>
+      </c>
+      <c r="C2153">
+        <v>0</v>
+      </c>
+      <c r="D2153">
+        <v>-2</v>
+      </c>
+      <c r="E2153">
+        <v>1</v>
+      </c>
+      <c r="F2153">
+        <v>10</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2154">
+        <v>-2</v>
+      </c>
+      <c r="B2154">
+        <v>1</v>
+      </c>
+      <c r="C2154">
+        <v>0</v>
+      </c>
+      <c r="D2154">
+        <v>2</v>
+      </c>
+      <c r="E2154">
+        <v>1</v>
+      </c>
+      <c r="F2154">
+        <v>10</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2155">
+        <v>-2</v>
+      </c>
+      <c r="B2155">
+        <v>1</v>
+      </c>
+      <c r="C2155">
+        <v>0</v>
+      </c>
+      <c r="D2155">
+        <v>-2</v>
+      </c>
+      <c r="E2155">
+        <v>1</v>
+      </c>
+      <c r="F2155">
+        <v>10</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2156">
+        <v>-2</v>
+      </c>
+      <c r="B2156">
+        <v>1</v>
+      </c>
+      <c r="C2156">
+        <v>0</v>
+      </c>
+      <c r="D2156">
+        <v>0</v>
+      </c>
+      <c r="E2156">
+        <v>1</v>
+      </c>
+      <c r="F2156">
+        <v>10</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2157">
+        <v>0</v>
+      </c>
+      <c r="B2157">
+        <v>1</v>
+      </c>
+      <c r="C2157">
+        <v>0</v>
+      </c>
+      <c r="D2157">
+        <v>2</v>
+      </c>
+      <c r="E2157">
+        <v>1</v>
+      </c>
+      <c r="F2157">
+        <v>10</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2158">
+        <v>2</v>
+      </c>
+      <c r="B2158">
+        <v>1</v>
+      </c>
+      <c r="C2158">
+        <v>0</v>
+      </c>
+      <c r="D2158">
+        <v>0</v>
+      </c>
+      <c r="E2158">
+        <v>1</v>
+      </c>
+      <c r="F2158">
+        <v>10</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2159">
+        <v>0</v>
+      </c>
+      <c r="B2159">
+        <v>1</v>
+      </c>
+      <c r="C2159">
+        <v>0</v>
+      </c>
+      <c r="D2159">
+        <v>-2</v>
+      </c>
+      <c r="E2159">
+        <v>1</v>
+      </c>
+      <c r="F2159">
+        <v>10</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2160">
+        <v>-2</v>
+      </c>
+      <c r="B2160">
+        <v>1</v>
+      </c>
+      <c r="C2160">
+        <v>0</v>
+      </c>
+      <c r="D2160">
+        <v>0</v>
+      </c>
+      <c r="E2160">
+        <v>1</v>
+      </c>
+      <c r="F2160">
+        <v>10</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2161">
+        <v>0</v>
+      </c>
+      <c r="B2161">
+        <v>1</v>
+      </c>
+      <c r="C2161">
+        <v>0</v>
+      </c>
+      <c r="D2161">
+        <v>0</v>
+      </c>
+      <c r="E2161">
+        <v>1</v>
+      </c>
+      <c r="F2161">
+        <v>10</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2162">
+        <v>0</v>
+      </c>
+      <c r="B2162">
+        <v>1</v>
+      </c>
+      <c r="C2162">
+        <v>0</v>
+      </c>
+      <c r="D2162">
+        <v>2</v>
+      </c>
+      <c r="E2162">
+        <v>1</v>
+      </c>
+      <c r="F2162">
+        <v>10</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2163">
+        <v>2</v>
+      </c>
+      <c r="B2163">
+        <v>1</v>
+      </c>
+      <c r="C2163">
+        <v>0</v>
+      </c>
+      <c r="D2163">
+        <v>0</v>
+      </c>
+      <c r="E2163">
+        <v>1</v>
+      </c>
+      <c r="F2163">
+        <v>10</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2164">
+        <v>0</v>
+      </c>
+      <c r="B2164">
+        <v>1</v>
+      </c>
+      <c r="C2164">
+        <v>0</v>
+      </c>
+      <c r="D2164">
+        <v>0</v>
+      </c>
+      <c r="E2164">
+        <v>1</v>
+      </c>
+      <c r="F2164">
+        <v>10</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2165">
+        <v>0</v>
+      </c>
+      <c r="B2165">
+        <v>1</v>
+      </c>
+      <c r="C2165">
+        <v>0</v>
+      </c>
+      <c r="D2165">
+        <v>-2</v>
+      </c>
+      <c r="E2165">
+        <v>1</v>
+      </c>
+      <c r="F2165">
+        <v>10</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2166">
+        <v>-2</v>
+      </c>
+      <c r="B2166">
+        <v>1</v>
+      </c>
+      <c r="C2166">
+        <v>0</v>
+      </c>
+      <c r="D2166">
+        <v>-2</v>
+      </c>
+      <c r="E2166">
+        <v>1</v>
+      </c>
+      <c r="F2166">
+        <v>10</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2167">
+        <v>-2</v>
+      </c>
+      <c r="B2167">
+        <v>1</v>
+      </c>
+      <c r="C2167">
+        <v>0</v>
+      </c>
+      <c r="D2167">
+        <v>0</v>
+      </c>
+      <c r="E2167">
+        <v>1</v>
+      </c>
+      <c r="F2167">
+        <v>10</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2168">
+        <v>0</v>
+      </c>
+      <c r="B2168">
+        <v>1</v>
+      </c>
+      <c r="C2168">
+        <v>0</v>
+      </c>
+      <c r="D2168">
+        <v>0</v>
+      </c>
+      <c r="E2168">
+        <v>1</v>
+      </c>
+      <c r="F2168">
+        <v>10</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2169">
+        <v>0</v>
+      </c>
+      <c r="B2169">
+        <v>1</v>
+      </c>
+      <c r="C2169">
+        <v>0</v>
+      </c>
+      <c r="D2169">
+        <v>2</v>
+      </c>
+      <c r="E2169">
+        <v>1</v>
+      </c>
+      <c r="F2169">
+        <v>10</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2170">
+        <v>2</v>
+      </c>
+      <c r="B2170">
+        <v>1</v>
+      </c>
+      <c r="C2170">
+        <v>0</v>
+      </c>
+      <c r="D2170">
+        <v>2</v>
+      </c>
+      <c r="E2170">
+        <v>1</v>
+      </c>
+      <c r="F2170">
+        <v>10</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2171">
+        <v>2</v>
+      </c>
+      <c r="B2171">
+        <v>1</v>
+      </c>
+      <c r="C2171">
+        <v>0</v>
+      </c>
+      <c r="D2171">
+        <v>0</v>
+      </c>
+      <c r="E2171">
+        <v>1</v>
+      </c>
+      <c r="F2171">
+        <v>10</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2172">
+        <v>0</v>
+      </c>
+      <c r="B2172">
+        <v>1</v>
+      </c>
+      <c r="C2172">
+        <v>0</v>
+      </c>
+      <c r="D2172">
+        <v>0</v>
+      </c>
+      <c r="E2172">
+        <v>1</v>
+      </c>
+      <c r="F2172">
+        <v>10</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2173">
+        <v>0</v>
+      </c>
+      <c r="B2173">
+        <v>1</v>
+      </c>
+      <c r="C2173">
+        <v>0</v>
+      </c>
+      <c r="D2173">
+        <v>-2</v>
+      </c>
+      <c r="E2173">
+        <v>1</v>
+      </c>
+      <c r="F2173">
+        <v>10</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2174">
+        <v>-2</v>
+      </c>
+      <c r="B2174">
+        <v>1</v>
+      </c>
+      <c r="C2174">
+        <v>0</v>
+      </c>
+      <c r="D2174">
+        <v>-2</v>
+      </c>
+      <c r="E2174">
+        <v>1</v>
+      </c>
+      <c r="F2174">
+        <v>10</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2175">
+        <v>-2</v>
+      </c>
+      <c r="B2175">
+        <v>1</v>
+      </c>
+      <c r="C2175">
+        <v>0</v>
+      </c>
+      <c r="D2175">
+        <v>2</v>
+      </c>
+      <c r="E2175">
+        <v>1</v>
+      </c>
+      <c r="F2175">
+        <v>10</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2176">
+        <v>-2</v>
+      </c>
+      <c r="B2176">
+        <v>1</v>
+      </c>
+      <c r="C2176">
+        <v>0</v>
+      </c>
+      <c r="D2176">
+        <v>-2</v>
+      </c>
+      <c r="E2176">
+        <v>1</v>
+      </c>
+      <c r="F2176">
+        <v>10</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2177">
+        <v>-2</v>
+      </c>
+      <c r="B2177">
+        <v>1</v>
+      </c>
+      <c r="C2177">
+        <v>0</v>
+      </c>
+      <c r="D2177">
+        <v>-2</v>
+      </c>
+      <c r="E2177">
+        <v>1</v>
+      </c>
+      <c r="F2177">
+        <v>10</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2178">
+        <v>-2</v>
+      </c>
+      <c r="B2178">
+        <v>1</v>
+      </c>
+      <c r="C2178">
+        <v>0</v>
+      </c>
+      <c r="D2178">
+        <v>0</v>
+      </c>
+      <c r="E2178">
+        <v>1</v>
+      </c>
+      <c r="F2178">
+        <v>10</v>
+      </c>
+      <c r="G2178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2179">
+        <v>0</v>
+      </c>
+      <c r="B2179">
+        <v>1</v>
+      </c>
+      <c r="C2179">
+        <v>0</v>
+      </c>
+      <c r="D2179">
+        <v>0</v>
+      </c>
+      <c r="E2179">
+        <v>1</v>
+      </c>
+      <c r="F2179">
+        <v>10</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2180">
+        <v>0</v>
+      </c>
+      <c r="B2180">
+        <v>1</v>
+      </c>
+      <c r="C2180">
+        <v>0</v>
+      </c>
+      <c r="D2180">
+        <v>-2</v>
+      </c>
+      <c r="E2180">
+        <v>1</v>
+      </c>
+      <c r="F2180">
+        <v>10</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2181">
+        <v>-2</v>
+      </c>
+      <c r="B2181">
+        <v>1</v>
+      </c>
+      <c r="C2181">
+        <v>0</v>
+      </c>
+      <c r="D2181">
+        <v>-2</v>
+      </c>
+      <c r="E2181">
+        <v>1</v>
+      </c>
+      <c r="F2181">
+        <v>10</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2182">
+        <v>-2</v>
+      </c>
+      <c r="B2182">
+        <v>1</v>
+      </c>
+      <c r="C2182">
+        <v>0</v>
+      </c>
+      <c r="D2182">
+        <v>0</v>
+      </c>
+      <c r="E2182">
+        <v>1</v>
+      </c>
+      <c r="F2182">
+        <v>10</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2183">
+        <v>0</v>
+      </c>
+      <c r="B2183">
+        <v>1</v>
+      </c>
+      <c r="C2183">
+        <v>0</v>
+      </c>
+      <c r="D2183">
+        <v>0</v>
+      </c>
+      <c r="E2183">
+        <v>1</v>
+      </c>
+      <c r="F2183">
+        <v>10</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2184">
+        <v>0</v>
+      </c>
+      <c r="B2184">
+        <v>1</v>
+      </c>
+      <c r="C2184">
+        <v>0</v>
+      </c>
+      <c r="D2184">
+        <v>2</v>
+      </c>
+      <c r="E2184">
+        <v>1</v>
+      </c>
+      <c r="F2184">
+        <v>10</v>
+      </c>
+      <c r="G2184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2185">
+        <v>2</v>
+      </c>
+      <c r="B2185">
+        <v>1</v>
+      </c>
+      <c r="C2185">
+        <v>0</v>
+      </c>
+      <c r="D2185">
+        <v>2</v>
+      </c>
+      <c r="E2185">
+        <v>1</v>
+      </c>
+      <c r="F2185">
+        <v>10</v>
+      </c>
+      <c r="G2185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2186">
+        <v>2</v>
+      </c>
+      <c r="B2186">
+        <v>1</v>
+      </c>
+      <c r="C2186">
+        <v>0</v>
+      </c>
+      <c r="D2186">
+        <v>-2</v>
+      </c>
+      <c r="E2186">
+        <v>1</v>
+      </c>
+      <c r="F2186">
+        <v>10</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2187">
+        <v>2</v>
+      </c>
+      <c r="B2187">
+        <v>1</v>
+      </c>
+      <c r="C2187">
+        <v>0</v>
+      </c>
+      <c r="D2187">
+        <v>2</v>
+      </c>
+      <c r="E2187">
+        <v>1</v>
+      </c>
+      <c r="F2187">
+        <v>10</v>
+      </c>
+      <c r="G2187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2188">
+        <v>2</v>
+      </c>
+      <c r="B2188">
+        <v>1</v>
+      </c>
+      <c r="C2188">
+        <v>0</v>
+      </c>
+      <c r="D2188">
+        <v>0</v>
+      </c>
+      <c r="E2188">
+        <v>1</v>
+      </c>
+      <c r="F2188">
+        <v>10</v>
+      </c>
+      <c r="G2188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2189">
+        <v>0</v>
+      </c>
+      <c r="B2189">
+        <v>1</v>
+      </c>
+      <c r="C2189">
+        <v>0</v>
+      </c>
+      <c r="D2189">
+        <v>0</v>
+      </c>
+      <c r="E2189">
+        <v>1</v>
+      </c>
+      <c r="F2189">
+        <v>10</v>
+      </c>
+      <c r="G2189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2190">
+        <v>0</v>
+      </c>
+      <c r="B2190">
+        <v>1</v>
+      </c>
+      <c r="C2190">
+        <v>0</v>
+      </c>
+      <c r="D2190">
+        <v>-2</v>
+      </c>
+      <c r="E2190">
+        <v>1</v>
+      </c>
+      <c r="F2190">
+        <v>10</v>
+      </c>
+      <c r="G2190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2191">
+        <v>-2</v>
+      </c>
+      <c r="B2191">
+        <v>1</v>
+      </c>
+      <c r="C2191">
+        <v>0</v>
+      </c>
+      <c r="D2191">
+        <v>-2</v>
+      </c>
+      <c r="E2191">
+        <v>1</v>
+      </c>
+      <c r="F2191">
+        <v>10</v>
+      </c>
+      <c r="G2191" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2192">
+        <v>-2</v>
+      </c>
+      <c r="B2192">
+        <v>1</v>
+      </c>
+      <c r="C2192">
+        <v>0</v>
+      </c>
+      <c r="D2192">
+        <v>2</v>
+      </c>
+      <c r="E2192">
+        <v>1</v>
+      </c>
+      <c r="F2192">
+        <v>10</v>
+      </c>
+      <c r="G2192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2193">
+        <v>-2</v>
+      </c>
+      <c r="B2193">
+        <v>1</v>
+      </c>
+      <c r="C2193">
+        <v>0</v>
+      </c>
+      <c r="D2193">
+        <v>0</v>
+      </c>
+      <c r="E2193">
+        <v>1</v>
+      </c>
+      <c r="F2193">
+        <v>10</v>
+      </c>
+      <c r="G2193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2194">
+        <v>0</v>
+      </c>
+      <c r="B2194">
+        <v>1</v>
+      </c>
+      <c r="C2194">
+        <v>0</v>
+      </c>
+      <c r="D2194">
+        <v>-2</v>
+      </c>
+      <c r="E2194">
+        <v>1</v>
+      </c>
+      <c r="F2194">
+        <v>10</v>
+      </c>
+      <c r="G2194" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2195">
+        <v>-2</v>
+      </c>
+      <c r="B2195">
+        <v>1</v>
+      </c>
+      <c r="C2195">
+        <v>0</v>
+      </c>
+      <c r="D2195">
+        <v>-2</v>
+      </c>
+      <c r="E2195">
+        <v>1</v>
+      </c>
+      <c r="F2195">
+        <v>10</v>
+      </c>
+      <c r="G2195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2196">
+        <v>-2</v>
+      </c>
+      <c r="B2196">
+        <v>1</v>
+      </c>
+      <c r="C2196">
+        <v>0</v>
+      </c>
+      <c r="D2196">
+        <v>0</v>
+      </c>
+      <c r="E2196">
+        <v>1</v>
+      </c>
+      <c r="F2196">
+        <v>10</v>
+      </c>
+      <c r="G2196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2197">
+        <v>0</v>
+      </c>
+      <c r="B2197">
+        <v>1</v>
+      </c>
+      <c r="C2197">
+        <v>0</v>
+      </c>
+      <c r="D2197">
+        <v>0</v>
+      </c>
+      <c r="E2197">
+        <v>1</v>
+      </c>
+      <c r="F2197">
+        <v>10</v>
+      </c>
+      <c r="G2197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2198">
+        <v>0</v>
+      </c>
+      <c r="B2198">
+        <v>1</v>
+      </c>
+      <c r="C2198">
+        <v>0</v>
+      </c>
+      <c r="D2198">
+        <v>2</v>
+      </c>
+      <c r="E2198">
+        <v>1</v>
+      </c>
+      <c r="F2198">
+        <v>10</v>
+      </c>
+      <c r="G2198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2199">
+        <v>2</v>
+      </c>
+      <c r="B2199">
+        <v>1</v>
+      </c>
+      <c r="C2199">
+        <v>0</v>
+      </c>
+      <c r="D2199">
+        <v>2</v>
+      </c>
+      <c r="E2199">
+        <v>1</v>
+      </c>
+      <c r="F2199">
+        <v>10</v>
+      </c>
+      <c r="G2199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2200">
+        <v>2</v>
+      </c>
+      <c r="B2200">
+        <v>1</v>
+      </c>
+      <c r="C2200">
+        <v>0</v>
+      </c>
+      <c r="D2200">
+        <v>0</v>
+      </c>
+      <c r="E2200">
+        <v>1</v>
+      </c>
+      <c r="F2200">
+        <v>10</v>
+      </c>
+      <c r="G2200" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2201">
+        <v>0</v>
+      </c>
+      <c r="B2201">
+        <v>1</v>
+      </c>
+      <c r="C2201">
+        <v>0</v>
+      </c>
+      <c r="D2201">
+        <v>0</v>
+      </c>
+      <c r="E2201">
+        <v>1</v>
+      </c>
+      <c r="F2201">
+        <v>10</v>
+      </c>
+      <c r="G2201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2202">
+        <v>0</v>
+      </c>
+      <c r="B2202">
+        <v>1</v>
+      </c>
+      <c r="C2202">
+        <v>0</v>
+      </c>
+      <c r="D2202">
+        <v>-2</v>
+      </c>
+      <c r="E2202">
+        <v>1</v>
+      </c>
+      <c r="F2202">
+        <v>10</v>
+      </c>
+      <c r="G2202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2203">
+        <v>-2</v>
+      </c>
+      <c r="B2203">
+        <v>1</v>
+      </c>
+      <c r="C2203">
+        <v>0</v>
+      </c>
+      <c r="D2203">
+        <v>-2</v>
+      </c>
+      <c r="E2203">
+        <v>1</v>
+      </c>
+      <c r="F2203">
+        <v>10</v>
+      </c>
+      <c r="G2203" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2204">
+        <v>-2</v>
+      </c>
+      <c r="B2204">
+        <v>1</v>
+      </c>
+      <c r="C2204">
+        <v>0</v>
+      </c>
+      <c r="D2204">
+        <v>-2</v>
+      </c>
+      <c r="E2204">
+        <v>1</v>
+      </c>
+      <c r="F2204">
+        <v>10</v>
+      </c>
+      <c r="G2204" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2205">
+        <v>-2</v>
+      </c>
+      <c r="B2205">
+        <v>1</v>
+      </c>
+      <c r="C2205">
+        <v>0</v>
+      </c>
+      <c r="D2205">
+        <v>-2</v>
+      </c>
+      <c r="E2205">
+        <v>1</v>
+      </c>
+      <c r="F2205">
+        <v>10</v>
+      </c>
+      <c r="G2205" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2206">
+        <v>-2</v>
+      </c>
+      <c r="B2206">
+        <v>1</v>
+      </c>
+      <c r="C2206">
+        <v>0</v>
+      </c>
+      <c r="D2206">
+        <v>0</v>
+      </c>
+      <c r="E2206">
+        <v>1</v>
+      </c>
+      <c r="F2206">
+        <v>10</v>
+      </c>
+      <c r="G2206" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2207">
+        <v>0</v>
+      </c>
+      <c r="B2207">
+        <v>1</v>
+      </c>
+      <c r="C2207">
+        <v>0</v>
+      </c>
+      <c r="D2207">
+        <v>0</v>
+      </c>
+      <c r="E2207">
+        <v>1</v>
+      </c>
+      <c r="F2207">
+        <v>10</v>
+      </c>
+      <c r="G2207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2208">
+        <v>0</v>
+      </c>
+      <c r="B2208">
+        <v>1</v>
+      </c>
+      <c r="C2208">
+        <v>0</v>
+      </c>
+      <c r="D2208">
+        <v>-2</v>
+      </c>
+      <c r="E2208">
+        <v>1</v>
+      </c>
+      <c r="F2208">
+        <v>10</v>
+      </c>
+      <c r="G2208" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2209">
+        <v>-2</v>
+      </c>
+      <c r="B2209">
+        <v>1</v>
+      </c>
+      <c r="C2209">
+        <v>0</v>
+      </c>
+      <c r="D2209">
+        <v>-2</v>
+      </c>
+      <c r="E2209">
+        <v>1</v>
+      </c>
+      <c r="F2209">
+        <v>10</v>
+      </c>
+      <c r="G2209" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2210">
+        <v>-2</v>
+      </c>
+      <c r="B2210">
+        <v>1</v>
+      </c>
+      <c r="C2210">
+        <v>0</v>
+      </c>
+      <c r="D2210">
+        <v>2</v>
+      </c>
+      <c r="E2210">
+        <v>1</v>
+      </c>
+      <c r="F2210">
+        <v>10</v>
+      </c>
+      <c r="G2210" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2211">
+        <v>-2</v>
+      </c>
+      <c r="B2211">
+        <v>1</v>
+      </c>
+      <c r="C2211">
+        <v>0</v>
+      </c>
+      <c r="D2211">
+        <v>-2</v>
+      </c>
+      <c r="E2211">
+        <v>1</v>
+      </c>
+      <c r="F2211">
+        <v>10</v>
+      </c>
+      <c r="G2211" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2212">
+        <v>-2</v>
+      </c>
+      <c r="B2212">
+        <v>1</v>
+      </c>
+      <c r="C2212">
+        <v>0</v>
+      </c>
+      <c r="D2212">
+        <v>0</v>
+      </c>
+      <c r="E2212">
+        <v>1</v>
+      </c>
+      <c r="F2212">
+        <v>10</v>
+      </c>
+      <c r="G2212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2213">
+        <v>0</v>
+      </c>
+      <c r="B2213">
+        <v>1</v>
+      </c>
+      <c r="C2213">
+        <v>0</v>
+      </c>
+      <c r="D2213">
+        <v>0</v>
+      </c>
+      <c r="E2213">
+        <v>1</v>
+      </c>
+      <c r="F2213">
+        <v>10</v>
+      </c>
+      <c r="G2213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2214">
+        <v>0</v>
+      </c>
+      <c r="B2214">
+        <v>1</v>
+      </c>
+      <c r="C2214">
+        <v>0</v>
+      </c>
+      <c r="D2214">
+        <v>2</v>
+      </c>
+      <c r="E2214">
+        <v>1</v>
+      </c>
+      <c r="F2214">
+        <v>10</v>
+      </c>
+      <c r="G2214" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2215">
+        <v>0</v>
+      </c>
+      <c r="B2215">
+        <v>1</v>
+      </c>
+      <c r="C2215">
+        <v>0</v>
+      </c>
+      <c r="D2215">
+        <v>0</v>
+      </c>
+      <c r="E2215">
+        <v>1</v>
+      </c>
+      <c r="F2215">
+        <v>10</v>
+      </c>
+      <c r="G2215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2216">
+        <v>0</v>
+      </c>
+      <c r="B2216">
+        <v>1</v>
+      </c>
+      <c r="C2216">
+        <v>0</v>
+      </c>
+      <c r="D2216">
+        <v>-2</v>
+      </c>
+      <c r="E2216">
+        <v>1</v>
+      </c>
+      <c r="F2216">
+        <v>10</v>
+      </c>
+      <c r="G2216" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2217">
+        <v>-2</v>
+      </c>
+      <c r="B2217">
+        <v>1</v>
+      </c>
+      <c r="C2217">
+        <v>0</v>
+      </c>
+      <c r="D2217">
+        <v>-2</v>
+      </c>
+      <c r="E2217">
+        <v>1</v>
+      </c>
+      <c r="F2217">
+        <v>10</v>
+      </c>
+      <c r="G2217" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2218">
+        <v>-2</v>
+      </c>
+      <c r="B2218">
+        <v>1</v>
+      </c>
+      <c r="C2218">
+        <v>0</v>
+      </c>
+      <c r="D2218">
+        <v>-2</v>
+      </c>
+      <c r="E2218">
+        <v>1</v>
+      </c>
+      <c r="F2218">
+        <v>10</v>
+      </c>
+      <c r="G2218" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2219">
+        <v>-2</v>
+      </c>
+      <c r="B2219">
+        <v>1</v>
+      </c>
+      <c r="C2219">
+        <v>0</v>
+      </c>
+      <c r="D2219">
+        <v>2</v>
+      </c>
+      <c r="E2219">
+        <v>1</v>
+      </c>
+      <c r="F2219">
+        <v>10</v>
+      </c>
+      <c r="G2219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2220">
+        <v>-2</v>
+      </c>
+      <c r="B2220">
+        <v>1</v>
+      </c>
+      <c r="C2220">
+        <v>0</v>
+      </c>
+      <c r="D2220">
+        <v>0</v>
+      </c>
+      <c r="E2220">
+        <v>1</v>
+      </c>
+      <c r="F2220">
+        <v>10</v>
+      </c>
+      <c r="G2220" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2221">
+        <v>0</v>
+      </c>
+      <c r="B2221">
+        <v>1</v>
+      </c>
+      <c r="C2221">
+        <v>0</v>
+      </c>
+      <c r="D2221">
+        <v>0</v>
+      </c>
+      <c r="E2221">
+        <v>1</v>
+      </c>
+      <c r="F2221">
+        <v>10</v>
+      </c>
+      <c r="G2221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2222">
+        <v>0</v>
+      </c>
+      <c r="B2222">
+        <v>1</v>
+      </c>
+      <c r="C2222">
+        <v>0</v>
+      </c>
+      <c r="D2222">
+        <v>-2</v>
+      </c>
+      <c r="E2222">
+        <v>1</v>
+      </c>
+      <c r="F2222">
+        <v>10</v>
+      </c>
+      <c r="G2222" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2223">
+        <v>0</v>
+      </c>
+      <c r="B2223">
+        <v>1</v>
+      </c>
+      <c r="C2223">
+        <v>0</v>
+      </c>
+      <c r="D2223">
+        <v>2</v>
+      </c>
+      <c r="E2223">
+        <v>1</v>
+      </c>
+      <c r="F2223">
+        <v>10</v>
+      </c>
+      <c r="G2223" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2224">
+        <v>0</v>
+      </c>
+      <c r="B2224">
+        <v>1</v>
+      </c>
+      <c r="C2224">
+        <v>0</v>
+      </c>
+      <c r="D2224">
+        <v>2</v>
+      </c>
+      <c r="E2224">
+        <v>1</v>
+      </c>
+      <c r="F2224">
+        <v>10</v>
+      </c>
+      <c r="G2224" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2225">
+        <v>2</v>
+      </c>
+      <c r="B2225">
+        <v>1</v>
+      </c>
+      <c r="C2225">
+        <v>0</v>
+      </c>
+      <c r="D2225">
+        <v>0</v>
+      </c>
+      <c r="E2225">
+        <v>1</v>
+      </c>
+      <c r="F2225">
+        <v>10</v>
+      </c>
+      <c r="G2225" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2226">
+        <v>0</v>
+      </c>
+      <c r="B2226">
+        <v>1</v>
+      </c>
+      <c r="C2226">
+        <v>0</v>
+      </c>
+      <c r="D2226">
+        <v>0</v>
+      </c>
+      <c r="E2226">
+        <v>1</v>
+      </c>
+      <c r="F2226">
+        <v>10</v>
+      </c>
+      <c r="G2226" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2227">
+        <v>0</v>
+      </c>
+      <c r="B2227">
+        <v>1</v>
+      </c>
+      <c r="C2227">
+        <v>0</v>
+      </c>
+      <c r="D2227">
+        <v>-2</v>
+      </c>
+      <c r="E2227">
+        <v>1</v>
+      </c>
+      <c r="F2227">
+        <v>10</v>
+      </c>
+      <c r="G2227" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2228">
+        <v>-2</v>
+      </c>
+      <c r="B2228">
+        <v>1</v>
+      </c>
+      <c r="C2228">
+        <v>0</v>
+      </c>
+      <c r="D2228">
+        <v>-2</v>
+      </c>
+      <c r="E2228">
+        <v>1</v>
+      </c>
+      <c r="F2228">
+        <v>10</v>
+      </c>
+      <c r="G2228" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2229">
+        <v>-2</v>
+      </c>
+      <c r="B2229">
+        <v>1</v>
+      </c>
+      <c r="C2229">
+        <v>0</v>
+      </c>
+      <c r="D2229">
+        <v>0</v>
+      </c>
+      <c r="E2229">
+        <v>1</v>
+      </c>
+      <c r="F2229">
+        <v>10</v>
+      </c>
+      <c r="G2229" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2230">
+        <v>0</v>
+      </c>
+      <c r="B2230">
+        <v>1</v>
+      </c>
+      <c r="C2230">
+        <v>0</v>
+      </c>
+      <c r="D2230">
+        <v>2</v>
+      </c>
+      <c r="E2230">
+        <v>1</v>
+      </c>
+      <c r="F2230">
+        <v>10</v>
+      </c>
+      <c r="G2230" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2231">
+        <v>2</v>
+      </c>
+      <c r="B2231">
+        <v>1</v>
+      </c>
+      <c r="C2231">
+        <v>0</v>
+      </c>
+      <c r="D2231">
+        <v>2</v>
+      </c>
+      <c r="E2231">
+        <v>1</v>
+      </c>
+      <c r="F2231">
+        <v>10</v>
+      </c>
+      <c r="G2231" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2232">
+        <v>2</v>
+      </c>
+      <c r="B2232">
+        <v>1</v>
+      </c>
+      <c r="C2232">
+        <v>0</v>
+      </c>
+      <c r="D2232">
+        <v>0</v>
+      </c>
+      <c r="E2232">
+        <v>1</v>
+      </c>
+      <c r="F2232">
+        <v>10</v>
+      </c>
+      <c r="G2232" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2233">
+        <v>0</v>
+      </c>
+      <c r="B2233">
+        <v>1</v>
+      </c>
+      <c r="C2233">
+        <v>0</v>
+      </c>
+      <c r="D2233">
+        <v>0</v>
+      </c>
+      <c r="E2233">
+        <v>1</v>
+      </c>
+      <c r="F2233">
+        <v>10</v>
+      </c>
+      <c r="G2233" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2234">
+        <v>0</v>
+      </c>
+      <c r="B2234">
+        <v>1</v>
+      </c>
+      <c r="C2234">
+        <v>0</v>
+      </c>
+      <c r="D2234">
+        <v>-2</v>
+      </c>
+      <c r="E2234">
+        <v>1</v>
+      </c>
+      <c r="F2234">
+        <v>10</v>
+      </c>
+      <c r="G2234" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2235">
+        <v>-2</v>
+      </c>
+      <c r="B2235">
+        <v>1</v>
+      </c>
+      <c r="C2235">
+        <v>0</v>
+      </c>
+      <c r="D2235">
+        <v>-2</v>
+      </c>
+      <c r="E2235">
+        <v>1</v>
+      </c>
+      <c r="F2235">
+        <v>10</v>
+      </c>
+      <c r="G2235" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2236">
+        <v>-2</v>
+      </c>
+      <c r="B2236">
+        <v>1</v>
+      </c>
+      <c r="C2236">
+        <v>0</v>
+      </c>
+      <c r="D2236">
+        <v>0</v>
+      </c>
+      <c r="E2236">
+        <v>1</v>
+      </c>
+      <c r="F2236">
+        <v>10</v>
+      </c>
+      <c r="G2236" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2237">
+        <v>-2</v>
+      </c>
+      <c r="B2237">
+        <v>1</v>
+      </c>
+      <c r="C2237">
+        <v>0</v>
+      </c>
+      <c r="D2237">
+        <v>-2</v>
+      </c>
+      <c r="E2237">
+        <v>1</v>
+      </c>
+      <c r="F2237">
+        <v>10</v>
+      </c>
+      <c r="G2237" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2238">
+        <v>-2</v>
+      </c>
+      <c r="B2238">
+        <v>1</v>
+      </c>
+      <c r="C2238">
+        <v>0</v>
+      </c>
+      <c r="D2238">
+        <v>2</v>
+      </c>
+      <c r="E2238">
+        <v>1</v>
+      </c>
+      <c r="F2238">
+        <v>10</v>
+      </c>
+      <c r="G2238" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2239">
+        <v>-2</v>
+      </c>
+      <c r="B2239">
+        <v>1</v>
+      </c>
+      <c r="C2239">
+        <v>0</v>
+      </c>
+      <c r="D2239">
+        <v>2</v>
+      </c>
+      <c r="E2239">
+        <v>1</v>
+      </c>
+      <c r="F2239">
+        <v>10</v>
+      </c>
+      <c r="G2239" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2240">
+        <v>-2</v>
+      </c>
+      <c r="B2240">
+        <v>1</v>
+      </c>
+      <c r="C2240">
+        <v>0</v>
+      </c>
+      <c r="D2240">
+        <v>0</v>
+      </c>
+      <c r="E2240">
+        <v>1</v>
+      </c>
+      <c r="F2240">
+        <v>10</v>
+      </c>
+      <c r="G2240" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2241">
+        <v>0</v>
+      </c>
+      <c r="B2241">
+        <v>1</v>
+      </c>
+      <c r="C2241">
+        <v>0</v>
+      </c>
+      <c r="D2241">
+        <v>0</v>
+      </c>
+      <c r="E2241">
+        <v>1</v>
+      </c>
+      <c r="F2241">
+        <v>10</v>
+      </c>
+      <c r="G2241" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2242">
+        <v>0</v>
+      </c>
+      <c r="B2242">
+        <v>1</v>
+      </c>
+      <c r="C2242">
+        <v>0</v>
+      </c>
+      <c r="D2242">
+        <v>-2</v>
+      </c>
+      <c r="E2242">
+        <v>1</v>
+      </c>
+      <c r="F2242">
+        <v>10</v>
+      </c>
+      <c r="G2242" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2243">
+        <v>-2</v>
+      </c>
+      <c r="B2243">
+        <v>1</v>
+      </c>
+      <c r="C2243">
+        <v>0</v>
+      </c>
+      <c r="D2243">
+        <v>-2</v>
+      </c>
+      <c r="E2243">
+        <v>1</v>
+      </c>
+      <c r="F2243">
+        <v>10</v>
+      </c>
+      <c r="G2243" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2244">
+        <v>-2</v>
+      </c>
+      <c r="B2244">
+        <v>1</v>
+      </c>
+      <c r="C2244">
+        <v>0</v>
+      </c>
+      <c r="D2244">
+        <v>2</v>
+      </c>
+      <c r="E2244">
+        <v>1</v>
+      </c>
+      <c r="F2244">
+        <v>10</v>
+      </c>
+      <c r="G2244" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2245">
+        <v>-2</v>
+      </c>
+      <c r="B2245">
+        <v>1</v>
+      </c>
+      <c r="C2245">
+        <v>0</v>
+      </c>
+      <c r="D2245">
+        <v>0</v>
+      </c>
+      <c r="E2245">
+        <v>1</v>
+      </c>
+      <c r="F2245">
+        <v>10</v>
+      </c>
+      <c r="G2245" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2246">
+        <v>0</v>
+      </c>
+      <c r="B2246">
+        <v>1</v>
+      </c>
+      <c r="C2246">
+        <v>0</v>
+      </c>
+      <c r="D2246">
+        <v>0</v>
+      </c>
+      <c r="E2246">
+        <v>1</v>
+      </c>
+      <c r="F2246">
+        <v>10</v>
+      </c>
+      <c r="G2246" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2247">
+        <v>0</v>
+      </c>
+      <c r="B2247">
+        <v>1</v>
+      </c>
+      <c r="C2247">
+        <v>0</v>
+      </c>
+      <c r="D2247">
+        <v>0</v>
+      </c>
+      <c r="E2247">
+        <v>1</v>
+      </c>
+      <c r="F2247">
+        <v>10</v>
+      </c>
+      <c r="G2247" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2248">
+        <v>-2</v>
+      </c>
+      <c r="B2248">
+        <v>1</v>
+      </c>
+      <c r="C2248">
+        <v>0</v>
+      </c>
+      <c r="D2248">
+        <v>0</v>
+      </c>
+      <c r="E2248">
+        <v>1</v>
+      </c>
+      <c r="F2248">
+        <v>10</v>
+      </c>
+      <c r="G2248" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2249">
+        <v>0</v>
+      </c>
+      <c r="B2249">
+        <v>1</v>
+      </c>
+      <c r="C2249">
+        <v>0</v>
+      </c>
+      <c r="D2249">
+        <v>0</v>
+      </c>
+      <c r="E2249">
+        <v>1</v>
+      </c>
+      <c r="F2249">
+        <v>10</v>
+      </c>
+      <c r="G2249" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2250">
+        <v>0</v>
+      </c>
+      <c r="B2250">
+        <v>1</v>
+      </c>
+      <c r="C2250">
+        <v>0</v>
+      </c>
+      <c r="D2250">
+        <v>2</v>
+      </c>
+      <c r="E2250">
+        <v>1</v>
+      </c>
+      <c r="F2250">
+        <v>10</v>
+      </c>
+      <c r="G2250" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2251">
+        <v>0</v>
+      </c>
+      <c r="B2251">
+        <v>1</v>
+      </c>
+      <c r="C2251">
+        <v>0</v>
+      </c>
+      <c r="D2251">
+        <v>-2</v>
+      </c>
+      <c r="E2251">
+        <v>1</v>
+      </c>
+      <c r="F2251">
+        <v>10</v>
+      </c>
+      <c r="G2251" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2252">
+        <v>0</v>
+      </c>
+      <c r="B2252">
+        <v>1</v>
+      </c>
+      <c r="C2252">
+        <v>0</v>
+      </c>
+      <c r="D2252">
+        <v>-2</v>
+      </c>
+      <c r="E2252">
+        <v>1</v>
+      </c>
+      <c r="F2252">
+        <v>10</v>
+      </c>
+      <c r="G2252" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2253">
+        <v>0</v>
+      </c>
+      <c r="B2253">
+        <v>1</v>
+      </c>
+      <c r="C2253">
+        <v>0</v>
+      </c>
+      <c r="D2253">
+        <v>0</v>
+      </c>
+      <c r="E2253">
+        <v>1</v>
+      </c>
+      <c r="F2253">
+        <v>10</v>
+      </c>
+      <c r="G2253" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2254">
+        <v>0</v>
+      </c>
+      <c r="B2254">
+        <v>1</v>
+      </c>
+      <c r="C2254">
+        <v>0</v>
+      </c>
+      <c r="D2254">
+        <v>0</v>
+      </c>
+      <c r="E2254">
+        <v>1</v>
+      </c>
+      <c r="F2254">
+        <v>10</v>
+      </c>
+      <c r="G2254" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2255">
+        <v>0</v>
+      </c>
+      <c r="B2255">
+        <v>1</v>
+      </c>
+      <c r="C2255">
+        <v>0</v>
+      </c>
+      <c r="D2255">
+        <v>2</v>
+      </c>
+      <c r="E2255">
+        <v>1</v>
+      </c>
+      <c r="F2255">
+        <v>10</v>
+      </c>
+      <c r="G2255" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2256">
+        <v>0</v>
+      </c>
+      <c r="B2256">
+        <v>1</v>
+      </c>
+      <c r="C2256">
+        <v>0</v>
+      </c>
+      <c r="D2256">
+        <v>0</v>
+      </c>
+      <c r="E2256">
+        <v>1</v>
+      </c>
+      <c r="F2256">
+        <v>10</v>
+      </c>
+      <c r="G2256" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2257">
+        <v>0</v>
+      </c>
+      <c r="B2257">
+        <v>1</v>
+      </c>
+      <c r="C2257">
+        <v>0</v>
+      </c>
+      <c r="D2257">
+        <v>-2</v>
+      </c>
+      <c r="E2257">
+        <v>1</v>
+      </c>
+      <c r="F2257">
+        <v>10</v>
+      </c>
+      <c r="G2257" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2258">
+        <v>-2</v>
+      </c>
+      <c r="B2258">
+        <v>1</v>
+      </c>
+      <c r="C2258">
+        <v>0</v>
+      </c>
+      <c r="D2258">
+        <v>-2</v>
+      </c>
+      <c r="E2258">
+        <v>1</v>
+      </c>
+      <c r="F2258">
+        <v>10</v>
+      </c>
+      <c r="G2258" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2259">
+        <v>-2</v>
+      </c>
+      <c r="B2259">
+        <v>1</v>
+      </c>
+      <c r="C2259">
+        <v>0</v>
+      </c>
+      <c r="D2259">
+        <v>0</v>
+      </c>
+      <c r="E2259">
+        <v>1</v>
+      </c>
+      <c r="F2259">
+        <v>10</v>
+      </c>
+      <c r="G2259" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2260">
+        <v>0</v>
+      </c>
+      <c r="B2260">
+        <v>1</v>
+      </c>
+      <c r="C2260">
+        <v>0</v>
+      </c>
+      <c r="D2260">
+        <v>0</v>
+      </c>
+      <c r="E2260">
+        <v>1</v>
+      </c>
+      <c r="F2260">
+        <v>10</v>
+      </c>
+      <c r="G2260" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2261">
+        <v>0</v>
+      </c>
+      <c r="B2261">
+        <v>1</v>
+      </c>
+      <c r="C2261">
+        <v>0</v>
+      </c>
+      <c r="D2261">
+        <v>-2</v>
+      </c>
+      <c r="E2261">
+        <v>1</v>
+      </c>
+      <c r="F2261">
+        <v>10</v>
+      </c>
+      <c r="G2261" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2262">
+        <v>-2</v>
+      </c>
+      <c r="B2262">
+        <v>1</v>
+      </c>
+      <c r="C2262">
+        <v>0</v>
+      </c>
+      <c r="D2262">
+        <v>2</v>
+      </c>
+      <c r="E2262">
+        <v>1</v>
+      </c>
+      <c r="F2262">
+        <v>10</v>
+      </c>
+      <c r="G2262" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2263">
+        <v>-2</v>
+      </c>
+      <c r="B2263">
+        <v>1</v>
+      </c>
+      <c r="C2263">
+        <v>0</v>
+      </c>
+      <c r="D2263">
+        <v>-2</v>
+      </c>
+      <c r="E2263">
+        <v>1</v>
+      </c>
+      <c r="F2263">
+        <v>10</v>
+      </c>
+      <c r="G2263" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2264">
+        <v>-2</v>
+      </c>
+      <c r="B2264">
+        <v>1</v>
+      </c>
+      <c r="C2264">
+        <v>0</v>
+      </c>
+      <c r="D2264">
+        <v>0</v>
+      </c>
+      <c r="E2264">
+        <v>1</v>
+      </c>
+      <c r="F2264">
+        <v>10</v>
+      </c>
+      <c r="G2264" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2265">
+        <v>0</v>
+      </c>
+      <c r="B2265">
+        <v>1</v>
+      </c>
+      <c r="C2265">
+        <v>0</v>
+      </c>
+      <c r="D2265">
+        <v>0</v>
+      </c>
+      <c r="E2265">
+        <v>1</v>
+      </c>
+      <c r="F2265">
+        <v>10</v>
+      </c>
+      <c r="G2265" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2266">
+        <v>0</v>
+      </c>
+      <c r="B2266">
+        <v>1</v>
+      </c>
+      <c r="C2266">
+        <v>0</v>
+      </c>
+      <c r="D2266">
+        <v>2</v>
+      </c>
+      <c r="E2266">
+        <v>1</v>
+      </c>
+      <c r="F2266">
+        <v>10</v>
+      </c>
+      <c r="G2266" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2267">
+        <v>2</v>
+      </c>
+      <c r="B2267">
+        <v>1</v>
+      </c>
+      <c r="C2267">
+        <v>0</v>
+      </c>
+      <c r="D2267">
+        <v>0</v>
+      </c>
+      <c r="E2267">
+        <v>1</v>
+      </c>
+      <c r="F2267">
+        <v>10</v>
+      </c>
+      <c r="G2267" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2268">
+        <v>0</v>
+      </c>
+      <c r="B2268">
+        <v>1</v>
+      </c>
+      <c r="C2268">
+        <v>0</v>
+      </c>
+      <c r="D2268">
+        <v>-2</v>
+      </c>
+      <c r="E2268">
+        <v>1</v>
+      </c>
+      <c r="F2268">
+        <v>10</v>
+      </c>
+      <c r="G2268" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2269">
+        <v>-2</v>
+      </c>
+      <c r="B2269">
+        <v>1</v>
+      </c>
+      <c r="C2269">
+        <v>0</v>
+      </c>
+      <c r="D2269">
+        <v>-2</v>
+      </c>
+      <c r="E2269">
+        <v>1</v>
+      </c>
+      <c r="F2269">
+        <v>10</v>
+      </c>
+      <c r="G2269" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2270">
+        <v>-2</v>
+      </c>
+      <c r="B2270">
+        <v>1</v>
+      </c>
+      <c r="C2270">
+        <v>0</v>
+      </c>
+      <c r="D2270">
+        <v>0</v>
+      </c>
+      <c r="E2270">
+        <v>1</v>
+      </c>
+      <c r="F2270">
+        <v>10</v>
+      </c>
+      <c r="G2270" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2271">
+        <v>0</v>
+      </c>
+      <c r="B2271">
+        <v>1</v>
+      </c>
+      <c r="C2271">
+        <v>0</v>
+      </c>
+      <c r="D2271">
+        <v>2</v>
+      </c>
+      <c r="E2271">
+        <v>1</v>
+      </c>
+      <c r="F2271">
+        <v>10</v>
+      </c>
+      <c r="G2271" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2272">
+        <v>2</v>
+      </c>
+      <c r="B2272">
+        <v>1</v>
+      </c>
+      <c r="C2272">
+        <v>0</v>
+      </c>
+      <c r="D2272">
+        <v>2</v>
+      </c>
+      <c r="E2272">
+        <v>1</v>
+      </c>
+      <c r="F2272">
+        <v>10</v>
+      </c>
+      <c r="G2272" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2273">
+        <v>2</v>
+      </c>
+      <c r="B2273">
+        <v>1</v>
+      </c>
+      <c r="C2273">
+        <v>0</v>
+      </c>
+      <c r="D2273">
+        <v>0</v>
+      </c>
+      <c r="E2273">
+        <v>1</v>
+      </c>
+      <c r="F2273">
+        <v>10</v>
+      </c>
+      <c r="G2273" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2274">
+        <v>0</v>
+      </c>
+      <c r="B2274">
+        <v>1</v>
+      </c>
+      <c r="C2274">
+        <v>0</v>
+      </c>
+      <c r="D2274">
+        <v>0</v>
+      </c>
+      <c r="E2274">
+        <v>1</v>
+      </c>
+      <c r="F2274">
+        <v>10</v>
+      </c>
+      <c r="G2274" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2275">
+        <v>0</v>
+      </c>
+      <c r="B2275">
+        <v>1</v>
+      </c>
+      <c r="C2275">
+        <v>0</v>
+      </c>
+      <c r="D2275">
+        <v>-2</v>
+      </c>
+      <c r="E2275">
+        <v>1</v>
+      </c>
+      <c r="F2275">
+        <v>10</v>
+      </c>
+      <c r="G2275" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2276">
+        <v>-2</v>
+      </c>
+      <c r="B2276">
+        <v>1</v>
+      </c>
+      <c r="C2276">
+        <v>0</v>
+      </c>
+      <c r="D2276">
+        <v>-2</v>
+      </c>
+      <c r="E2276">
+        <v>1</v>
+      </c>
+      <c r="F2276">
+        <v>10</v>
+      </c>
+      <c r="G2276" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2277">
+        <v>-2</v>
+      </c>
+      <c r="B2277">
+        <v>1</v>
+      </c>
+      <c r="C2277">
+        <v>0</v>
+      </c>
+      <c r="D2277">
+        <v>2</v>
+      </c>
+      <c r="E2277">
+        <v>1</v>
+      </c>
+      <c r="F2277">
+        <v>10</v>
+      </c>
+      <c r="G2277" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2278">
+        <v>-2</v>
+      </c>
+      <c r="B2278">
+        <v>1</v>
+      </c>
+      <c r="C2278">
+        <v>0</v>
+      </c>
+      <c r="D2278">
+        <v>-2</v>
+      </c>
+      <c r="E2278">
+        <v>1</v>
+      </c>
+      <c r="F2278">
+        <v>10</v>
+      </c>
+      <c r="G2278" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2279">
+        <v>-2</v>
+      </c>
+      <c r="B2279">
+        <v>1</v>
+      </c>
+      <c r="C2279">
+        <v>0</v>
+      </c>
+      <c r="D2279">
+        <v>0</v>
+      </c>
+      <c r="E2279">
+        <v>1</v>
+      </c>
+      <c r="F2279">
+        <v>10</v>
+      </c>
+      <c r="G2279" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2280">
+        <v>0</v>
+      </c>
+      <c r="B2280">
+        <v>1</v>
+      </c>
+      <c r="C2280">
+        <v>0</v>
+      </c>
+      <c r="D2280">
+        <v>0</v>
+      </c>
+      <c r="E2280">
+        <v>1</v>
+      </c>
+      <c r="F2280">
+        <v>10</v>
+      </c>
+      <c r="G2280" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2281">
+        <v>0</v>
+      </c>
+      <c r="B2281">
+        <v>1</v>
+      </c>
+      <c r="C2281">
+        <v>0</v>
+      </c>
+      <c r="D2281">
+        <v>0</v>
+      </c>
+      <c r="E2281">
+        <v>1</v>
+      </c>
+      <c r="F2281">
+        <v>10</v>
+      </c>
+      <c r="G2281" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2282">
+        <v>0</v>
+      </c>
+      <c r="B2282">
+        <v>1</v>
+      </c>
+      <c r="C2282">
+        <v>0</v>
+      </c>
+      <c r="D2282">
+        <v>-2</v>
+      </c>
+      <c r="E2282">
+        <v>1</v>
+      </c>
+      <c r="F2282">
+        <v>10</v>
+      </c>
+      <c r="G2282" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2283">
+        <v>0</v>
+      </c>
+      <c r="B2283">
+        <v>1</v>
+      </c>
+      <c r="C2283">
+        <v>0</v>
+      </c>
+      <c r="D2283">
+        <v>-2</v>
+      </c>
+      <c r="E2283">
+        <v>1</v>
+      </c>
+      <c r="F2283">
+        <v>10</v>
+      </c>
+      <c r="G2283" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2284">
+        <v>0</v>
+      </c>
+      <c r="B2284">
+        <v>1</v>
+      </c>
+      <c r="C2284">
+        <v>0</v>
+      </c>
+      <c r="D2284">
+        <v>2</v>
+      </c>
+      <c r="E2284">
+        <v>1</v>
+      </c>
+      <c r="F2284">
+        <v>10</v>
+      </c>
+      <c r="G2284" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2285">
+        <v>2</v>
+      </c>
+      <c r="B2285">
+        <v>1</v>
+      </c>
+      <c r="C2285">
+        <v>0</v>
+      </c>
+      <c r="D2285">
+        <v>0</v>
+      </c>
+      <c r="E2285">
+        <v>1</v>
+      </c>
+      <c r="F2285">
+        <v>10</v>
+      </c>
+      <c r="G2285" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2286">
+        <v>0</v>
+      </c>
+      <c r="B2286">
+        <v>1</v>
+      </c>
+      <c r="C2286">
+        <v>0</v>
+      </c>
+      <c r="D2286">
+        <v>0</v>
+      </c>
+      <c r="E2286">
+        <v>1</v>
+      </c>
+      <c r="F2286">
+        <v>10</v>
+      </c>
+      <c r="G2286" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2287">
+        <v>0</v>
+      </c>
+      <c r="B2287">
+        <v>1</v>
+      </c>
+      <c r="C2287">
+        <v>0</v>
+      </c>
+      <c r="D2287">
+        <v>-2</v>
+      </c>
+      <c r="E2287">
+        <v>1</v>
+      </c>
+      <c r="F2287">
+        <v>10</v>
+      </c>
+      <c r="G2287" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2288">
+        <v>-2</v>
+      </c>
+      <c r="B2288">
+        <v>1</v>
+      </c>
+      <c r="C2288">
+        <v>0</v>
+      </c>
+      <c r="D2288">
+        <v>2</v>
+      </c>
+      <c r="E2288">
+        <v>1</v>
+      </c>
+      <c r="F2288">
+        <v>10</v>
+      </c>
+      <c r="G2288" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2289">
+        <v>-2</v>
+      </c>
+      <c r="B2289">
+        <v>1</v>
+      </c>
+      <c r="C2289">
+        <v>0</v>
+      </c>
+      <c r="D2289">
+        <v>-2</v>
+      </c>
+      <c r="E2289">
+        <v>1</v>
+      </c>
+      <c r="F2289">
+        <v>10</v>
+      </c>
+      <c r="G2289" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2290">
+        <v>-2</v>
+      </c>
+      <c r="B2290">
+        <v>1</v>
+      </c>
+      <c r="C2290">
+        <v>0</v>
+      </c>
+      <c r="D2290">
+        <v>0</v>
+      </c>
+      <c r="E2290">
+        <v>1</v>
+      </c>
+      <c r="F2290">
+        <v>10</v>
+      </c>
+      <c r="G2290" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2291">
+        <v>0</v>
+      </c>
+      <c r="B2291">
+        <v>1</v>
+      </c>
+      <c r="C2291">
+        <v>0</v>
+      </c>
+      <c r="D2291">
+        <v>0</v>
+      </c>
+      <c r="E2291">
+        <v>1</v>
+      </c>
+      <c r="F2291">
+        <v>10</v>
+      </c>
+      <c r="G2291" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2292">
+        <v>0</v>
+      </c>
+      <c r="B2292">
+        <v>1</v>
+      </c>
+      <c r="C2292">
+        <v>0</v>
+      </c>
+      <c r="D2292">
+        <v>2</v>
+      </c>
+      <c r="E2292">
+        <v>1</v>
+      </c>
+      <c r="F2292">
+        <v>10</v>
+      </c>
+      <c r="G2292" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2293">
+        <v>2</v>
+      </c>
+      <c r="B2293">
+        <v>1</v>
+      </c>
+      <c r="C2293">
+        <v>0</v>
+      </c>
+      <c r="D2293">
+        <v>2</v>
+      </c>
+      <c r="E2293">
+        <v>1</v>
+      </c>
+      <c r="F2293">
+        <v>10</v>
+      </c>
+      <c r="G2293" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2294">
+        <v>2</v>
+      </c>
+      <c r="B2294">
+        <v>1</v>
+      </c>
+      <c r="C2294">
+        <v>0</v>
+      </c>
+      <c r="D2294">
+        <v>0</v>
+      </c>
+      <c r="E2294">
+        <v>1</v>
+      </c>
+      <c r="F2294">
+        <v>10</v>
+      </c>
+      <c r="G2294" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2295">
+        <v>0</v>
+      </c>
+      <c r="B2295">
+        <v>1</v>
+      </c>
+      <c r="C2295">
+        <v>0</v>
+      </c>
+      <c r="D2295">
+        <v>0</v>
+      </c>
+      <c r="E2295">
+        <v>1</v>
+      </c>
+      <c r="F2295">
+        <v>10</v>
+      </c>
+      <c r="G2295" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2296">
+        <v>0</v>
+      </c>
+      <c r="B2296">
+        <v>1</v>
+      </c>
+      <c r="C2296">
+        <v>0</v>
+      </c>
+      <c r="D2296">
+        <v>-2</v>
+      </c>
+      <c r="E2296">
+        <v>1</v>
+      </c>
+      <c r="F2296">
+        <v>10</v>
+      </c>
+      <c r="G2296" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2297">
+        <v>-2</v>
+      </c>
+      <c r="B2297">
+        <v>1</v>
+      </c>
+      <c r="C2297">
+        <v>0</v>
+      </c>
+      <c r="D2297">
+        <v>-2</v>
+      </c>
+      <c r="E2297">
+        <v>1</v>
+      </c>
+      <c r="F2297">
+        <v>10</v>
+      </c>
+      <c r="G2297" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2298">
+        <v>-2</v>
+      </c>
+      <c r="B2298">
+        <v>1</v>
+      </c>
+      <c r="C2298">
+        <v>0</v>
+      </c>
+      <c r="D2298">
+        <v>0</v>
+      </c>
+      <c r="E2298">
+        <v>1</v>
+      </c>
+      <c r="F2298">
+        <v>10</v>
+      </c>
+      <c r="G2298" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2299">
+        <v>0</v>
+      </c>
+      <c r="B2299">
+        <v>1</v>
+      </c>
+      <c r="C2299">
+        <v>0</v>
+      </c>
+      <c r="D2299">
+        <v>0</v>
+      </c>
+      <c r="E2299">
+        <v>1</v>
+      </c>
+      <c r="F2299">
+        <v>10</v>
+      </c>
+      <c r="G2299" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2300">
+        <v>0</v>
+      </c>
+      <c r="B2300">
+        <v>1</v>
+      </c>
+      <c r="C2300">
+        <v>0</v>
+      </c>
+      <c r="D2300">
+        <v>2</v>
+      </c>
+      <c r="E2300">
+        <v>1</v>
+      </c>
+      <c r="F2300">
+        <v>10</v>
+      </c>
+      <c r="G2300" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2301">
+        <v>2</v>
+      </c>
+      <c r="B2301">
+        <v>1</v>
+      </c>
+      <c r="C2301">
+        <v>0</v>
+      </c>
+      <c r="D2301">
+        <v>2</v>
+      </c>
+      <c r="E2301">
+        <v>1</v>
+      </c>
+      <c r="F2301">
+        <v>10</v>
+      </c>
+      <c r="G2301" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2302">
+        <v>2</v>
+      </c>
+      <c r="B2302">
+        <v>1</v>
+      </c>
+      <c r="C2302">
+        <v>0</v>
+      </c>
+      <c r="D2302">
+        <v>0</v>
+      </c>
+      <c r="E2302">
+        <v>1</v>
+      </c>
+      <c r="F2302">
+        <v>10</v>
+      </c>
+      <c r="G2302" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2303">
+        <v>0</v>
+      </c>
+      <c r="B2303">
+        <v>1</v>
+      </c>
+      <c r="C2303">
+        <v>0</v>
+      </c>
+      <c r="D2303">
+        <v>0</v>
+      </c>
+      <c r="E2303">
+        <v>1</v>
+      </c>
+      <c r="F2303">
+        <v>10</v>
+      </c>
+      <c r="G2303" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2304">
+        <v>0</v>
+      </c>
+      <c r="B2304">
+        <v>1</v>
+      </c>
+      <c r="C2304">
+        <v>0</v>
+      </c>
+      <c r="D2304">
+        <v>-2</v>
+      </c>
+      <c r="E2304">
+        <v>1</v>
+      </c>
+      <c r="F2304">
+        <v>10</v>
+      </c>
+      <c r="G2304" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2305">
+        <v>-2</v>
+      </c>
+      <c r="B2305">
+        <v>1</v>
+      </c>
+      <c r="C2305">
+        <v>0</v>
+      </c>
+      <c r="D2305">
+        <v>-2</v>
+      </c>
+      <c r="E2305">
+        <v>1</v>
+      </c>
+      <c r="F2305">
+        <v>10</v>
+      </c>
+      <c r="G2305" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2306">
+        <v>-2</v>
+      </c>
+      <c r="B2306">
+        <v>1</v>
+      </c>
+      <c r="C2306">
+        <v>0</v>
+      </c>
+      <c r="D2306">
+        <v>-2</v>
+      </c>
+      <c r="E2306">
+        <v>1</v>
+      </c>
+      <c r="F2306">
+        <v>10</v>
+      </c>
+      <c r="G2306" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2307">
+        <v>-2</v>
+      </c>
+      <c r="B2307">
+        <v>1</v>
+      </c>
+      <c r="C2307">
+        <v>0</v>
+      </c>
+      <c r="D2307">
+        <v>2</v>
+      </c>
+      <c r="E2307">
+        <v>1</v>
+      </c>
+      <c r="F2307">
+        <v>10</v>
+      </c>
+      <c r="G2307" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2308">
+        <v>-2</v>
+      </c>
+      <c r="B2308">
+        <v>1</v>
+      </c>
+      <c r="C2308">
+        <v>0</v>
+      </c>
+      <c r="D2308">
+        <v>-2</v>
+      </c>
+      <c r="E2308">
+        <v>1</v>
+      </c>
+      <c r="F2308">
+        <v>10</v>
+      </c>
+      <c r="G2308" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2309">
+        <v>-2</v>
+      </c>
+      <c r="B2309">
+        <v>1</v>
+      </c>
+      <c r="C2309">
+        <v>0</v>
+      </c>
+      <c r="D2309">
+        <v>2</v>
+      </c>
+      <c r="E2309">
+        <v>1</v>
+      </c>
+      <c r="F2309">
+        <v>10</v>
+      </c>
+      <c r="G2309" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2310">
+        <v>-2</v>
+      </c>
+      <c r="B2310">
+        <v>1</v>
+      </c>
+      <c r="C2310">
+        <v>0</v>
+      </c>
+      <c r="D2310">
+        <v>0</v>
+      </c>
+      <c r="E2310">
+        <v>1</v>
+      </c>
+      <c r="F2310">
+        <v>10</v>
+      </c>
+      <c r="G2310" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2311">
+        <v>0</v>
+      </c>
+      <c r="B2311">
+        <v>1</v>
+      </c>
+      <c r="C2311">
+        <v>0</v>
+      </c>
+      <c r="D2311">
+        <v>0</v>
+      </c>
+      <c r="E2311">
+        <v>1</v>
+      </c>
+      <c r="F2311">
+        <v>10</v>
+      </c>
+      <c r="G2311" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2312">
+        <v>0</v>
+      </c>
+      <c r="B2312">
+        <v>1</v>
+      </c>
+      <c r="C2312">
+        <v>0</v>
+      </c>
+      <c r="D2312">
+        <v>2</v>
+      </c>
+      <c r="E2312">
+        <v>1</v>
+      </c>
+      <c r="F2312">
+        <v>10</v>
+      </c>
+      <c r="G2312" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2313">
+        <v>0</v>
+      </c>
+      <c r="B2313">
+        <v>1</v>
+      </c>
+      <c r="C2313">
+        <v>0</v>
+      </c>
+      <c r="D2313">
+        <v>0</v>
+      </c>
+      <c r="E2313">
+        <v>1</v>
+      </c>
+      <c r="F2313">
+        <v>10</v>
+      </c>
+      <c r="G2313" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2314">
+        <v>0</v>
+      </c>
+      <c r="B2314">
+        <v>1</v>
+      </c>
+      <c r="C2314">
+        <v>0</v>
+      </c>
+      <c r="D2314">
+        <v>-2</v>
+      </c>
+      <c r="E2314">
+        <v>1</v>
+      </c>
+      <c r="F2314">
+        <v>10</v>
+      </c>
+      <c r="G2314" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2315">
+        <v>0</v>
+      </c>
+      <c r="B2315">
+        <v>1</v>
+      </c>
+      <c r="C2315">
+        <v>0</v>
+      </c>
+      <c r="D2315">
+        <v>-2</v>
+      </c>
+      <c r="E2315">
+        <v>1</v>
+      </c>
+      <c r="F2315">
+        <v>10</v>
+      </c>
+      <c r="G2315" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2316">
+        <v>0</v>
+      </c>
+      <c r="B2316">
+        <v>1</v>
+      </c>
+      <c r="C2316">
+        <v>0</v>
+      </c>
+      <c r="D2316">
+        <v>0</v>
+      </c>
+      <c r="E2316">
+        <v>1</v>
+      </c>
+      <c r="F2316">
+        <v>10</v>
+      </c>
+      <c r="G2316" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2317">
+        <v>0</v>
+      </c>
+      <c r="B2317">
+        <v>1</v>
+      </c>
+      <c r="C2317">
+        <v>0</v>
+      </c>
+      <c r="D2317">
+        <v>-2</v>
+      </c>
+      <c r="E2317">
+        <v>1</v>
+      </c>
+      <c r="F2317">
+        <v>10</v>
+      </c>
+      <c r="G2317" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2318">
+        <v>0</v>
+      </c>
+      <c r="B2318">
+        <v>1</v>
+      </c>
+      <c r="C2318">
+        <v>0</v>
+      </c>
+      <c r="D2318">
+        <v>2</v>
+      </c>
+      <c r="E2318">
+        <v>1</v>
+      </c>
+      <c r="F2318">
+        <v>10</v>
+      </c>
+      <c r="G2318" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2319">
+        <v>2</v>
+      </c>
+      <c r="B2319">
+        <v>1</v>
+      </c>
+      <c r="C2319">
+        <v>0</v>
+      </c>
+      <c r="D2319">
+        <v>2</v>
+      </c>
+      <c r="E2319">
+        <v>1</v>
+      </c>
+      <c r="F2319">
+        <v>10</v>
+      </c>
+      <c r="G2319" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2320">
+        <v>0</v>
+      </c>
+      <c r="B2320">
+        <v>1</v>
+      </c>
+      <c r="C2320">
+        <v>0</v>
+      </c>
+      <c r="D2320">
+        <v>-2</v>
+      </c>
+      <c r="E2320">
+        <v>1</v>
+      </c>
+      <c r="F2320">
+        <v>10</v>
+      </c>
+      <c r="G2320" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2321">
+        <v>-2</v>
+      </c>
+      <c r="B2321">
+        <v>1</v>
+      </c>
+      <c r="C2321">
+        <v>0</v>
+      </c>
+      <c r="D2321">
+        <v>-2</v>
+      </c>
+      <c r="E2321">
+        <v>1</v>
+      </c>
+      <c r="F2321">
+        <v>10</v>
+      </c>
+      <c r="G2321" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2322">
+        <v>-2</v>
+      </c>
+      <c r="B2322">
+        <v>1</v>
+      </c>
+      <c r="C2322">
+        <v>0</v>
+      </c>
+      <c r="D2322">
+        <v>0</v>
+      </c>
+      <c r="E2322">
+        <v>1</v>
+      </c>
+      <c r="F2322">
+        <v>10</v>
+      </c>
+      <c r="G2322" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2323">
+        <v>0</v>
+      </c>
+      <c r="B2323">
+        <v>1</v>
+      </c>
+      <c r="C2323">
+        <v>0</v>
+      </c>
+      <c r="D2323">
+        <v>-2</v>
+      </c>
+      <c r="E2323">
+        <v>1</v>
+      </c>
+      <c r="F2323">
+        <v>10</v>
+      </c>
+      <c r="G2323" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2324">
+        <v>-2</v>
+      </c>
+      <c r="B2324">
+        <v>1</v>
+      </c>
+      <c r="C2324">
+        <v>0</v>
+      </c>
+      <c r="D2324">
+        <v>-2</v>
+      </c>
+      <c r="E2324">
+        <v>1</v>
+      </c>
+      <c r="F2324">
+        <v>10</v>
+      </c>
+      <c r="G2324" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2325">
+        <v>-2</v>
+      </c>
+      <c r="B2325">
+        <v>1</v>
+      </c>
+      <c r="C2325">
+        <v>0</v>
+      </c>
+      <c r="D2325">
+        <v>2</v>
+      </c>
+      <c r="E2325">
+        <v>1</v>
+      </c>
+      <c r="F2325">
+        <v>10</v>
+      </c>
+      <c r="G2325" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2326">
+        <v>-2</v>
+      </c>
+      <c r="B2326">
+        <v>1</v>
+      </c>
+      <c r="C2326">
+        <v>0</v>
+      </c>
+      <c r="D2326">
+        <v>0</v>
+      </c>
+      <c r="E2326">
+        <v>1</v>
+      </c>
+      <c r="F2326">
+        <v>10</v>
+      </c>
+      <c r="G2326" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2327">
+        <v>0</v>
+      </c>
+      <c r="B2327">
+        <v>1</v>
+      </c>
+      <c r="C2327">
+        <v>0</v>
+      </c>
+      <c r="D2327">
+        <v>0</v>
+      </c>
+      <c r="E2327">
+        <v>1</v>
+      </c>
+      <c r="F2327">
+        <v>10</v>
+      </c>
+      <c r="G2327" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2328">
+        <v>0</v>
+      </c>
+      <c r="B2328">
+        <v>1</v>
+      </c>
+      <c r="C2328">
+        <v>0</v>
+      </c>
+      <c r="D2328">
+        <v>-2</v>
+      </c>
+      <c r="E2328">
+        <v>1</v>
+      </c>
+      <c r="F2328">
+        <v>10</v>
+      </c>
+      <c r="G2328" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2329">
+        <v>-2</v>
+      </c>
+      <c r="B2329">
+        <v>1</v>
+      </c>
+      <c r="C2329">
+        <v>0</v>
+      </c>
+      <c r="D2329">
+        <v>-2</v>
+      </c>
+      <c r="E2329">
+        <v>1</v>
+      </c>
+      <c r="F2329">
+        <v>10</v>
+      </c>
+      <c r="G2329" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2330">
+        <v>-2</v>
+      </c>
+      <c r="B2330">
+        <v>1</v>
+      </c>
+      <c r="C2330">
+        <v>0</v>
+      </c>
+      <c r="D2330">
+        <v>0</v>
+      </c>
+      <c r="E2330">
+        <v>1</v>
+      </c>
+      <c r="F2330">
+        <v>10</v>
+      </c>
+      <c r="G2330" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2331">
+        <v>0</v>
+      </c>
+      <c r="B2331">
+        <v>1</v>
+      </c>
+      <c r="C2331">
+        <v>0</v>
+      </c>
+      <c r="D2331">
+        <v>0</v>
+      </c>
+      <c r="E2331">
+        <v>1</v>
+      </c>
+      <c r="F2331">
+        <v>10</v>
+      </c>
+      <c r="G2331" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2332">
+        <v>0</v>
+      </c>
+      <c r="B2332">
+        <v>1</v>
+      </c>
+      <c r="C2332">
+        <v>0</v>
+      </c>
+      <c r="D2332">
+        <v>0</v>
+      </c>
+      <c r="E2332">
+        <v>1</v>
+      </c>
+      <c r="F2332">
+        <v>10</v>
+      </c>
+      <c r="G2332" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2333">
+        <v>0</v>
+      </c>
+      <c r="B2333">
+        <v>1</v>
+      </c>
+      <c r="C2333">
+        <v>0</v>
+      </c>
+      <c r="D2333">
+        <v>-2</v>
+      </c>
+      <c r="E2333">
+        <v>1</v>
+      </c>
+      <c r="F2333">
+        <v>10</v>
+      </c>
+      <c r="G2333" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2334">
+        <v>0</v>
+      </c>
+      <c r="B2334">
+        <v>1</v>
+      </c>
+      <c r="C2334">
+        <v>0</v>
+      </c>
+      <c r="D2334">
+        <v>2</v>
+      </c>
+      <c r="E2334">
+        <v>1</v>
+      </c>
+      <c r="F2334">
+        <v>10</v>
+      </c>
+      <c r="G2334" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2335">
+        <v>2</v>
+      </c>
+      <c r="B2335">
+        <v>1</v>
+      </c>
+      <c r="C2335">
+        <v>0</v>
+      </c>
+      <c r="D2335">
+        <v>0</v>
+      </c>
+      <c r="E2335">
+        <v>1</v>
+      </c>
+      <c r="F2335">
+        <v>10</v>
+      </c>
+      <c r="G2335" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2336">
+        <v>0</v>
+      </c>
+      <c r="B2336">
+        <v>1</v>
+      </c>
+      <c r="C2336">
+        <v>0</v>
+      </c>
+      <c r="D2336">
+        <v>0</v>
+      </c>
+      <c r="E2336">
+        <v>1</v>
+      </c>
+      <c r="F2336">
+        <v>10</v>
+      </c>
+      <c r="G2336" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2337">
+        <v>0</v>
+      </c>
+      <c r="B2337">
+        <v>1</v>
+      </c>
+      <c r="C2337">
+        <v>0</v>
+      </c>
+      <c r="D2337">
+        <v>-2</v>
+      </c>
+      <c r="E2337">
+        <v>1</v>
+      </c>
+      <c r="F2337">
+        <v>10</v>
+      </c>
+      <c r="G2337" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2338">
+        <v>-2</v>
+      </c>
+      <c r="B2338">
+        <v>1</v>
+      </c>
+      <c r="C2338">
+        <v>0</v>
+      </c>
+      <c r="D2338">
+        <v>-2</v>
+      </c>
+      <c r="E2338">
+        <v>1</v>
+      </c>
+      <c r="F2338">
+        <v>10</v>
+      </c>
+      <c r="G2338" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2339">
+        <v>-2</v>
+      </c>
+      <c r="B2339">
+        <v>1</v>
+      </c>
+      <c r="C2339">
+        <v>0</v>
+      </c>
+      <c r="D2339">
+        <v>0</v>
+      </c>
+      <c r="E2339">
+        <v>1</v>
+      </c>
+      <c r="F2339">
+        <v>10</v>
+      </c>
+      <c r="G2339" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2340">
+        <v>0</v>
+      </c>
+      <c r="B2340">
+        <v>1</v>
+      </c>
+      <c r="C2340">
+        <v>0</v>
+      </c>
+      <c r="D2340">
+        <v>0</v>
+      </c>
+      <c r="E2340">
+        <v>1</v>
+      </c>
+      <c r="F2340">
+        <v>10</v>
+      </c>
+      <c r="G2340" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2341">
+        <v>0</v>
+      </c>
+      <c r="B2341">
+        <v>1</v>
+      </c>
+      <c r="C2341">
+        <v>0</v>
+      </c>
+      <c r="D2341">
+        <v>-2</v>
+      </c>
+      <c r="E2341">
+        <v>1</v>
+      </c>
+      <c r="F2341">
+        <v>10</v>
+      </c>
+      <c r="G2341" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2342">
+        <v>-2</v>
+      </c>
+      <c r="B2342">
+        <v>1</v>
+      </c>
+      <c r="C2342">
+        <v>0</v>
+      </c>
+      <c r="D2342">
+        <v>-2</v>
+      </c>
+      <c r="E2342">
+        <v>1</v>
+      </c>
+      <c r="F2342">
+        <v>10</v>
+      </c>
+      <c r="G2342" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2343">
+        <v>-2</v>
+      </c>
+      <c r="B2343">
+        <v>1</v>
+      </c>
+      <c r="C2343">
+        <v>0</v>
+      </c>
+      <c r="D2343">
+        <v>2</v>
+      </c>
+      <c r="E2343">
+        <v>1</v>
+      </c>
+      <c r="F2343">
+        <v>10</v>
+      </c>
+      <c r="G2343" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2344">
+        <v>-2</v>
+      </c>
+      <c r="B2344">
+        <v>1</v>
+      </c>
+      <c r="C2344">
+        <v>0</v>
+      </c>
+      <c r="D2344">
+        <v>-2</v>
+      </c>
+      <c r="E2344">
+        <v>1</v>
+      </c>
+      <c r="F2344">
+        <v>10</v>
+      </c>
+      <c r="G2344" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2345">
+        <v>-2</v>
+      </c>
+      <c r="B2345">
+        <v>1</v>
+      </c>
+      <c r="C2345">
+        <v>0</v>
+      </c>
+      <c r="D2345">
+        <v>0</v>
+      </c>
+      <c r="E2345">
+        <v>1</v>
+      </c>
+      <c r="F2345">
+        <v>10</v>
+      </c>
+      <c r="G2345" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2346">
+        <v>0</v>
+      </c>
+      <c r="B2346">
+        <v>1</v>
+      </c>
+      <c r="C2346">
+        <v>0</v>
+      </c>
+      <c r="D2346">
+        <v>0</v>
+      </c>
+      <c r="E2346">
+        <v>1</v>
+      </c>
+      <c r="F2346">
+        <v>10</v>
+      </c>
+      <c r="G2346" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2347">
+        <v>0</v>
+      </c>
+      <c r="B2347">
+        <v>1</v>
+      </c>
+      <c r="C2347">
+        <v>0</v>
+      </c>
+      <c r="D2347">
+        <v>2</v>
+      </c>
+      <c r="E2347">
+        <v>1</v>
+      </c>
+      <c r="F2347">
+        <v>10</v>
+      </c>
+      <c r="G2347" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2348">
+        <v>0</v>
+      </c>
+      <c r="B2348">
+        <v>1</v>
+      </c>
+      <c r="C2348">
+        <v>0</v>
+      </c>
+      <c r="D2348">
+        <v>0</v>
+      </c>
+      <c r="E2348">
+        <v>1</v>
+      </c>
+      <c r="F2348">
+        <v>10</v>
+      </c>
+      <c r="G2348" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2349">
+        <v>0</v>
+      </c>
+      <c r="B2349">
+        <v>1</v>
+      </c>
+      <c r="C2349">
+        <v>0</v>
+      </c>
+      <c r="D2349">
+        <v>-2</v>
+      </c>
+      <c r="E2349">
+        <v>1</v>
+      </c>
+      <c r="F2349">
+        <v>10</v>
+      </c>
+      <c r="G2349" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2350">
+        <v>0</v>
+      </c>
+      <c r="B2350">
+        <v>1</v>
+      </c>
+      <c r="C2350">
+        <v>0</v>
+      </c>
+      <c r="D2350">
+        <v>-2</v>
+      </c>
+      <c r="E2350">
+        <v>1</v>
+      </c>
+      <c r="F2350">
+        <v>10</v>
+      </c>
+      <c r="G2350" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2351">
+        <v>-2</v>
+      </c>
+      <c r="B2351">
+        <v>1</v>
+      </c>
+      <c r="C2351">
+        <v>0</v>
+      </c>
+      <c r="D2351">
+        <v>-2</v>
+      </c>
+      <c r="E2351">
+        <v>1</v>
+      </c>
+      <c r="F2351">
+        <v>10</v>
+      </c>
+      <c r="G2351" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2352">
+        <v>-2</v>
+      </c>
+      <c r="B2352">
+        <v>1</v>
+      </c>
+      <c r="C2352">
+        <v>0</v>
+      </c>
+      <c r="D2352">
+        <v>0</v>
+      </c>
+      <c r="E2352">
+        <v>1</v>
+      </c>
+      <c r="F2352">
+        <v>10</v>
+      </c>
+      <c r="G2352" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2353">
+        <v>0</v>
+      </c>
+      <c r="B2353">
+        <v>1</v>
+      </c>
+      <c r="C2353">
+        <v>0</v>
+      </c>
+      <c r="D2353">
+        <v>0</v>
+      </c>
+      <c r="E2353">
+        <v>1</v>
+      </c>
+      <c r="F2353">
+        <v>10</v>
+      </c>
+      <c r="G2353" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2354">
+        <v>0</v>
+      </c>
+      <c r="B2354">
+        <v>1</v>
+      </c>
+      <c r="C2354">
+        <v>0</v>
+      </c>
+      <c r="D2354">
+        <v>-2</v>
+      </c>
+      <c r="E2354">
+        <v>1</v>
+      </c>
+      <c r="F2354">
+        <v>10</v>
+      </c>
+      <c r="G2354" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2355">
+        <v>-2</v>
+      </c>
+      <c r="B2355">
+        <v>1</v>
+      </c>
+      <c r="C2355">
+        <v>0</v>
+      </c>
+      <c r="D2355">
+        <v>-2</v>
+      </c>
+      <c r="E2355">
+        <v>1</v>
+      </c>
+      <c r="F2355">
+        <v>10</v>
+      </c>
+      <c r="G2355" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2356">
+        <v>-2</v>
+      </c>
+      <c r="B2356">
+        <v>1</v>
+      </c>
+      <c r="C2356">
+        <v>0</v>
+      </c>
+      <c r="D2356">
+        <v>2</v>
+      </c>
+      <c r="E2356">
+        <v>1</v>
+      </c>
+      <c r="F2356">
+        <v>10</v>
+      </c>
+      <c r="G2356" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2357">
+        <v>-2</v>
+      </c>
+      <c r="B2357">
+        <v>1</v>
+      </c>
+      <c r="C2357">
+        <v>0</v>
+      </c>
+      <c r="D2357">
+        <v>-2</v>
+      </c>
+      <c r="E2357">
+        <v>1</v>
+      </c>
+      <c r="F2357">
+        <v>10</v>
+      </c>
+      <c r="G2357" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2358">
+        <v>-2</v>
+      </c>
+      <c r="B2358">
+        <v>1</v>
+      </c>
+      <c r="C2358">
+        <v>0</v>
+      </c>
+      <c r="D2358">
+        <v>0</v>
+      </c>
+      <c r="E2358">
+        <v>1</v>
+      </c>
+      <c r="F2358">
+        <v>10</v>
+      </c>
+      <c r="G2358" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2359">
+        <v>0</v>
+      </c>
+      <c r="B2359">
+        <v>1</v>
+      </c>
+      <c r="C2359">
+        <v>0</v>
+      </c>
+      <c r="D2359">
+        <v>0</v>
+      </c>
+      <c r="E2359">
+        <v>1</v>
+      </c>
+      <c r="F2359">
+        <v>10</v>
+      </c>
+      <c r="G2359" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2360">
+        <v>0</v>
+      </c>
+      <c r="B2360">
+        <v>1</v>
+      </c>
+      <c r="C2360">
+        <v>0</v>
+      </c>
+      <c r="D2360">
+        <v>2</v>
+      </c>
+      <c r="E2360">
+        <v>1</v>
+      </c>
+      <c r="F2360">
+        <v>10</v>
+      </c>
+      <c r="G2360" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2361">
+        <v>0</v>
+      </c>
+      <c r="B2361">
+        <v>1</v>
+      </c>
+      <c r="C2361">
+        <v>0</v>
+      </c>
+      <c r="D2361">
+        <v>0</v>
+      </c>
+      <c r="E2361">
+        <v>1</v>
+      </c>
+      <c r="F2361">
+        <v>10</v>
+      </c>
+      <c r="G2361" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2362">
+        <v>0</v>
+      </c>
+      <c r="B2362">
+        <v>1</v>
+      </c>
+      <c r="C2362">
+        <v>0</v>
+      </c>
+      <c r="D2362">
+        <v>-2</v>
+      </c>
+      <c r="E2362">
+        <v>1</v>
+      </c>
+      <c r="F2362">
+        <v>10</v>
+      </c>
+      <c r="G2362" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2363">
+        <v>-2</v>
+      </c>
+      <c r="B2363">
+        <v>1</v>
+      </c>
+      <c r="C2363">
+        <v>0</v>
+      </c>
+      <c r="D2363">
+        <v>-2</v>
+      </c>
+      <c r="E2363">
+        <v>1</v>
+      </c>
+      <c r="F2363">
+        <v>10</v>
+      </c>
+      <c r="G2363" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2364">
+        <v>-2</v>
+      </c>
+      <c r="B2364">
+        <v>1</v>
+      </c>
+      <c r="C2364">
+        <v>0</v>
+      </c>
+      <c r="D2364">
+        <v>-2</v>
+      </c>
+      <c r="E2364">
+        <v>1</v>
+      </c>
+      <c r="F2364">
+        <v>10</v>
+      </c>
+      <c r="G2364" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2365">
+        <v>-2</v>
+      </c>
+      <c r="B2365">
+        <v>1</v>
+      </c>
+      <c r="C2365">
+        <v>0</v>
+      </c>
+      <c r="D2365">
+        <v>2</v>
+      </c>
+      <c r="E2365">
+        <v>1</v>
+      </c>
+      <c r="F2365">
+        <v>10</v>
+      </c>
+      <c r="G2365" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2366">
+        <v>-2</v>
+      </c>
+      <c r="B2366">
+        <v>1</v>
+      </c>
+      <c r="C2366">
+        <v>0</v>
+      </c>
+      <c r="D2366">
+        <v>0</v>
+      </c>
+      <c r="E2366">
+        <v>1</v>
+      </c>
+      <c r="F2366">
+        <v>10</v>
+      </c>
+      <c r="G2366" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2367">
+        <v>0</v>
+      </c>
+      <c r="B2367">
+        <v>1</v>
+      </c>
+      <c r="C2367">
+        <v>0</v>
+      </c>
+      <c r="D2367">
+        <v>0</v>
+      </c>
+      <c r="E2367">
+        <v>1</v>
+      </c>
+      <c r="F2367">
+        <v>10</v>
+      </c>
+      <c r="G2367" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2368">
+        <v>0</v>
+      </c>
+      <c r="B2368">
+        <v>1</v>
+      </c>
+      <c r="C2368">
+        <v>0</v>
+      </c>
+      <c r="D2368">
+        <v>0</v>
+      </c>
+      <c r="E2368">
+        <v>1</v>
+      </c>
+      <c r="F2368">
+        <v>10</v>
+      </c>
+      <c r="G2368" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2369">
+        <v>0</v>
+      </c>
+      <c r="B2369">
+        <v>1</v>
+      </c>
+      <c r="C2369">
+        <v>0</v>
+      </c>
+      <c r="D2369">
+        <v>2</v>
+      </c>
+      <c r="E2369">
+        <v>1</v>
+      </c>
+      <c r="F2369">
+        <v>10</v>
+      </c>
+      <c r="G2369" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2370">
+        <v>-2</v>
+      </c>
+      <c r="B2370">
+        <v>1</v>
+      </c>
+      <c r="C2370">
+        <v>0</v>
+      </c>
+      <c r="D2370">
+        <v>-2</v>
+      </c>
+      <c r="E2370">
+        <v>1</v>
+      </c>
+      <c r="F2370">
+        <v>10</v>
+      </c>
+      <c r="G2370" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2371">
+        <v>-2</v>
+      </c>
+      <c r="B2371">
+        <v>1</v>
+      </c>
+      <c r="C2371">
+        <v>0</v>
+      </c>
+      <c r="D2371">
+        <v>2</v>
+      </c>
+      <c r="E2371">
+        <v>1</v>
+      </c>
+      <c r="F2371">
+        <v>10</v>
+      </c>
+      <c r="G2371" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2372">
+        <v>-2</v>
+      </c>
+      <c r="B2372">
+        <v>1</v>
+      </c>
+      <c r="C2372">
+        <v>0</v>
+      </c>
+      <c r="D2372">
+        <v>0</v>
+      </c>
+      <c r="E2372">
+        <v>1</v>
+      </c>
+      <c r="F2372">
+        <v>10</v>
+      </c>
+      <c r="G2372" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2373">
+        <v>0</v>
+      </c>
+      <c r="B2373">
+        <v>1</v>
+      </c>
+      <c r="C2373">
+        <v>0</v>
+      </c>
+      <c r="D2373">
+        <v>0</v>
+      </c>
+      <c r="E2373">
+        <v>1</v>
+      </c>
+      <c r="F2373">
+        <v>10</v>
+      </c>
+      <c r="G2373" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2374">
+        <v>0</v>
+      </c>
+      <c r="B2374">
+        <v>1</v>
+      </c>
+      <c r="C2374">
+        <v>0</v>
+      </c>
+      <c r="D2374">
+        <v>0</v>
+      </c>
+      <c r="E2374">
+        <v>1</v>
+      </c>
+      <c r="F2374">
+        <v>10</v>
+      </c>
+      <c r="G2374" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2375">
+        <v>0</v>
+      </c>
+      <c r="B2375">
+        <v>1</v>
+      </c>
+      <c r="C2375">
+        <v>0</v>
+      </c>
+      <c r="D2375">
+        <v>2</v>
+      </c>
+      <c r="E2375">
+        <v>1</v>
+      </c>
+      <c r="F2375">
+        <v>10</v>
+      </c>
+      <c r="G2375" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2376">
+        <v>2</v>
+      </c>
+      <c r="B2376">
+        <v>1</v>
+      </c>
+      <c r="C2376">
+        <v>0</v>
+      </c>
+      <c r="D2376">
+        <v>2</v>
+      </c>
+      <c r="E2376">
+        <v>1</v>
+      </c>
+      <c r="F2376">
+        <v>10</v>
+      </c>
+      <c r="G2376" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2377">
+        <v>2</v>
+      </c>
+      <c r="B2377">
+        <v>1</v>
+      </c>
+      <c r="C2377">
+        <v>0</v>
+      </c>
+      <c r="D2377">
+        <v>-2</v>
+      </c>
+      <c r="E2377">
+        <v>1</v>
+      </c>
+      <c r="F2377">
+        <v>10</v>
+      </c>
+      <c r="G2377" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2378">
+        <v>2</v>
+      </c>
+      <c r="B2378">
+        <v>1</v>
+      </c>
+      <c r="C2378">
+        <v>0</v>
+      </c>
+      <c r="D2378">
+        <v>2</v>
+      </c>
+      <c r="E2378">
+        <v>1</v>
+      </c>
+      <c r="F2378">
+        <v>10</v>
+      </c>
+      <c r="G2378" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2379">
+        <v>2</v>
+      </c>
+      <c r="B2379">
+        <v>1</v>
+      </c>
+      <c r="C2379">
+        <v>0</v>
+      </c>
+      <c r="D2379">
+        <v>0</v>
+      </c>
+      <c r="E2379">
+        <v>1</v>
+      </c>
+      <c r="F2379">
+        <v>10</v>
+      </c>
+      <c r="G2379" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2380">
+        <v>0</v>
+      </c>
+      <c r="B2380">
+        <v>1</v>
+      </c>
+      <c r="C2380">
+        <v>0</v>
+      </c>
+      <c r="D2380">
+        <v>0</v>
+      </c>
+      <c r="E2380">
+        <v>1</v>
+      </c>
+      <c r="F2380">
+        <v>10</v>
+      </c>
+      <c r="G2380" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2381">
+        <v>-2</v>
+      </c>
+      <c r="B2381">
+        <v>1</v>
+      </c>
+      <c r="C2381">
+        <v>0</v>
+      </c>
+      <c r="D2381">
+        <v>-2</v>
+      </c>
+      <c r="E2381">
+        <v>1</v>
+      </c>
+      <c r="F2381">
+        <v>10</v>
+      </c>
+      <c r="G2381" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2382">
+        <v>-2</v>
+      </c>
+      <c r="B2382">
+        <v>1</v>
+      </c>
+      <c r="C2382">
+        <v>0</v>
+      </c>
+      <c r="D2382">
+        <v>2</v>
+      </c>
+      <c r="E2382">
+        <v>1</v>
+      </c>
+      <c r="F2382">
+        <v>10</v>
+      </c>
+      <c r="G2382" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2383">
+        <v>-2</v>
+      </c>
+      <c r="B2383">
+        <v>1</v>
+      </c>
+      <c r="C2383">
+        <v>0</v>
+      </c>
+      <c r="D2383">
+        <v>0</v>
+      </c>
+      <c r="E2383">
+        <v>1</v>
+      </c>
+      <c r="F2383">
+        <v>10</v>
+      </c>
+      <c r="G2383" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2384">
+        <v>0</v>
+      </c>
+      <c r="B2384">
+        <v>1</v>
+      </c>
+      <c r="C2384">
+        <v>0</v>
+      </c>
+      <c r="D2384">
+        <v>0</v>
+      </c>
+      <c r="E2384">
+        <v>1</v>
+      </c>
+      <c r="F2384">
+        <v>10</v>
+      </c>
+      <c r="G2384" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2385">
+        <v>0</v>
+      </c>
+      <c r="B2385">
+        <v>1</v>
+      </c>
+      <c r="C2385">
+        <v>0</v>
+      </c>
+      <c r="D2385">
+        <v>-2</v>
+      </c>
+      <c r="E2385">
+        <v>1</v>
+      </c>
+      <c r="F2385">
+        <v>10</v>
+      </c>
+      <c r="G2385" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2386">
+        <v>-2</v>
+      </c>
+      <c r="B2386">
+        <v>1</v>
+      </c>
+      <c r="C2386">
+        <v>0</v>
+      </c>
+      <c r="D2386">
+        <v>-2</v>
+      </c>
+      <c r="E2386">
+        <v>1</v>
+      </c>
+      <c r="F2386">
+        <v>10</v>
+      </c>
+      <c r="G2386" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2387">
+        <v>-2</v>
+      </c>
+      <c r="B2387">
+        <v>1</v>
+      </c>
+      <c r="C2387">
+        <v>0</v>
+      </c>
+      <c r="D2387">
+        <v>0</v>
+      </c>
+      <c r="E2387">
+        <v>1</v>
+      </c>
+      <c r="F2387">
+        <v>10</v>
+      </c>
+      <c r="G2387" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2388">
+        <v>0</v>
+      </c>
+      <c r="B2388">
+        <v>1</v>
+      </c>
+      <c r="C2388">
+        <v>0</v>
+      </c>
+      <c r="D2388">
+        <v>0</v>
+      </c>
+      <c r="E2388">
+        <v>1</v>
+      </c>
+      <c r="F2388">
+        <v>10</v>
+      </c>
+      <c r="G2388" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2389">
+        <v>0</v>
+      </c>
+      <c r="B2389">
+        <v>1</v>
+      </c>
+      <c r="C2389">
+        <v>0</v>
+      </c>
+      <c r="D2389">
+        <v>-2</v>
+      </c>
+      <c r="E2389">
+        <v>1</v>
+      </c>
+      <c r="F2389">
+        <v>10</v>
+      </c>
+      <c r="G2389" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2390">
+        <v>0</v>
+      </c>
+      <c r="B2390">
+        <v>1</v>
+      </c>
+      <c r="C2390">
+        <v>0</v>
+      </c>
+      <c r="D2390">
+        <v>2</v>
+      </c>
+      <c r="E2390">
+        <v>1</v>
+      </c>
+      <c r="F2390">
+        <v>10</v>
+      </c>
+      <c r="G2390" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2391">
+        <v>2</v>
+      </c>
+      <c r="B2391">
+        <v>1</v>
+      </c>
+      <c r="C2391">
+        <v>0</v>
+      </c>
+      <c r="D2391">
+        <v>2</v>
+      </c>
+      <c r="E2391">
+        <v>1</v>
+      </c>
+      <c r="F2391">
+        <v>10</v>
+      </c>
+      <c r="G2391" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2392">
+        <v>2</v>
+      </c>
+      <c r="B2392">
+        <v>1</v>
+      </c>
+      <c r="C2392">
+        <v>0</v>
+      </c>
+      <c r="D2392">
+        <v>-2</v>
+      </c>
+      <c r="E2392">
+        <v>1</v>
+      </c>
+      <c r="F2392">
+        <v>10</v>
+      </c>
+      <c r="G2392" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2393">
+        <v>2</v>
+      </c>
+      <c r="B2393">
+        <v>1</v>
+      </c>
+      <c r="C2393">
+        <v>0</v>
+      </c>
+      <c r="D2393">
+        <v>0</v>
+      </c>
+      <c r="E2393">
+        <v>1</v>
+      </c>
+      <c r="F2393">
+        <v>10</v>
+      </c>
+      <c r="G2393" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2394">
+        <v>0</v>
+      </c>
+      <c r="B2394">
+        <v>1</v>
+      </c>
+      <c r="C2394">
+        <v>0</v>
+      </c>
+      <c r="D2394">
+        <v>-2</v>
+      </c>
+      <c r="E2394">
+        <v>1</v>
+      </c>
+      <c r="F2394">
+        <v>10</v>
+      </c>
+      <c r="G2394" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2395">
+        <v>-2</v>
+      </c>
+      <c r="B2395">
+        <v>1</v>
+      </c>
+      <c r="C2395">
+        <v>0</v>
+      </c>
+      <c r="D2395">
+        <v>0</v>
+      </c>
+      <c r="E2395">
+        <v>1</v>
+      </c>
+      <c r="F2395">
+        <v>10</v>
+      </c>
+      <c r="G2395" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2396">
+        <v>0</v>
+      </c>
+      <c r="B2396">
+        <v>1</v>
+      </c>
+      <c r="C2396">
+        <v>0</v>
+      </c>
+      <c r="D2396">
+        <v>0</v>
+      </c>
+      <c r="E2396">
+        <v>1</v>
+      </c>
+      <c r="F2396">
+        <v>10</v>
+      </c>
+      <c r="G2396" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2397">
+        <v>0</v>
+      </c>
+      <c r="B2397">
+        <v>1</v>
+      </c>
+      <c r="C2397">
+        <v>0</v>
+      </c>
+      <c r="D2397">
+        <v>0</v>
+      </c>
+      <c r="E2397">
+        <v>1</v>
+      </c>
+      <c r="F2397">
+        <v>10</v>
+      </c>
+      <c r="G2397" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2398">
+        <v>0</v>
+      </c>
+      <c r="B2398">
+        <v>1</v>
+      </c>
+      <c r="C2398">
+        <v>0</v>
+      </c>
+      <c r="D2398">
+        <v>-2</v>
+      </c>
+      <c r="E2398">
+        <v>1</v>
+      </c>
+      <c r="F2398">
+        <v>10</v>
+      </c>
+      <c r="G2398" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2399">
+        <v>0</v>
+      </c>
+      <c r="B2399">
+        <v>1</v>
+      </c>
+      <c r="C2399">
+        <v>0</v>
+      </c>
+      <c r="D2399">
+        <v>0</v>
+      </c>
+      <c r="E2399">
+        <v>1</v>
+      </c>
+      <c r="F2399">
+        <v>10</v>
+      </c>
+      <c r="G2399" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2400">
+        <v>0</v>
+      </c>
+      <c r="B2400">
+        <v>1</v>
+      </c>
+      <c r="C2400">
+        <v>0</v>
+      </c>
+      <c r="D2400">
+        <v>-2</v>
+      </c>
+      <c r="E2400">
+        <v>1</v>
+      </c>
+      <c r="F2400">
+        <v>10</v>
+      </c>
+      <c r="G2400" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2401">
+        <v>0</v>
+      </c>
+      <c r="B2401">
+        <v>1</v>
+      </c>
+      <c r="C2401">
+        <v>0</v>
+      </c>
+      <c r="D2401">
+        <v>2</v>
+      </c>
+      <c r="E2401">
+        <v>1</v>
+      </c>
+      <c r="F2401">
+        <v>10</v>
+      </c>
+      <c r="G2401" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2402">
+        <v>2</v>
+      </c>
+      <c r="B2402">
+        <v>1</v>
+      </c>
+      <c r="C2402">
+        <v>0</v>
+      </c>
+      <c r="D2402">
+        <v>0</v>
+      </c>
+      <c r="E2402">
+        <v>1</v>
+      </c>
+      <c r="F2402">
+        <v>10</v>
+      </c>
+      <c r="G2402" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2403">
+        <v>0</v>
+      </c>
+      <c r="B2403">
+        <v>1</v>
+      </c>
+      <c r="C2403">
+        <v>0</v>
+      </c>
+      <c r="D2403">
+        <v>0</v>
+      </c>
+      <c r="E2403">
+        <v>1</v>
+      </c>
+      <c r="F2403">
+        <v>10</v>
+      </c>
+      <c r="G2403" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2404">
+        <v>0</v>
+      </c>
+      <c r="B2404">
+        <v>1</v>
+      </c>
+      <c r="C2404">
+        <v>0</v>
+      </c>
+      <c r="D2404">
+        <v>0</v>
+      </c>
+      <c r="E2404">
+        <v>1</v>
+      </c>
+      <c r="F2404">
+        <v>10</v>
+      </c>
+      <c r="G2404" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2405">
+        <v>0</v>
+      </c>
+      <c r="B2405">
+        <v>1</v>
+      </c>
+      <c r="C2405">
+        <v>0</v>
+      </c>
+      <c r="D2405">
+        <v>2</v>
+      </c>
+      <c r="E2405">
+        <v>1</v>
+      </c>
+      <c r="F2405">
+        <v>10</v>
+      </c>
+      <c r="G2405" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2406">
+        <v>0</v>
+      </c>
+      <c r="B2406">
+        <v>1</v>
+      </c>
+      <c r="C2406">
+        <v>0</v>
+      </c>
+      <c r="D2406">
+        <v>-2</v>
+      </c>
+      <c r="E2406">
+        <v>1</v>
+      </c>
+      <c r="F2406">
+        <v>10</v>
+      </c>
+      <c r="G2406" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2407">
+        <v>-2</v>
+      </c>
+      <c r="B2407">
+        <v>1</v>
+      </c>
+      <c r="C2407">
+        <v>0</v>
+      </c>
+      <c r="D2407">
+        <v>0</v>
+      </c>
+      <c r="E2407">
+        <v>1</v>
+      </c>
+      <c r="F2407">
+        <v>10</v>
+      </c>
+      <c r="G2407" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2408">
+        <v>0</v>
+      </c>
+      <c r="B2408">
+        <v>1</v>
+      </c>
+      <c r="C2408">
+        <v>0</v>
+      </c>
+      <c r="D2408">
+        <v>0</v>
+      </c>
+      <c r="E2408">
+        <v>1</v>
+      </c>
+      <c r="F2408">
+        <v>10</v>
+      </c>
+      <c r="G2408" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2409">
+        <v>0</v>
+      </c>
+      <c r="B2409">
+        <v>1</v>
+      </c>
+      <c r="C2409">
+        <v>0</v>
+      </c>
+      <c r="D2409">
+        <v>2</v>
+      </c>
+      <c r="E2409">
+        <v>1</v>
+      </c>
+      <c r="F2409">
+        <v>10</v>
+      </c>
+      <c r="G2409" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2410">
+        <v>0</v>
+      </c>
+      <c r="B2410">
+        <v>1</v>
+      </c>
+      <c r="C2410">
+        <v>0</v>
+      </c>
+      <c r="D2410">
+        <v>-2</v>
+      </c>
+      <c r="E2410">
+        <v>1</v>
+      </c>
+      <c r="F2410">
+        <v>10</v>
+      </c>
+      <c r="G2410" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2411">
+        <v>-2</v>
+      </c>
+      <c r="B2411">
+        <v>1</v>
+      </c>
+      <c r="C2411">
+        <v>0</v>
+      </c>
+      <c r="D2411">
+        <v>-2</v>
+      </c>
+      <c r="E2411">
+        <v>1</v>
+      </c>
+      <c r="F2411">
+        <v>10</v>
+      </c>
+      <c r="G2411" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2412">
+        <v>-2</v>
+      </c>
+      <c r="B2412">
+        <v>1</v>
+      </c>
+      <c r="C2412">
+        <v>0</v>
+      </c>
+      <c r="D2412">
+        <v>2</v>
+      </c>
+      <c r="E2412">
+        <v>1</v>
+      </c>
+      <c r="F2412">
+        <v>10</v>
+      </c>
+      <c r="G2412" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2413">
+        <v>-2</v>
+      </c>
+      <c r="B2413">
+        <v>1</v>
+      </c>
+      <c r="C2413">
+        <v>0</v>
+      </c>
+      <c r="D2413">
+        <v>-2</v>
+      </c>
+      <c r="E2413">
+        <v>1</v>
+      </c>
+      <c r="F2413">
+        <v>10</v>
+      </c>
+      <c r="G2413" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2414">
+        <v>-2</v>
+      </c>
+      <c r="B2414">
+        <v>1</v>
+      </c>
+      <c r="C2414">
+        <v>0</v>
+      </c>
+      <c r="D2414">
+        <v>2</v>
+      </c>
+      <c r="E2414">
+        <v>1</v>
+      </c>
+      <c r="F2414">
+        <v>10</v>
+      </c>
+      <c r="G2414" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2415">
+        <v>-2</v>
+      </c>
+      <c r="B2415">
+        <v>1</v>
+      </c>
+      <c r="C2415">
+        <v>0</v>
+      </c>
+      <c r="D2415">
+        <v>0</v>
+      </c>
+      <c r="E2415">
+        <v>1</v>
+      </c>
+      <c r="F2415">
+        <v>10</v>
+      </c>
+      <c r="G2415" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2416">
+        <v>-2</v>
+      </c>
+      <c r="B2416">
+        <v>1</v>
+      </c>
+      <c r="C2416">
+        <v>0</v>
+      </c>
+      <c r="D2416">
+        <v>2</v>
+      </c>
+      <c r="E2416">
+        <v>1</v>
+      </c>
+      <c r="F2416">
+        <v>10</v>
+      </c>
+      <c r="G2416" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2417">
+        <v>-2</v>
+      </c>
+      <c r="B2417">
+        <v>1</v>
+      </c>
+      <c r="C2417">
+        <v>0</v>
+      </c>
+      <c r="D2417">
+        <v>0</v>
+      </c>
+      <c r="E2417">
+        <v>1</v>
+      </c>
+      <c r="F2417">
+        <v>10</v>
+      </c>
+      <c r="G2417" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2418">
+        <v>0</v>
+      </c>
+      <c r="B2418">
+        <v>1</v>
+      </c>
+      <c r="C2418">
+        <v>0</v>
+      </c>
+      <c r="D2418">
+        <v>0</v>
+      </c>
+      <c r="E2418">
+        <v>1</v>
+      </c>
+      <c r="F2418">
+        <v>10</v>
+      </c>
+      <c r="G2418" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2419">
+        <v>0</v>
+      </c>
+      <c r="B2419">
+        <v>1</v>
+      </c>
+      <c r="C2419">
+        <v>0</v>
+      </c>
+      <c r="D2419">
+        <v>-2</v>
+      </c>
+      <c r="E2419">
+        <v>1</v>
+      </c>
+      <c r="F2419">
+        <v>10</v>
+      </c>
+      <c r="G2419" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2420">
+        <v>-2</v>
+      </c>
+      <c r="B2420">
+        <v>1</v>
+      </c>
+      <c r="C2420">
+        <v>0</v>
+      </c>
+      <c r="D2420">
+        <v>-2</v>
+      </c>
+      <c r="E2420">
+        <v>1</v>
+      </c>
+      <c r="F2420">
+        <v>10</v>
+      </c>
+      <c r="G2420" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2421">
+        <v>-2</v>
+      </c>
+      <c r="B2421">
+        <v>1</v>
+      </c>
+      <c r="C2421">
+        <v>0</v>
+      </c>
+      <c r="D2421">
+        <v>2</v>
+      </c>
+      <c r="E2421">
+        <v>1</v>
+      </c>
+      <c r="F2421">
+        <v>10</v>
+      </c>
+      <c r="G2421" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2422">
+        <v>0</v>
+      </c>
+      <c r="B2422">
+        <v>1</v>
+      </c>
+      <c r="C2422">
+        <v>0</v>
+      </c>
+      <c r="D2422">
+        <v>2</v>
+      </c>
+      <c r="E2422">
+        <v>1</v>
+      </c>
+      <c r="F2422">
+        <v>10</v>
+      </c>
+      <c r="G2422" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2423">
+        <v>-2</v>
+      </c>
+      <c r="B2423">
+        <v>1</v>
+      </c>
+      <c r="C2423">
+        <v>0</v>
+      </c>
+      <c r="D2423">
+        <v>0</v>
+      </c>
+      <c r="E2423">
+        <v>1</v>
+      </c>
+      <c r="F2423">
+        <v>10</v>
+      </c>
+      <c r="G2423" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2424">
+        <v>0</v>
+      </c>
+      <c r="B2424">
+        <v>1</v>
+      </c>
+      <c r="C2424">
+        <v>0</v>
+      </c>
+      <c r="D2424">
+        <v>-2</v>
+      </c>
+      <c r="E2424">
+        <v>1</v>
+      </c>
+      <c r="F2424">
+        <v>10</v>
+      </c>
+      <c r="G2424" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2425">
+        <v>-2</v>
+      </c>
+      <c r="B2425">
+        <v>1</v>
+      </c>
+      <c r="C2425">
+        <v>0</v>
+      </c>
+      <c r="D2425">
+        <v>2</v>
+      </c>
+      <c r="E2425">
+        <v>1</v>
+      </c>
+      <c r="F2425">
+        <v>10</v>
+      </c>
+      <c r="G2425" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2426">
+        <v>-2</v>
+      </c>
+      <c r="B2426">
+        <v>1</v>
+      </c>
+      <c r="C2426">
+        <v>0</v>
+      </c>
+      <c r="D2426">
+        <v>0</v>
+      </c>
+      <c r="E2426">
+        <v>1</v>
+      </c>
+      <c r="F2426">
+        <v>10</v>
+      </c>
+      <c r="G2426" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2427">
+        <v>0</v>
+      </c>
+      <c r="B2427">
+        <v>1</v>
+      </c>
+      <c r="C2427">
+        <v>0</v>
+      </c>
+      <c r="D2427">
+        <v>0</v>
+      </c>
+      <c r="E2427">
+        <v>1</v>
+      </c>
+      <c r="F2427">
+        <v>10</v>
+      </c>
+      <c r="G2427" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2428">
+        <v>0</v>
+      </c>
+      <c r="B2428">
+        <v>1</v>
+      </c>
+      <c r="C2428">
+        <v>0</v>
+      </c>
+      <c r="D2428">
+        <v>-2</v>
+      </c>
+      <c r="E2428">
+        <v>1</v>
+      </c>
+      <c r="F2428">
+        <v>10</v>
+      </c>
+      <c r="G2428" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2429">
+        <v>-2</v>
+      </c>
+      <c r="B2429">
+        <v>1</v>
+      </c>
+      <c r="C2429">
+        <v>0</v>
+      </c>
+      <c r="D2429">
+        <v>0</v>
+      </c>
+      <c r="E2429">
+        <v>1</v>
+      </c>
+      <c r="F2429">
+        <v>10</v>
+      </c>
+      <c r="G2429" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2430">
+        <v>0</v>
+      </c>
+      <c r="B2430">
+        <v>1</v>
+      </c>
+      <c r="C2430">
+        <v>0</v>
+      </c>
+      <c r="D2430">
+        <v>2</v>
+      </c>
+      <c r="E2430">
+        <v>1</v>
+      </c>
+      <c r="F2430">
+        <v>10</v>
+      </c>
+      <c r="G2430" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2431">
+        <v>2</v>
+      </c>
+      <c r="B2431">
+        <v>1</v>
+      </c>
+      <c r="C2431">
+        <v>0</v>
+      </c>
+      <c r="D2431">
+        <v>0</v>
+      </c>
+      <c r="E2431">
+        <v>1</v>
+      </c>
+      <c r="F2431">
+        <v>10</v>
+      </c>
+      <c r="G2431" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2432">
+        <v>0</v>
+      </c>
+      <c r="B2432">
+        <v>1</v>
+      </c>
+      <c r="C2432">
+        <v>0</v>
+      </c>
+      <c r="D2432">
+        <v>0</v>
+      </c>
+      <c r="E2432">
+        <v>1</v>
+      </c>
+      <c r="F2432">
+        <v>10</v>
+      </c>
+      <c r="G2432" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2433">
+        <v>0</v>
+      </c>
+      <c r="B2433">
+        <v>1</v>
+      </c>
+      <c r="C2433">
+        <v>0</v>
+      </c>
+      <c r="D2433">
+        <v>-2</v>
+      </c>
+      <c r="E2433">
+        <v>1</v>
+      </c>
+      <c r="F2433">
+        <v>10</v>
+      </c>
+      <c r="G2433" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2434">
+        <v>-2</v>
+      </c>
+      <c r="B2434">
+        <v>1</v>
+      </c>
+      <c r="C2434">
+        <v>0</v>
+      </c>
+      <c r="D2434">
+        <v>-2</v>
+      </c>
+      <c r="E2434">
+        <v>1</v>
+      </c>
+      <c r="F2434">
+        <v>10</v>
+      </c>
+      <c r="G2434" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2435">
+        <v>-2</v>
+      </c>
+      <c r="B2435">
+        <v>1</v>
+      </c>
+      <c r="C2435">
+        <v>0</v>
+      </c>
+      <c r="D2435">
+        <v>0</v>
+      </c>
+      <c r="E2435">
+        <v>1</v>
+      </c>
+      <c r="F2435">
+        <v>10</v>
+      </c>
+      <c r="G2435" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2436">
+        <v>0</v>
+      </c>
+      <c r="B2436">
+        <v>1</v>
+      </c>
+      <c r="C2436">
+        <v>0</v>
+      </c>
+      <c r="D2436">
+        <v>0</v>
+      </c>
+      <c r="E2436">
+        <v>1</v>
+      </c>
+      <c r="F2436">
+        <v>10</v>
+      </c>
+      <c r="G2436" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2437">
+        <v>0</v>
+      </c>
+      <c r="B2437">
+        <v>1</v>
+      </c>
+      <c r="C2437">
+        <v>0</v>
+      </c>
+      <c r="D2437">
+        <v>-2</v>
+      </c>
+      <c r="E2437">
+        <v>1</v>
+      </c>
+      <c r="F2437">
+        <v>10</v>
+      </c>
+      <c r="G2437" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2438">
+        <v>-2</v>
+      </c>
+      <c r="B2438">
+        <v>1</v>
+      </c>
+      <c r="C2438">
+        <v>0</v>
+      </c>
+      <c r="D2438">
+        <v>-2</v>
+      </c>
+      <c r="E2438">
+        <v>1</v>
+      </c>
+      <c r="F2438">
+        <v>10</v>
+      </c>
+      <c r="G2438" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2439">
+        <v>-2</v>
+      </c>
+      <c r="B2439">
+        <v>1</v>
+      </c>
+      <c r="C2439">
+        <v>0</v>
+      </c>
+      <c r="D2439">
+        <v>2</v>
+      </c>
+      <c r="E2439">
+        <v>1</v>
+      </c>
+      <c r="F2439">
+        <v>10</v>
+      </c>
+      <c r="G2439" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2440">
+        <v>2</v>
+      </c>
+      <c r="B2440">
+        <v>1</v>
+      </c>
+      <c r="C2440">
+        <v>0</v>
+      </c>
+      <c r="D2440">
+        <v>2</v>
+      </c>
+      <c r="E2440">
+        <v>1</v>
+      </c>
+      <c r="F2440">
+        <v>10</v>
+      </c>
+      <c r="G2440" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2441">
+        <v>2</v>
+      </c>
+      <c r="B2441">
+        <v>1</v>
+      </c>
+      <c r="C2441">
+        <v>0</v>
+      </c>
+      <c r="D2441">
+        <v>0</v>
+      </c>
+      <c r="E2441">
+        <v>1</v>
+      </c>
+      <c r="F2441">
+        <v>10</v>
+      </c>
+      <c r="G2441" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2442">
+        <v>0</v>
+      </c>
+      <c r="B2442">
+        <v>1</v>
+      </c>
+      <c r="C2442">
+        <v>0</v>
+      </c>
+      <c r="D2442">
+        <v>0</v>
+      </c>
+      <c r="E2442">
+        <v>1</v>
+      </c>
+      <c r="F2442">
+        <v>10</v>
+      </c>
+      <c r="G2442" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2443">
+        <v>0</v>
+      </c>
+      <c r="B2443">
+        <v>1</v>
+      </c>
+      <c r="C2443">
+        <v>0</v>
+      </c>
+      <c r="D2443">
+        <v>-2</v>
+      </c>
+      <c r="E2443">
+        <v>1</v>
+      </c>
+      <c r="F2443">
+        <v>10</v>
+      </c>
+      <c r="G2443" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2444">
+        <v>-2</v>
+      </c>
+      <c r="B2444">
+        <v>1</v>
+      </c>
+      <c r="C2444">
+        <v>0</v>
+      </c>
+      <c r="D2444">
+        <v>2</v>
+      </c>
+      <c r="E2444">
+        <v>1</v>
+      </c>
+      <c r="F2444">
+        <v>10</v>
+      </c>
+      <c r="G2444" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2445">
+        <v>-2</v>
+      </c>
+      <c r="B2445">
+        <v>1</v>
+      </c>
+      <c r="C2445">
+        <v>0</v>
+      </c>
+      <c r="D2445">
+        <v>0</v>
+      </c>
+      <c r="E2445">
+        <v>1</v>
+      </c>
+      <c r="F2445">
+        <v>10</v>
+      </c>
+      <c r="G2445" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2446">
+        <v>0</v>
+      </c>
+      <c r="B2446">
+        <v>1</v>
+      </c>
+      <c r="C2446">
+        <v>0</v>
+      </c>
+      <c r="D2446">
+        <v>0</v>
+      </c>
+      <c r="E2446">
+        <v>1</v>
+      </c>
+      <c r="F2446">
+        <v>10</v>
+      </c>
+      <c r="G2446" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2447">
+        <v>0</v>
+      </c>
+      <c r="B2447">
+        <v>1</v>
+      </c>
+      <c r="C2447">
+        <v>0</v>
+      </c>
+      <c r="D2447">
+        <v>-2</v>
+      </c>
+      <c r="E2447">
+        <v>1</v>
+      </c>
+      <c r="F2447">
+        <v>10</v>
+      </c>
+      <c r="G2447" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2448">
+        <v>-2</v>
+      </c>
+      <c r="B2448">
+        <v>1</v>
+      </c>
+      <c r="C2448">
+        <v>0</v>
+      </c>
+      <c r="D2448">
+        <v>2</v>
+      </c>
+      <c r="E2448">
+        <v>1</v>
+      </c>
+      <c r="F2448">
+        <v>10</v>
+      </c>
+      <c r="G2448" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2449">
+        <v>-2</v>
+      </c>
+      <c r="B2449">
+        <v>1</v>
+      </c>
+      <c r="C2449">
+        <v>0</v>
+      </c>
+      <c r="D2449">
+        <v>0</v>
+      </c>
+      <c r="E2449">
+        <v>1</v>
+      </c>
+      <c r="F2449">
+        <v>10</v>
+      </c>
+      <c r="G2449" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2450">
+        <v>0</v>
+      </c>
+      <c r="B2450">
+        <v>1</v>
+      </c>
+      <c r="C2450">
+        <v>0</v>
+      </c>
+      <c r="D2450">
+        <v>0</v>
+      </c>
+      <c r="E2450">
+        <v>1</v>
+      </c>
+      <c r="F2450">
+        <v>10</v>
+      </c>
+      <c r="G2450" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2451">
+        <v>0</v>
+      </c>
+      <c r="B2451">
+        <v>1</v>
+      </c>
+      <c r="C2451">
+        <v>0</v>
+      </c>
+      <c r="D2451">
+        <v>-2</v>
+      </c>
+      <c r="E2451">
+        <v>1</v>
+      </c>
+      <c r="F2451">
+        <v>10</v>
+      </c>
+      <c r="G2451" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2452">
+        <v>-2</v>
+      </c>
+      <c r="B2452">
+        <v>1</v>
+      </c>
+      <c r="C2452">
+        <v>0</v>
+      </c>
+      <c r="D2452">
+        <v>-2</v>
+      </c>
+      <c r="E2452">
+        <v>1</v>
+      </c>
+      <c r="F2452">
+        <v>10</v>
+      </c>
+      <c r="G2452" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2453">
+        <v>-2</v>
+      </c>
+      <c r="B2453">
+        <v>1</v>
+      </c>
+      <c r="C2453">
+        <v>0</v>
+      </c>
+      <c r="D2453">
+        <v>0</v>
+      </c>
+      <c r="E2453">
+        <v>1</v>
+      </c>
+      <c r="F2453">
+        <v>10</v>
+      </c>
+      <c r="G2453" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2454">
+        <v>0</v>
+      </c>
+      <c r="B2454">
+        <v>1</v>
+      </c>
+      <c r="C2454">
+        <v>0</v>
+      </c>
+      <c r="D2454">
+        <v>0</v>
+      </c>
+      <c r="E2454">
+        <v>1</v>
+      </c>
+      <c r="F2454">
+        <v>10</v>
+      </c>
+      <c r="G2454" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2455">
+        <v>0</v>
+      </c>
+      <c r="B2455">
+        <v>1</v>
+      </c>
+      <c r="C2455">
+        <v>0</v>
+      </c>
+      <c r="D2455">
+        <v>2</v>
+      </c>
+      <c r="E2455">
+        <v>1</v>
+      </c>
+      <c r="F2455">
+        <v>10</v>
+      </c>
+      <c r="G2455" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2456">
+        <v>2</v>
+      </c>
+      <c r="B2456">
+        <v>1</v>
+      </c>
+      <c r="C2456">
+        <v>0</v>
+      </c>
+      <c r="D2456">
+        <v>-2</v>
+      </c>
+      <c r="E2456">
+        <v>1</v>
+      </c>
+      <c r="F2456">
+        <v>10</v>
+      </c>
+      <c r="G2456" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2457">
+        <v>2</v>
+      </c>
+      <c r="B2457">
+        <v>1</v>
+      </c>
+      <c r="C2457">
+        <v>0</v>
+      </c>
+      <c r="D2457">
+        <v>0</v>
+      </c>
+      <c r="E2457">
+        <v>1</v>
+      </c>
+      <c r="F2457">
+        <v>10</v>
+      </c>
+      <c r="G2457" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2458">
+        <v>-2</v>
+      </c>
+      <c r="B2458">
+        <v>1</v>
+      </c>
+      <c r="C2458">
+        <v>0</v>
+      </c>
+      <c r="D2458">
+        <v>0</v>
+      </c>
+      <c r="E2458">
+        <v>1</v>
+      </c>
+      <c r="F2458">
+        <v>10</v>
+      </c>
+      <c r="G2458" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2459">
+        <v>0</v>
+      </c>
+      <c r="B2459">
+        <v>1</v>
+      </c>
+      <c r="C2459">
+        <v>0</v>
+      </c>
+      <c r="D2459">
+        <v>0</v>
+      </c>
+      <c r="E2459">
+        <v>1</v>
+      </c>
+      <c r="F2459">
+        <v>10</v>
+      </c>
+      <c r="G2459" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2460">
+        <v>0</v>
+      </c>
+      <c r="B2460">
+        <v>1</v>
+      </c>
+      <c r="C2460">
+        <v>0</v>
+      </c>
+      <c r="D2460">
+        <v>-2</v>
+      </c>
+      <c r="E2460">
+        <v>1</v>
+      </c>
+      <c r="F2460">
+        <v>10</v>
+      </c>
+      <c r="G2460" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2461">
+        <v>-2</v>
+      </c>
+      <c r="B2461">
+        <v>1</v>
+      </c>
+      <c r="C2461">
+        <v>0</v>
+      </c>
+      <c r="D2461">
+        <v>2</v>
+      </c>
+      <c r="E2461">
+        <v>1</v>
+      </c>
+      <c r="F2461">
+        <v>10</v>
+      </c>
+      <c r="G2461" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2462">
+        <v>-2</v>
+      </c>
+      <c r="B2462">
+        <v>1</v>
+      </c>
+      <c r="C2462">
+        <v>0</v>
+      </c>
+      <c r="D2462">
+        <v>0</v>
+      </c>
+      <c r="E2462">
+        <v>1</v>
+      </c>
+      <c r="F2462">
+        <v>10</v>
+      </c>
+      <c r="G2462" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2463">
+        <v>0</v>
+      </c>
+      <c r="B2463">
+        <v>1</v>
+      </c>
+      <c r="C2463">
+        <v>0</v>
+      </c>
+      <c r="D2463">
+        <v>0</v>
+      </c>
+      <c r="E2463">
+        <v>1</v>
+      </c>
+      <c r="F2463">
+        <v>10</v>
+      </c>
+      <c r="G2463" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2464">
+        <v>0</v>
+      </c>
+      <c r="B2464">
+        <v>1</v>
+      </c>
+      <c r="C2464">
+        <v>0</v>
+      </c>
+      <c r="D2464">
+        <v>-2</v>
+      </c>
+      <c r="E2464">
+        <v>1</v>
+      </c>
+      <c r="F2464">
+        <v>10</v>
+      </c>
+      <c r="G2464" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2465">
+        <v>-2</v>
+      </c>
+      <c r="B2465">
+        <v>1</v>
+      </c>
+      <c r="C2465">
+        <v>0</v>
+      </c>
+      <c r="D2465">
+        <v>-2</v>
+      </c>
+      <c r="E2465">
+        <v>1</v>
+      </c>
+      <c r="F2465">
+        <v>10</v>
+      </c>
+      <c r="G2465" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2466">
+        <v>-2</v>
+      </c>
+      <c r="B2466">
+        <v>1</v>
+      </c>
+      <c r="C2466">
+        <v>0</v>
+      </c>
+      <c r="D2466">
+        <v>-2</v>
+      </c>
+      <c r="E2466">
+        <v>1</v>
+      </c>
+      <c r="F2466">
+        <v>10</v>
+      </c>
+      <c r="G2466" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2467">
+        <v>-2</v>
+      </c>
+      <c r="B2467">
+        <v>1</v>
+      </c>
+      <c r="C2467">
+        <v>0</v>
+      </c>
+      <c r="D2467">
+        <v>2</v>
+      </c>
+      <c r="E2467">
+        <v>1</v>
+      </c>
+      <c r="F2467">
+        <v>10</v>
+      </c>
+      <c r="G2467" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2468">
+        <v>-2</v>
+      </c>
+      <c r="B2468">
+        <v>1</v>
+      </c>
+      <c r="C2468">
+        <v>0</v>
+      </c>
+      <c r="D2468">
+        <v>2</v>
+      </c>
+      <c r="E2468">
+        <v>1</v>
+      </c>
+      <c r="F2468">
+        <v>10</v>
+      </c>
+      <c r="G2468" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2469">
+        <v>0</v>
+      </c>
+      <c r="B2469">
+        <v>1</v>
+      </c>
+      <c r="C2469">
+        <v>0</v>
+      </c>
+      <c r="D2469">
+        <v>2</v>
+      </c>
+      <c r="E2469">
+        <v>1</v>
+      </c>
+      <c r="F2469">
+        <v>10</v>
+      </c>
+      <c r="G2469" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2470">
+        <v>2</v>
+      </c>
+      <c r="B2470">
+        <v>1</v>
+      </c>
+      <c r="C2470">
+        <v>0</v>
+      </c>
+      <c r="D2470">
+        <v>2</v>
+      </c>
+      <c r="E2470">
+        <v>1</v>
+      </c>
+      <c r="F2470">
+        <v>10</v>
+      </c>
+      <c r="G2470" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2471">
+        <v>2</v>
+      </c>
+      <c r="B2471">
+        <v>1</v>
+      </c>
+      <c r="C2471">
+        <v>0</v>
+      </c>
+      <c r="D2471">
+        <v>0</v>
+      </c>
+      <c r="E2471">
+        <v>1</v>
+      </c>
+      <c r="F2471">
+        <v>10</v>
+      </c>
+      <c r="G2471" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2472">
+        <v>0</v>
+      </c>
+      <c r="B2472">
+        <v>1</v>
+      </c>
+      <c r="C2472">
+        <v>0</v>
+      </c>
+      <c r="D2472">
+        <v>0</v>
+      </c>
+      <c r="E2472">
+        <v>1</v>
+      </c>
+      <c r="F2472">
+        <v>10</v>
+      </c>
+      <c r="G2472" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="10">
   <si>
     <t>x1</t>
   </si>
@@ -361,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2472"/>
+  <dimension ref="A1:G2547"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="G10" sqref="G10"/>
@@ -57202,6 +57202,1731 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2473">
+        <v>0</v>
+      </c>
+      <c r="B2473">
+        <v>1</v>
+      </c>
+      <c r="C2473">
+        <v>0</v>
+      </c>
+      <c r="D2473">
+        <v>0</v>
+      </c>
+      <c r="E2473">
+        <v>1</v>
+      </c>
+      <c r="F2473">
+        <v>10</v>
+      </c>
+      <c r="G2473" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2474">
+        <v>0</v>
+      </c>
+      <c r="B2474">
+        <v>1</v>
+      </c>
+      <c r="C2474">
+        <v>0</v>
+      </c>
+      <c r="D2474">
+        <v>-2</v>
+      </c>
+      <c r="E2474">
+        <v>1</v>
+      </c>
+      <c r="F2474">
+        <v>10</v>
+      </c>
+      <c r="G2474" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2475">
+        <v>-2</v>
+      </c>
+      <c r="B2475">
+        <v>1</v>
+      </c>
+      <c r="C2475">
+        <v>0</v>
+      </c>
+      <c r="D2475">
+        <v>0</v>
+      </c>
+      <c r="E2475">
+        <v>1</v>
+      </c>
+      <c r="F2475">
+        <v>10</v>
+      </c>
+      <c r="G2475" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2476">
+        <v>0</v>
+      </c>
+      <c r="B2476">
+        <v>1</v>
+      </c>
+      <c r="C2476">
+        <v>0</v>
+      </c>
+      <c r="D2476">
+        <v>0</v>
+      </c>
+      <c r="E2476">
+        <v>1</v>
+      </c>
+      <c r="F2476">
+        <v>10</v>
+      </c>
+      <c r="G2476" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2477">
+        <v>0</v>
+      </c>
+      <c r="B2477">
+        <v>1</v>
+      </c>
+      <c r="C2477">
+        <v>0</v>
+      </c>
+      <c r="D2477">
+        <v>2</v>
+      </c>
+      <c r="E2477">
+        <v>1</v>
+      </c>
+      <c r="F2477">
+        <v>10</v>
+      </c>
+      <c r="G2477" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2478">
+        <v>2</v>
+      </c>
+      <c r="B2478">
+        <v>1</v>
+      </c>
+      <c r="C2478">
+        <v>0</v>
+      </c>
+      <c r="D2478">
+        <v>0</v>
+      </c>
+      <c r="E2478">
+        <v>1</v>
+      </c>
+      <c r="F2478">
+        <v>10</v>
+      </c>
+      <c r="G2478" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2479">
+        <v>0</v>
+      </c>
+      <c r="B2479">
+        <v>1</v>
+      </c>
+      <c r="C2479">
+        <v>0</v>
+      </c>
+      <c r="D2479">
+        <v>-2</v>
+      </c>
+      <c r="E2479">
+        <v>1</v>
+      </c>
+      <c r="F2479">
+        <v>10</v>
+      </c>
+      <c r="G2479" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2480">
+        <v>-2</v>
+      </c>
+      <c r="B2480">
+        <v>1</v>
+      </c>
+      <c r="C2480">
+        <v>0</v>
+      </c>
+      <c r="D2480">
+        <v>0</v>
+      </c>
+      <c r="E2480">
+        <v>1</v>
+      </c>
+      <c r="F2480">
+        <v>10</v>
+      </c>
+      <c r="G2480" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2481">
+        <v>0</v>
+      </c>
+      <c r="B2481">
+        <v>1</v>
+      </c>
+      <c r="C2481">
+        <v>0</v>
+      </c>
+      <c r="D2481">
+        <v>2</v>
+      </c>
+      <c r="E2481">
+        <v>1</v>
+      </c>
+      <c r="F2481">
+        <v>10</v>
+      </c>
+      <c r="G2481" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2482">
+        <v>2</v>
+      </c>
+      <c r="B2482">
+        <v>1</v>
+      </c>
+      <c r="C2482">
+        <v>0</v>
+      </c>
+      <c r="D2482">
+        <v>0</v>
+      </c>
+      <c r="E2482">
+        <v>1</v>
+      </c>
+      <c r="F2482">
+        <v>10</v>
+      </c>
+      <c r="G2482" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2483">
+        <v>0</v>
+      </c>
+      <c r="B2483">
+        <v>1</v>
+      </c>
+      <c r="C2483">
+        <v>0</v>
+      </c>
+      <c r="D2483">
+        <v>0</v>
+      </c>
+      <c r="E2483">
+        <v>1</v>
+      </c>
+      <c r="F2483">
+        <v>10</v>
+      </c>
+      <c r="G2483" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2484">
+        <v>0</v>
+      </c>
+      <c r="B2484">
+        <v>1</v>
+      </c>
+      <c r="C2484">
+        <v>0</v>
+      </c>
+      <c r="D2484">
+        <v>-2</v>
+      </c>
+      <c r="E2484">
+        <v>1</v>
+      </c>
+      <c r="F2484">
+        <v>10</v>
+      </c>
+      <c r="G2484" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2485">
+        <v>-2</v>
+      </c>
+      <c r="B2485">
+        <v>1</v>
+      </c>
+      <c r="C2485">
+        <v>0</v>
+      </c>
+      <c r="D2485">
+        <v>0</v>
+      </c>
+      <c r="E2485">
+        <v>1</v>
+      </c>
+      <c r="F2485">
+        <v>10</v>
+      </c>
+      <c r="G2485" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2486">
+        <v>0</v>
+      </c>
+      <c r="B2486">
+        <v>1</v>
+      </c>
+      <c r="C2486">
+        <v>0</v>
+      </c>
+      <c r="D2486">
+        <v>2</v>
+      </c>
+      <c r="E2486">
+        <v>1</v>
+      </c>
+      <c r="F2486">
+        <v>10</v>
+      </c>
+      <c r="G2486" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2487">
+        <v>2</v>
+      </c>
+      <c r="B2487">
+        <v>1</v>
+      </c>
+      <c r="C2487">
+        <v>0</v>
+      </c>
+      <c r="D2487">
+        <v>2</v>
+      </c>
+      <c r="E2487">
+        <v>1</v>
+      </c>
+      <c r="F2487">
+        <v>10</v>
+      </c>
+      <c r="G2487" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2488">
+        <v>2</v>
+      </c>
+      <c r="B2488">
+        <v>1</v>
+      </c>
+      <c r="C2488">
+        <v>0</v>
+      </c>
+      <c r="D2488">
+        <v>0</v>
+      </c>
+      <c r="E2488">
+        <v>1</v>
+      </c>
+      <c r="F2488">
+        <v>10</v>
+      </c>
+      <c r="G2488" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2489">
+        <v>0</v>
+      </c>
+      <c r="B2489">
+        <v>1</v>
+      </c>
+      <c r="C2489">
+        <v>0</v>
+      </c>
+      <c r="D2489">
+        <v>0</v>
+      </c>
+      <c r="E2489">
+        <v>1</v>
+      </c>
+      <c r="F2489">
+        <v>10</v>
+      </c>
+      <c r="G2489" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2490">
+        <v>0</v>
+      </c>
+      <c r="B2490">
+        <v>1</v>
+      </c>
+      <c r="C2490">
+        <v>0</v>
+      </c>
+      <c r="D2490">
+        <v>-2</v>
+      </c>
+      <c r="E2490">
+        <v>1</v>
+      </c>
+      <c r="F2490">
+        <v>10</v>
+      </c>
+      <c r="G2490" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2491">
+        <v>-2</v>
+      </c>
+      <c r="B2491">
+        <v>1</v>
+      </c>
+      <c r="C2491">
+        <v>0</v>
+      </c>
+      <c r="D2491">
+        <v>2</v>
+      </c>
+      <c r="E2491">
+        <v>1</v>
+      </c>
+      <c r="F2491">
+        <v>10</v>
+      </c>
+      <c r="G2491" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2492">
+        <v>-2</v>
+      </c>
+      <c r="B2492">
+        <v>1</v>
+      </c>
+      <c r="C2492">
+        <v>0</v>
+      </c>
+      <c r="D2492">
+        <v>0</v>
+      </c>
+      <c r="E2492">
+        <v>1</v>
+      </c>
+      <c r="F2492">
+        <v>10</v>
+      </c>
+      <c r="G2492" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2493">
+        <v>0</v>
+      </c>
+      <c r="B2493">
+        <v>1</v>
+      </c>
+      <c r="C2493">
+        <v>0</v>
+      </c>
+      <c r="D2493">
+        <v>0</v>
+      </c>
+      <c r="E2493">
+        <v>1</v>
+      </c>
+      <c r="F2493">
+        <v>10</v>
+      </c>
+      <c r="G2493" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2494">
+        <v>0</v>
+      </c>
+      <c r="B2494">
+        <v>1</v>
+      </c>
+      <c r="C2494">
+        <v>0</v>
+      </c>
+      <c r="D2494">
+        <v>-2</v>
+      </c>
+      <c r="E2494">
+        <v>1</v>
+      </c>
+      <c r="F2494">
+        <v>10</v>
+      </c>
+      <c r="G2494" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2495">
+        <v>-2</v>
+      </c>
+      <c r="B2495">
+        <v>1</v>
+      </c>
+      <c r="C2495">
+        <v>0</v>
+      </c>
+      <c r="D2495">
+        <v>-2</v>
+      </c>
+      <c r="E2495">
+        <v>1</v>
+      </c>
+      <c r="F2495">
+        <v>10</v>
+      </c>
+      <c r="G2495" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2496">
+        <v>-2</v>
+      </c>
+      <c r="B2496">
+        <v>1</v>
+      </c>
+      <c r="C2496">
+        <v>0</v>
+      </c>
+      <c r="D2496">
+        <v>0</v>
+      </c>
+      <c r="E2496">
+        <v>1</v>
+      </c>
+      <c r="F2496">
+        <v>10</v>
+      </c>
+      <c r="G2496" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2497">
+        <v>0</v>
+      </c>
+      <c r="B2497">
+        <v>1</v>
+      </c>
+      <c r="C2497">
+        <v>0</v>
+      </c>
+      <c r="D2497">
+        <v>0</v>
+      </c>
+      <c r="E2497">
+        <v>1</v>
+      </c>
+      <c r="F2497">
+        <v>10</v>
+      </c>
+      <c r="G2497" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2498">
+        <v>0</v>
+      </c>
+      <c r="B2498">
+        <v>1</v>
+      </c>
+      <c r="C2498">
+        <v>0</v>
+      </c>
+      <c r="D2498">
+        <v>2</v>
+      </c>
+      <c r="E2498">
+        <v>1</v>
+      </c>
+      <c r="F2498">
+        <v>10</v>
+      </c>
+      <c r="G2498" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2499">
+        <v>2</v>
+      </c>
+      <c r="B2499">
+        <v>1</v>
+      </c>
+      <c r="C2499">
+        <v>0</v>
+      </c>
+      <c r="D2499">
+        <v>2</v>
+      </c>
+      <c r="E2499">
+        <v>1</v>
+      </c>
+      <c r="F2499">
+        <v>10</v>
+      </c>
+      <c r="G2499" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2500">
+        <v>2</v>
+      </c>
+      <c r="B2500">
+        <v>1</v>
+      </c>
+      <c r="C2500">
+        <v>0</v>
+      </c>
+      <c r="D2500">
+        <v>0</v>
+      </c>
+      <c r="E2500">
+        <v>1</v>
+      </c>
+      <c r="F2500">
+        <v>10</v>
+      </c>
+      <c r="G2500" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2501">
+        <v>0</v>
+      </c>
+      <c r="B2501">
+        <v>1</v>
+      </c>
+      <c r="C2501">
+        <v>0</v>
+      </c>
+      <c r="D2501">
+        <v>0</v>
+      </c>
+      <c r="E2501">
+        <v>1</v>
+      </c>
+      <c r="F2501">
+        <v>10</v>
+      </c>
+      <c r="G2501" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2502">
+        <v>0</v>
+      </c>
+      <c r="B2502">
+        <v>1</v>
+      </c>
+      <c r="C2502">
+        <v>0</v>
+      </c>
+      <c r="D2502">
+        <v>-2</v>
+      </c>
+      <c r="E2502">
+        <v>1</v>
+      </c>
+      <c r="F2502">
+        <v>10</v>
+      </c>
+      <c r="G2502" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2503">
+        <v>-2</v>
+      </c>
+      <c r="B2503">
+        <v>1</v>
+      </c>
+      <c r="C2503">
+        <v>0</v>
+      </c>
+      <c r="D2503">
+        <v>-2</v>
+      </c>
+      <c r="E2503">
+        <v>1</v>
+      </c>
+      <c r="F2503">
+        <v>10</v>
+      </c>
+      <c r="G2503" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2504">
+        <v>-2</v>
+      </c>
+      <c r="B2504">
+        <v>1</v>
+      </c>
+      <c r="C2504">
+        <v>0</v>
+      </c>
+      <c r="D2504">
+        <v>0</v>
+      </c>
+      <c r="E2504">
+        <v>1</v>
+      </c>
+      <c r="F2504">
+        <v>10</v>
+      </c>
+      <c r="G2504" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2505">
+        <v>0</v>
+      </c>
+      <c r="B2505">
+        <v>1</v>
+      </c>
+      <c r="C2505">
+        <v>0</v>
+      </c>
+      <c r="D2505">
+        <v>0</v>
+      </c>
+      <c r="E2505">
+        <v>1</v>
+      </c>
+      <c r="F2505">
+        <v>10</v>
+      </c>
+      <c r="G2505" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2506">
+        <v>0</v>
+      </c>
+      <c r="B2506">
+        <v>1</v>
+      </c>
+      <c r="C2506">
+        <v>0</v>
+      </c>
+      <c r="D2506">
+        <v>-2</v>
+      </c>
+      <c r="E2506">
+        <v>1</v>
+      </c>
+      <c r="F2506">
+        <v>10</v>
+      </c>
+      <c r="G2506" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2507">
+        <v>-2</v>
+      </c>
+      <c r="B2507">
+        <v>1</v>
+      </c>
+      <c r="C2507">
+        <v>0</v>
+      </c>
+      <c r="D2507">
+        <v>2</v>
+      </c>
+      <c r="E2507">
+        <v>1</v>
+      </c>
+      <c r="F2507">
+        <v>10</v>
+      </c>
+      <c r="G2507" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2508">
+        <v>-2</v>
+      </c>
+      <c r="B2508">
+        <v>1</v>
+      </c>
+      <c r="C2508">
+        <v>0</v>
+      </c>
+      <c r="D2508">
+        <v>2</v>
+      </c>
+      <c r="E2508">
+        <v>1</v>
+      </c>
+      <c r="F2508">
+        <v>10</v>
+      </c>
+      <c r="G2508" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2509">
+        <v>-2</v>
+      </c>
+      <c r="B2509">
+        <v>1</v>
+      </c>
+      <c r="C2509">
+        <v>0</v>
+      </c>
+      <c r="D2509">
+        <v>0</v>
+      </c>
+      <c r="E2509">
+        <v>1</v>
+      </c>
+      <c r="F2509">
+        <v>10</v>
+      </c>
+      <c r="G2509" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2510">
+        <v>0</v>
+      </c>
+      <c r="B2510">
+        <v>1</v>
+      </c>
+      <c r="C2510">
+        <v>0</v>
+      </c>
+      <c r="D2510">
+        <v>0</v>
+      </c>
+      <c r="E2510">
+        <v>1</v>
+      </c>
+      <c r="F2510">
+        <v>10</v>
+      </c>
+      <c r="G2510" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2511">
+        <v>0</v>
+      </c>
+      <c r="B2511">
+        <v>1</v>
+      </c>
+      <c r="C2511">
+        <v>0</v>
+      </c>
+      <c r="D2511">
+        <v>-2</v>
+      </c>
+      <c r="E2511">
+        <v>1</v>
+      </c>
+      <c r="F2511">
+        <v>10</v>
+      </c>
+      <c r="G2511" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2512">
+        <v>-2</v>
+      </c>
+      <c r="B2512">
+        <v>1</v>
+      </c>
+      <c r="C2512">
+        <v>0</v>
+      </c>
+      <c r="D2512">
+        <v>-2</v>
+      </c>
+      <c r="E2512">
+        <v>1</v>
+      </c>
+      <c r="F2512">
+        <v>10</v>
+      </c>
+      <c r="G2512" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2513">
+        <v>-2</v>
+      </c>
+      <c r="B2513">
+        <v>1</v>
+      </c>
+      <c r="C2513">
+        <v>0</v>
+      </c>
+      <c r="D2513">
+        <v>2</v>
+      </c>
+      <c r="E2513">
+        <v>1</v>
+      </c>
+      <c r="F2513">
+        <v>10</v>
+      </c>
+      <c r="G2513" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2514">
+        <v>-2</v>
+      </c>
+      <c r="B2514">
+        <v>1</v>
+      </c>
+      <c r="C2514">
+        <v>0</v>
+      </c>
+      <c r="D2514">
+        <v>2</v>
+      </c>
+      <c r="E2514">
+        <v>1</v>
+      </c>
+      <c r="F2514">
+        <v>10</v>
+      </c>
+      <c r="G2514" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2515">
+        <v>-2</v>
+      </c>
+      <c r="B2515">
+        <v>1</v>
+      </c>
+      <c r="C2515">
+        <v>0</v>
+      </c>
+      <c r="D2515">
+        <v>0</v>
+      </c>
+      <c r="E2515">
+        <v>1</v>
+      </c>
+      <c r="F2515">
+        <v>10</v>
+      </c>
+      <c r="G2515" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2516">
+        <v>0</v>
+      </c>
+      <c r="B2516">
+        <v>1</v>
+      </c>
+      <c r="C2516">
+        <v>0</v>
+      </c>
+      <c r="D2516">
+        <v>0</v>
+      </c>
+      <c r="E2516">
+        <v>1</v>
+      </c>
+      <c r="F2516">
+        <v>10</v>
+      </c>
+      <c r="G2516" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2517">
+        <v>0</v>
+      </c>
+      <c r="B2517">
+        <v>1</v>
+      </c>
+      <c r="C2517">
+        <v>0</v>
+      </c>
+      <c r="D2517">
+        <v>-2</v>
+      </c>
+      <c r="E2517">
+        <v>1</v>
+      </c>
+      <c r="F2517">
+        <v>10</v>
+      </c>
+      <c r="G2517" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2518">
+        <v>-2</v>
+      </c>
+      <c r="B2518">
+        <v>1</v>
+      </c>
+      <c r="C2518">
+        <v>0</v>
+      </c>
+      <c r="D2518">
+        <v>-2</v>
+      </c>
+      <c r="E2518">
+        <v>1</v>
+      </c>
+      <c r="F2518">
+        <v>10</v>
+      </c>
+      <c r="G2518" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2519">
+        <v>-2</v>
+      </c>
+      <c r="B2519">
+        <v>1</v>
+      </c>
+      <c r="C2519">
+        <v>0</v>
+      </c>
+      <c r="D2519">
+        <v>0</v>
+      </c>
+      <c r="E2519">
+        <v>1</v>
+      </c>
+      <c r="F2519">
+        <v>10</v>
+      </c>
+      <c r="G2519" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2520">
+        <v>0</v>
+      </c>
+      <c r="B2520">
+        <v>1</v>
+      </c>
+      <c r="C2520">
+        <v>0</v>
+      </c>
+      <c r="D2520">
+        <v>0</v>
+      </c>
+      <c r="E2520">
+        <v>1</v>
+      </c>
+      <c r="F2520">
+        <v>10</v>
+      </c>
+      <c r="G2520" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2521">
+        <v>0</v>
+      </c>
+      <c r="B2521">
+        <v>1</v>
+      </c>
+      <c r="C2521">
+        <v>0</v>
+      </c>
+      <c r="D2521">
+        <v>2</v>
+      </c>
+      <c r="E2521">
+        <v>1</v>
+      </c>
+      <c r="F2521">
+        <v>10</v>
+      </c>
+      <c r="G2521" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2522">
+        <v>2</v>
+      </c>
+      <c r="B2522">
+        <v>1</v>
+      </c>
+      <c r="C2522">
+        <v>0</v>
+      </c>
+      <c r="D2522">
+        <v>0</v>
+      </c>
+      <c r="E2522">
+        <v>1</v>
+      </c>
+      <c r="F2522">
+        <v>10</v>
+      </c>
+      <c r="G2522" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2523">
+        <v>0</v>
+      </c>
+      <c r="B2523">
+        <v>1</v>
+      </c>
+      <c r="C2523">
+        <v>0</v>
+      </c>
+      <c r="D2523">
+        <v>0</v>
+      </c>
+      <c r="E2523">
+        <v>1</v>
+      </c>
+      <c r="F2523">
+        <v>10</v>
+      </c>
+      <c r="G2523" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2524">
+        <v>0</v>
+      </c>
+      <c r="B2524">
+        <v>1</v>
+      </c>
+      <c r="C2524">
+        <v>0</v>
+      </c>
+      <c r="D2524">
+        <v>-2</v>
+      </c>
+      <c r="E2524">
+        <v>1</v>
+      </c>
+      <c r="F2524">
+        <v>10</v>
+      </c>
+      <c r="G2524" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2525">
+        <v>-2</v>
+      </c>
+      <c r="B2525">
+        <v>1</v>
+      </c>
+      <c r="C2525">
+        <v>0</v>
+      </c>
+      <c r="D2525">
+        <v>-2</v>
+      </c>
+      <c r="E2525">
+        <v>1</v>
+      </c>
+      <c r="F2525">
+        <v>10</v>
+      </c>
+      <c r="G2525" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2526">
+        <v>-2</v>
+      </c>
+      <c r="B2526">
+        <v>1</v>
+      </c>
+      <c r="C2526">
+        <v>0</v>
+      </c>
+      <c r="D2526">
+        <v>2</v>
+      </c>
+      <c r="E2526">
+        <v>1</v>
+      </c>
+      <c r="F2526">
+        <v>10</v>
+      </c>
+      <c r="G2526" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2527">
+        <v>-2</v>
+      </c>
+      <c r="B2527">
+        <v>1</v>
+      </c>
+      <c r="C2527">
+        <v>0</v>
+      </c>
+      <c r="D2527">
+        <v>0</v>
+      </c>
+      <c r="E2527">
+        <v>1</v>
+      </c>
+      <c r="F2527">
+        <v>10</v>
+      </c>
+      <c r="G2527" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2528">
+        <v>0</v>
+      </c>
+      <c r="B2528">
+        <v>1</v>
+      </c>
+      <c r="C2528">
+        <v>0</v>
+      </c>
+      <c r="D2528">
+        <v>0</v>
+      </c>
+      <c r="E2528">
+        <v>1</v>
+      </c>
+      <c r="F2528">
+        <v>10</v>
+      </c>
+      <c r="G2528" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2529">
+        <v>0</v>
+      </c>
+      <c r="B2529">
+        <v>1</v>
+      </c>
+      <c r="C2529">
+        <v>0</v>
+      </c>
+      <c r="D2529">
+        <v>-2</v>
+      </c>
+      <c r="E2529">
+        <v>1</v>
+      </c>
+      <c r="F2529">
+        <v>10</v>
+      </c>
+      <c r="G2529" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2530">
+        <v>-2</v>
+      </c>
+      <c r="B2530">
+        <v>1</v>
+      </c>
+      <c r="C2530">
+        <v>0</v>
+      </c>
+      <c r="D2530">
+        <v>-2</v>
+      </c>
+      <c r="E2530">
+        <v>1</v>
+      </c>
+      <c r="F2530">
+        <v>10</v>
+      </c>
+      <c r="G2530" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2531">
+        <v>-2</v>
+      </c>
+      <c r="B2531">
+        <v>1</v>
+      </c>
+      <c r="C2531">
+        <v>0</v>
+      </c>
+      <c r="D2531">
+        <v>0</v>
+      </c>
+      <c r="E2531">
+        <v>1</v>
+      </c>
+      <c r="F2531">
+        <v>10</v>
+      </c>
+      <c r="G2531" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2532">
+        <v>0</v>
+      </c>
+      <c r="B2532">
+        <v>1</v>
+      </c>
+      <c r="C2532">
+        <v>0</v>
+      </c>
+      <c r="D2532">
+        <v>-2</v>
+      </c>
+      <c r="E2532">
+        <v>1</v>
+      </c>
+      <c r="F2532">
+        <v>10</v>
+      </c>
+      <c r="G2532" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2533">
+        <v>-2</v>
+      </c>
+      <c r="B2533">
+        <v>1</v>
+      </c>
+      <c r="C2533">
+        <v>0</v>
+      </c>
+      <c r="D2533">
+        <v>-2</v>
+      </c>
+      <c r="E2533">
+        <v>1</v>
+      </c>
+      <c r="F2533">
+        <v>10</v>
+      </c>
+      <c r="G2533" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2534">
+        <v>-2</v>
+      </c>
+      <c r="B2534">
+        <v>1</v>
+      </c>
+      <c r="C2534">
+        <v>0</v>
+      </c>
+      <c r="D2534">
+        <v>2</v>
+      </c>
+      <c r="E2534">
+        <v>1</v>
+      </c>
+      <c r="F2534">
+        <v>10</v>
+      </c>
+      <c r="G2534" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2535">
+        <v>-2</v>
+      </c>
+      <c r="B2535">
+        <v>1</v>
+      </c>
+      <c r="C2535">
+        <v>0</v>
+      </c>
+      <c r="D2535">
+        <v>-2</v>
+      </c>
+      <c r="E2535">
+        <v>1</v>
+      </c>
+      <c r="F2535">
+        <v>10</v>
+      </c>
+      <c r="G2535" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2536">
+        <v>-2</v>
+      </c>
+      <c r="B2536">
+        <v>1</v>
+      </c>
+      <c r="C2536">
+        <v>0</v>
+      </c>
+      <c r="D2536">
+        <v>-2</v>
+      </c>
+      <c r="E2536">
+        <v>1</v>
+      </c>
+      <c r="F2536">
+        <v>10</v>
+      </c>
+      <c r="G2536" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2537">
+        <v>-2</v>
+      </c>
+      <c r="B2537">
+        <v>1</v>
+      </c>
+      <c r="C2537">
+        <v>0</v>
+      </c>
+      <c r="D2537">
+        <v>0</v>
+      </c>
+      <c r="E2537">
+        <v>1</v>
+      </c>
+      <c r="F2537">
+        <v>10</v>
+      </c>
+      <c r="G2537" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2538">
+        <v>0</v>
+      </c>
+      <c r="B2538">
+        <v>1</v>
+      </c>
+      <c r="C2538">
+        <v>0</v>
+      </c>
+      <c r="D2538">
+        <v>0</v>
+      </c>
+      <c r="E2538">
+        <v>1</v>
+      </c>
+      <c r="F2538">
+        <v>10</v>
+      </c>
+      <c r="G2538" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2539">
+        <v>0</v>
+      </c>
+      <c r="B2539">
+        <v>1</v>
+      </c>
+      <c r="C2539">
+        <v>0</v>
+      </c>
+      <c r="D2539">
+        <v>-2</v>
+      </c>
+      <c r="E2539">
+        <v>1</v>
+      </c>
+      <c r="F2539">
+        <v>10</v>
+      </c>
+      <c r="G2539" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2540">
+        <v>-2</v>
+      </c>
+      <c r="B2540">
+        <v>1</v>
+      </c>
+      <c r="C2540">
+        <v>0</v>
+      </c>
+      <c r="D2540">
+        <v>2</v>
+      </c>
+      <c r="E2540">
+        <v>1</v>
+      </c>
+      <c r="F2540">
+        <v>10</v>
+      </c>
+      <c r="G2540" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2541">
+        <v>-2</v>
+      </c>
+      <c r="B2541">
+        <v>1</v>
+      </c>
+      <c r="C2541">
+        <v>0</v>
+      </c>
+      <c r="D2541">
+        <v>0</v>
+      </c>
+      <c r="E2541">
+        <v>1</v>
+      </c>
+      <c r="F2541">
+        <v>10</v>
+      </c>
+      <c r="G2541" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2542">
+        <v>0</v>
+      </c>
+      <c r="B2542">
+        <v>1</v>
+      </c>
+      <c r="C2542">
+        <v>0</v>
+      </c>
+      <c r="D2542">
+        <v>0</v>
+      </c>
+      <c r="E2542">
+        <v>1</v>
+      </c>
+      <c r="F2542">
+        <v>10</v>
+      </c>
+      <c r="G2542" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2543">
+        <v>0</v>
+      </c>
+      <c r="B2543">
+        <v>1</v>
+      </c>
+      <c r="C2543">
+        <v>0</v>
+      </c>
+      <c r="D2543">
+        <v>-2</v>
+      </c>
+      <c r="E2543">
+        <v>1</v>
+      </c>
+      <c r="F2543">
+        <v>10</v>
+      </c>
+      <c r="G2543" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2544">
+        <v>-2</v>
+      </c>
+      <c r="B2544">
+        <v>1</v>
+      </c>
+      <c r="C2544">
+        <v>0</v>
+      </c>
+      <c r="D2544">
+        <v>0</v>
+      </c>
+      <c r="E2544">
+        <v>1</v>
+      </c>
+      <c r="F2544">
+        <v>10</v>
+      </c>
+      <c r="G2544" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2545">
+        <v>0</v>
+      </c>
+      <c r="B2545">
+        <v>1</v>
+      </c>
+      <c r="C2545">
+        <v>0</v>
+      </c>
+      <c r="D2545">
+        <v>0</v>
+      </c>
+      <c r="E2545">
+        <v>1</v>
+      </c>
+      <c r="F2545">
+        <v>10</v>
+      </c>
+      <c r="G2545" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2546">
+        <v>0</v>
+      </c>
+      <c r="B2546">
+        <v>1</v>
+      </c>
+      <c r="C2546">
+        <v>0</v>
+      </c>
+      <c r="D2546">
+        <v>2</v>
+      </c>
+      <c r="E2546">
+        <v>1</v>
+      </c>
+      <c r="F2546">
+        <v>10</v>
+      </c>
+      <c r="G2546" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2547">
+        <v>2</v>
+      </c>
+      <c r="B2547">
+        <v>1</v>
+      </c>
+      <c r="C2547">
+        <v>0</v>
+      </c>
+      <c r="D2547">
+        <v>0</v>
+      </c>
+      <c r="E2547">
+        <v>1</v>
+      </c>
+      <c r="F2547">
+        <v>10</v>
+      </c>
+      <c r="G2547" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="10">
   <si>
     <t>x1</t>
   </si>
@@ -361,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2547"/>
+  <dimension ref="A1:G2951"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="G10" sqref="G10"/>
@@ -58927,6 +58927,9298 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2548" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2548">
+        <v>0</v>
+      </c>
+      <c r="B2548">
+        <v>1</v>
+      </c>
+      <c r="C2548">
+        <v>0</v>
+      </c>
+      <c r="D2548">
+        <v>0</v>
+      </c>
+      <c r="E2548">
+        <v>1</v>
+      </c>
+      <c r="F2548">
+        <v>10</v>
+      </c>
+      <c r="G2548" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2549">
+        <v>0</v>
+      </c>
+      <c r="B2549">
+        <v>1</v>
+      </c>
+      <c r="C2549">
+        <v>0</v>
+      </c>
+      <c r="D2549">
+        <v>-2</v>
+      </c>
+      <c r="E2549">
+        <v>1</v>
+      </c>
+      <c r="F2549">
+        <v>10</v>
+      </c>
+      <c r="G2549" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2550">
+        <v>-2</v>
+      </c>
+      <c r="B2550">
+        <v>1</v>
+      </c>
+      <c r="C2550">
+        <v>0</v>
+      </c>
+      <c r="D2550">
+        <v>-2</v>
+      </c>
+      <c r="E2550">
+        <v>1</v>
+      </c>
+      <c r="F2550">
+        <v>10</v>
+      </c>
+      <c r="G2550" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2551">
+        <v>-2</v>
+      </c>
+      <c r="B2551">
+        <v>1</v>
+      </c>
+      <c r="C2551">
+        <v>0</v>
+      </c>
+      <c r="D2551">
+        <v>0</v>
+      </c>
+      <c r="E2551">
+        <v>1</v>
+      </c>
+      <c r="F2551">
+        <v>10</v>
+      </c>
+      <c r="G2551" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2552">
+        <v>0</v>
+      </c>
+      <c r="B2552">
+        <v>1</v>
+      </c>
+      <c r="C2552">
+        <v>0</v>
+      </c>
+      <c r="D2552">
+        <v>0</v>
+      </c>
+      <c r="E2552">
+        <v>1</v>
+      </c>
+      <c r="F2552">
+        <v>10</v>
+      </c>
+      <c r="G2552" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2553">
+        <v>0</v>
+      </c>
+      <c r="B2553">
+        <v>1</v>
+      </c>
+      <c r="C2553">
+        <v>0</v>
+      </c>
+      <c r="D2553">
+        <v>2</v>
+      </c>
+      <c r="E2553">
+        <v>1</v>
+      </c>
+      <c r="F2553">
+        <v>10</v>
+      </c>
+      <c r="G2553" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2554">
+        <v>2</v>
+      </c>
+      <c r="B2554">
+        <v>1</v>
+      </c>
+      <c r="C2554">
+        <v>0</v>
+      </c>
+      <c r="D2554">
+        <v>2</v>
+      </c>
+      <c r="E2554">
+        <v>1</v>
+      </c>
+      <c r="F2554">
+        <v>10</v>
+      </c>
+      <c r="G2554" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2555">
+        <v>2</v>
+      </c>
+      <c r="B2555">
+        <v>1</v>
+      </c>
+      <c r="C2555">
+        <v>0</v>
+      </c>
+      <c r="D2555">
+        <v>-2</v>
+      </c>
+      <c r="E2555">
+        <v>1</v>
+      </c>
+      <c r="F2555">
+        <v>10</v>
+      </c>
+      <c r="G2555" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2556">
+        <v>2</v>
+      </c>
+      <c r="B2556">
+        <v>1</v>
+      </c>
+      <c r="C2556">
+        <v>0</v>
+      </c>
+      <c r="D2556">
+        <v>2</v>
+      </c>
+      <c r="E2556">
+        <v>1</v>
+      </c>
+      <c r="F2556">
+        <v>10</v>
+      </c>
+      <c r="G2556" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2557">
+        <v>2</v>
+      </c>
+      <c r="B2557">
+        <v>1</v>
+      </c>
+      <c r="C2557">
+        <v>0</v>
+      </c>
+      <c r="D2557">
+        <v>0</v>
+      </c>
+      <c r="E2557">
+        <v>1</v>
+      </c>
+      <c r="F2557">
+        <v>10</v>
+      </c>
+      <c r="G2557" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2558">
+        <v>0</v>
+      </c>
+      <c r="B2558">
+        <v>1</v>
+      </c>
+      <c r="C2558">
+        <v>0</v>
+      </c>
+      <c r="D2558">
+        <v>2</v>
+      </c>
+      <c r="E2558">
+        <v>1</v>
+      </c>
+      <c r="F2558">
+        <v>10</v>
+      </c>
+      <c r="G2558" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2559">
+        <v>2</v>
+      </c>
+      <c r="B2559">
+        <v>1</v>
+      </c>
+      <c r="C2559">
+        <v>0</v>
+      </c>
+      <c r="D2559">
+        <v>2</v>
+      </c>
+      <c r="E2559">
+        <v>1</v>
+      </c>
+      <c r="F2559">
+        <v>10</v>
+      </c>
+      <c r="G2559" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2560">
+        <v>2</v>
+      </c>
+      <c r="B2560">
+        <v>1</v>
+      </c>
+      <c r="C2560">
+        <v>0</v>
+      </c>
+      <c r="D2560">
+        <v>0</v>
+      </c>
+      <c r="E2560">
+        <v>1</v>
+      </c>
+      <c r="F2560">
+        <v>10</v>
+      </c>
+      <c r="G2560" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2561">
+        <v>0</v>
+      </c>
+      <c r="B2561">
+        <v>1</v>
+      </c>
+      <c r="C2561">
+        <v>0</v>
+      </c>
+      <c r="D2561">
+        <v>0</v>
+      </c>
+      <c r="E2561">
+        <v>1</v>
+      </c>
+      <c r="F2561">
+        <v>10</v>
+      </c>
+      <c r="G2561" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2562">
+        <v>0</v>
+      </c>
+      <c r="B2562">
+        <v>1</v>
+      </c>
+      <c r="C2562">
+        <v>0</v>
+      </c>
+      <c r="D2562">
+        <v>-2</v>
+      </c>
+      <c r="E2562">
+        <v>1</v>
+      </c>
+      <c r="F2562">
+        <v>10</v>
+      </c>
+      <c r="G2562" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2563">
+        <v>-2</v>
+      </c>
+      <c r="B2563">
+        <v>1</v>
+      </c>
+      <c r="C2563">
+        <v>0</v>
+      </c>
+      <c r="D2563">
+        <v>-2</v>
+      </c>
+      <c r="E2563">
+        <v>1</v>
+      </c>
+      <c r="F2563">
+        <v>10</v>
+      </c>
+      <c r="G2563" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2564">
+        <v>-2</v>
+      </c>
+      <c r="B2564">
+        <v>1</v>
+      </c>
+      <c r="C2564">
+        <v>0</v>
+      </c>
+      <c r="D2564">
+        <v>0</v>
+      </c>
+      <c r="E2564">
+        <v>1</v>
+      </c>
+      <c r="F2564">
+        <v>10</v>
+      </c>
+      <c r="G2564" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2565">
+        <v>0</v>
+      </c>
+      <c r="B2565">
+        <v>1</v>
+      </c>
+      <c r="C2565">
+        <v>0</v>
+      </c>
+      <c r="D2565">
+        <v>2</v>
+      </c>
+      <c r="E2565">
+        <v>1</v>
+      </c>
+      <c r="F2565">
+        <v>10</v>
+      </c>
+      <c r="G2565" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2566">
+        <v>2</v>
+      </c>
+      <c r="B2566">
+        <v>1</v>
+      </c>
+      <c r="C2566">
+        <v>0</v>
+      </c>
+      <c r="D2566">
+        <v>2</v>
+      </c>
+      <c r="E2566">
+        <v>1</v>
+      </c>
+      <c r="F2566">
+        <v>10</v>
+      </c>
+      <c r="G2566" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2567">
+        <v>2</v>
+      </c>
+      <c r="B2567">
+        <v>1</v>
+      </c>
+      <c r="C2567">
+        <v>0</v>
+      </c>
+      <c r="D2567">
+        <v>-2</v>
+      </c>
+      <c r="E2567">
+        <v>1</v>
+      </c>
+      <c r="F2567">
+        <v>10</v>
+      </c>
+      <c r="G2567" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2568">
+        <v>2</v>
+      </c>
+      <c r="B2568">
+        <v>1</v>
+      </c>
+      <c r="C2568">
+        <v>0</v>
+      </c>
+      <c r="D2568">
+        <v>0</v>
+      </c>
+      <c r="E2568">
+        <v>1</v>
+      </c>
+      <c r="F2568">
+        <v>10</v>
+      </c>
+      <c r="G2568" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2569">
+        <v>0</v>
+      </c>
+      <c r="B2569">
+        <v>1</v>
+      </c>
+      <c r="C2569">
+        <v>0</v>
+      </c>
+      <c r="D2569">
+        <v>0</v>
+      </c>
+      <c r="E2569">
+        <v>1</v>
+      </c>
+      <c r="F2569">
+        <v>10</v>
+      </c>
+      <c r="G2569" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2570">
+        <v>0</v>
+      </c>
+      <c r="B2570">
+        <v>1</v>
+      </c>
+      <c r="C2570">
+        <v>0</v>
+      </c>
+      <c r="D2570">
+        <v>2</v>
+      </c>
+      <c r="E2570">
+        <v>1</v>
+      </c>
+      <c r="F2570">
+        <v>10</v>
+      </c>
+      <c r="G2570" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2571">
+        <v>2</v>
+      </c>
+      <c r="B2571">
+        <v>1</v>
+      </c>
+      <c r="C2571">
+        <v>0</v>
+      </c>
+      <c r="D2571">
+        <v>2</v>
+      </c>
+      <c r="E2571">
+        <v>1</v>
+      </c>
+      <c r="F2571">
+        <v>10</v>
+      </c>
+      <c r="G2571" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2572">
+        <v>2</v>
+      </c>
+      <c r="B2572">
+        <v>1</v>
+      </c>
+      <c r="C2572">
+        <v>0</v>
+      </c>
+      <c r="D2572">
+        <v>0</v>
+      </c>
+      <c r="E2572">
+        <v>1</v>
+      </c>
+      <c r="F2572">
+        <v>10</v>
+      </c>
+      <c r="G2572" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2573">
+        <v>0</v>
+      </c>
+      <c r="B2573">
+        <v>1</v>
+      </c>
+      <c r="C2573">
+        <v>0</v>
+      </c>
+      <c r="D2573">
+        <v>-2</v>
+      </c>
+      <c r="E2573">
+        <v>1</v>
+      </c>
+      <c r="F2573">
+        <v>10</v>
+      </c>
+      <c r="G2573" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2574">
+        <v>-2</v>
+      </c>
+      <c r="B2574">
+        <v>1</v>
+      </c>
+      <c r="C2574">
+        <v>0</v>
+      </c>
+      <c r="D2574">
+        <v>-2</v>
+      </c>
+      <c r="E2574">
+        <v>1</v>
+      </c>
+      <c r="F2574">
+        <v>10</v>
+      </c>
+      <c r="G2574" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2575">
+        <v>-2</v>
+      </c>
+      <c r="B2575">
+        <v>1</v>
+      </c>
+      <c r="C2575">
+        <v>0</v>
+      </c>
+      <c r="D2575">
+        <v>0</v>
+      </c>
+      <c r="E2575">
+        <v>1</v>
+      </c>
+      <c r="F2575">
+        <v>10</v>
+      </c>
+      <c r="G2575" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2576">
+        <v>-2</v>
+      </c>
+      <c r="B2576">
+        <v>1</v>
+      </c>
+      <c r="C2576">
+        <v>0</v>
+      </c>
+      <c r="D2576">
+        <v>0</v>
+      </c>
+      <c r="E2576">
+        <v>1</v>
+      </c>
+      <c r="F2576">
+        <v>10</v>
+      </c>
+      <c r="G2576" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2577">
+        <v>0</v>
+      </c>
+      <c r="B2577">
+        <v>1</v>
+      </c>
+      <c r="C2577">
+        <v>0</v>
+      </c>
+      <c r="D2577">
+        <v>0</v>
+      </c>
+      <c r="E2577">
+        <v>1</v>
+      </c>
+      <c r="F2577">
+        <v>10</v>
+      </c>
+      <c r="G2577" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2578">
+        <v>0</v>
+      </c>
+      <c r="B2578">
+        <v>1</v>
+      </c>
+      <c r="C2578">
+        <v>0</v>
+      </c>
+      <c r="D2578">
+        <v>-2</v>
+      </c>
+      <c r="E2578">
+        <v>1</v>
+      </c>
+      <c r="F2578">
+        <v>10</v>
+      </c>
+      <c r="G2578" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2579">
+        <v>2</v>
+      </c>
+      <c r="B2579">
+        <v>1</v>
+      </c>
+      <c r="C2579">
+        <v>0</v>
+      </c>
+      <c r="D2579">
+        <v>-2</v>
+      </c>
+      <c r="E2579">
+        <v>1</v>
+      </c>
+      <c r="F2579">
+        <v>10</v>
+      </c>
+      <c r="G2579" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2580">
+        <v>2</v>
+      </c>
+      <c r="B2580">
+        <v>1</v>
+      </c>
+      <c r="C2580">
+        <v>0</v>
+      </c>
+      <c r="D2580">
+        <v>0</v>
+      </c>
+      <c r="E2580">
+        <v>1</v>
+      </c>
+      <c r="F2580">
+        <v>10</v>
+      </c>
+      <c r="G2580" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2581">
+        <v>0</v>
+      </c>
+      <c r="B2581">
+        <v>1</v>
+      </c>
+      <c r="C2581">
+        <v>0</v>
+      </c>
+      <c r="D2581">
+        <v>-2</v>
+      </c>
+      <c r="E2581">
+        <v>1</v>
+      </c>
+      <c r="F2581">
+        <v>10</v>
+      </c>
+      <c r="G2581" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2582">
+        <v>-2</v>
+      </c>
+      <c r="B2582">
+        <v>1</v>
+      </c>
+      <c r="C2582">
+        <v>0</v>
+      </c>
+      <c r="D2582">
+        <v>0</v>
+      </c>
+      <c r="E2582">
+        <v>1</v>
+      </c>
+      <c r="F2582">
+        <v>10</v>
+      </c>
+      <c r="G2582" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2583">
+        <v>0</v>
+      </c>
+      <c r="B2583">
+        <v>1</v>
+      </c>
+      <c r="C2583">
+        <v>0</v>
+      </c>
+      <c r="D2583">
+        <v>0</v>
+      </c>
+      <c r="E2583">
+        <v>1</v>
+      </c>
+      <c r="F2583">
+        <v>10</v>
+      </c>
+      <c r="G2583" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2584">
+        <v>0</v>
+      </c>
+      <c r="B2584">
+        <v>1</v>
+      </c>
+      <c r="C2584">
+        <v>0</v>
+      </c>
+      <c r="D2584">
+        <v>-2</v>
+      </c>
+      <c r="E2584">
+        <v>1</v>
+      </c>
+      <c r="F2584">
+        <v>10</v>
+      </c>
+      <c r="G2584" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2585">
+        <v>-2</v>
+      </c>
+      <c r="B2585">
+        <v>1</v>
+      </c>
+      <c r="C2585">
+        <v>0</v>
+      </c>
+      <c r="D2585">
+        <v>-2</v>
+      </c>
+      <c r="E2585">
+        <v>1</v>
+      </c>
+      <c r="F2585">
+        <v>10</v>
+      </c>
+      <c r="G2585" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2586">
+        <v>-2</v>
+      </c>
+      <c r="B2586">
+        <v>1</v>
+      </c>
+      <c r="C2586">
+        <v>0</v>
+      </c>
+      <c r="D2586">
+        <v>0</v>
+      </c>
+      <c r="E2586">
+        <v>1</v>
+      </c>
+      <c r="F2586">
+        <v>10</v>
+      </c>
+      <c r="G2586" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2587">
+        <v>0</v>
+      </c>
+      <c r="B2587">
+        <v>1</v>
+      </c>
+      <c r="C2587">
+        <v>0</v>
+      </c>
+      <c r="D2587">
+        <v>2</v>
+      </c>
+      <c r="E2587">
+        <v>1</v>
+      </c>
+      <c r="F2587">
+        <v>10</v>
+      </c>
+      <c r="G2587" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2588">
+        <v>2</v>
+      </c>
+      <c r="B2588">
+        <v>1</v>
+      </c>
+      <c r="C2588">
+        <v>0</v>
+      </c>
+      <c r="D2588">
+        <v>2</v>
+      </c>
+      <c r="E2588">
+        <v>1</v>
+      </c>
+      <c r="F2588">
+        <v>10</v>
+      </c>
+      <c r="G2588" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2589">
+        <v>2</v>
+      </c>
+      <c r="B2589">
+        <v>1</v>
+      </c>
+      <c r="C2589">
+        <v>0</v>
+      </c>
+      <c r="D2589">
+        <v>0</v>
+      </c>
+      <c r="E2589">
+        <v>1</v>
+      </c>
+      <c r="F2589">
+        <v>10</v>
+      </c>
+      <c r="G2589" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2590">
+        <v>0</v>
+      </c>
+      <c r="B2590">
+        <v>1</v>
+      </c>
+      <c r="C2590">
+        <v>0</v>
+      </c>
+      <c r="D2590">
+        <v>-2</v>
+      </c>
+      <c r="E2590">
+        <v>1</v>
+      </c>
+      <c r="F2590">
+        <v>10</v>
+      </c>
+      <c r="G2590" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2591">
+        <v>-2</v>
+      </c>
+      <c r="B2591">
+        <v>1</v>
+      </c>
+      <c r="C2591">
+        <v>0</v>
+      </c>
+      <c r="D2591">
+        <v>-2</v>
+      </c>
+      <c r="E2591">
+        <v>1</v>
+      </c>
+      <c r="F2591">
+        <v>10</v>
+      </c>
+      <c r="G2591" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2592">
+        <v>-2</v>
+      </c>
+      <c r="B2592">
+        <v>1</v>
+      </c>
+      <c r="C2592">
+        <v>0</v>
+      </c>
+      <c r="D2592">
+        <v>0</v>
+      </c>
+      <c r="E2592">
+        <v>1</v>
+      </c>
+      <c r="F2592">
+        <v>10</v>
+      </c>
+      <c r="G2592" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2593">
+        <v>0</v>
+      </c>
+      <c r="B2593">
+        <v>1</v>
+      </c>
+      <c r="C2593">
+        <v>0</v>
+      </c>
+      <c r="D2593">
+        <v>-2</v>
+      </c>
+      <c r="E2593">
+        <v>1</v>
+      </c>
+      <c r="F2593">
+        <v>10</v>
+      </c>
+      <c r="G2593" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2594">
+        <v>-2</v>
+      </c>
+      <c r="B2594">
+        <v>1</v>
+      </c>
+      <c r="C2594">
+        <v>0</v>
+      </c>
+      <c r="D2594">
+        <v>-2</v>
+      </c>
+      <c r="E2594">
+        <v>1</v>
+      </c>
+      <c r="F2594">
+        <v>10</v>
+      </c>
+      <c r="G2594" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2595">
+        <v>-2</v>
+      </c>
+      <c r="B2595">
+        <v>1</v>
+      </c>
+      <c r="C2595">
+        <v>0</v>
+      </c>
+      <c r="D2595">
+        <v>-2</v>
+      </c>
+      <c r="E2595">
+        <v>1</v>
+      </c>
+      <c r="F2595">
+        <v>10</v>
+      </c>
+      <c r="G2595" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2596">
+        <v>-2</v>
+      </c>
+      <c r="B2596">
+        <v>1</v>
+      </c>
+      <c r="C2596">
+        <v>0</v>
+      </c>
+      <c r="D2596">
+        <v>2</v>
+      </c>
+      <c r="E2596">
+        <v>1</v>
+      </c>
+      <c r="F2596">
+        <v>10</v>
+      </c>
+      <c r="G2596" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2597">
+        <v>-2</v>
+      </c>
+      <c r="B2597">
+        <v>1</v>
+      </c>
+      <c r="C2597">
+        <v>0</v>
+      </c>
+      <c r="D2597">
+        <v>0</v>
+      </c>
+      <c r="E2597">
+        <v>1</v>
+      </c>
+      <c r="F2597">
+        <v>10</v>
+      </c>
+      <c r="G2597" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2598">
+        <v>0</v>
+      </c>
+      <c r="B2598">
+        <v>1</v>
+      </c>
+      <c r="C2598">
+        <v>0</v>
+      </c>
+      <c r="D2598">
+        <v>-2</v>
+      </c>
+      <c r="E2598">
+        <v>1</v>
+      </c>
+      <c r="F2598">
+        <v>10</v>
+      </c>
+      <c r="G2598" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2599">
+        <v>-2</v>
+      </c>
+      <c r="B2599">
+        <v>1</v>
+      </c>
+      <c r="C2599">
+        <v>0</v>
+      </c>
+      <c r="D2599">
+        <v>0</v>
+      </c>
+      <c r="E2599">
+        <v>1</v>
+      </c>
+      <c r="F2599">
+        <v>10</v>
+      </c>
+      <c r="G2599" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2600">
+        <v>0</v>
+      </c>
+      <c r="B2600">
+        <v>1</v>
+      </c>
+      <c r="C2600">
+        <v>0</v>
+      </c>
+      <c r="D2600">
+        <v>2</v>
+      </c>
+      <c r="E2600">
+        <v>1</v>
+      </c>
+      <c r="F2600">
+        <v>10</v>
+      </c>
+      <c r="G2600" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2601">
+        <v>0</v>
+      </c>
+      <c r="B2601">
+        <v>1</v>
+      </c>
+      <c r="C2601">
+        <v>0</v>
+      </c>
+      <c r="D2601">
+        <v>0</v>
+      </c>
+      <c r="E2601">
+        <v>1</v>
+      </c>
+      <c r="F2601">
+        <v>10</v>
+      </c>
+      <c r="G2601" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2602">
+        <v>0</v>
+      </c>
+      <c r="B2602">
+        <v>1</v>
+      </c>
+      <c r="C2602">
+        <v>0</v>
+      </c>
+      <c r="D2602">
+        <v>0</v>
+      </c>
+      <c r="E2602">
+        <v>1</v>
+      </c>
+      <c r="F2602">
+        <v>10</v>
+      </c>
+      <c r="G2602" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2603">
+        <v>0</v>
+      </c>
+      <c r="B2603">
+        <v>1</v>
+      </c>
+      <c r="C2603">
+        <v>0</v>
+      </c>
+      <c r="D2603">
+        <v>2</v>
+      </c>
+      <c r="E2603">
+        <v>1</v>
+      </c>
+      <c r="F2603">
+        <v>10</v>
+      </c>
+      <c r="G2603" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2604">
+        <v>2</v>
+      </c>
+      <c r="B2604">
+        <v>1</v>
+      </c>
+      <c r="C2604">
+        <v>0</v>
+      </c>
+      <c r="D2604">
+        <v>0</v>
+      </c>
+      <c r="E2604">
+        <v>1</v>
+      </c>
+      <c r="F2604">
+        <v>10</v>
+      </c>
+      <c r="G2604" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2605">
+        <v>0</v>
+      </c>
+      <c r="B2605">
+        <v>1</v>
+      </c>
+      <c r="C2605">
+        <v>0</v>
+      </c>
+      <c r="D2605">
+        <v>0</v>
+      </c>
+      <c r="E2605">
+        <v>1</v>
+      </c>
+      <c r="F2605">
+        <v>10</v>
+      </c>
+      <c r="G2605" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2606">
+        <v>0</v>
+      </c>
+      <c r="B2606">
+        <v>1</v>
+      </c>
+      <c r="C2606">
+        <v>0</v>
+      </c>
+      <c r="D2606">
+        <v>2</v>
+      </c>
+      <c r="E2606">
+        <v>1</v>
+      </c>
+      <c r="F2606">
+        <v>10</v>
+      </c>
+      <c r="G2606" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2607">
+        <v>2</v>
+      </c>
+      <c r="B2607">
+        <v>1</v>
+      </c>
+      <c r="C2607">
+        <v>0</v>
+      </c>
+      <c r="D2607">
+        <v>2</v>
+      </c>
+      <c r="E2607">
+        <v>1</v>
+      </c>
+      <c r="F2607">
+        <v>10</v>
+      </c>
+      <c r="G2607" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2608">
+        <v>2</v>
+      </c>
+      <c r="B2608">
+        <v>1</v>
+      </c>
+      <c r="C2608">
+        <v>0</v>
+      </c>
+      <c r="D2608">
+        <v>0</v>
+      </c>
+      <c r="E2608">
+        <v>1</v>
+      </c>
+      <c r="F2608">
+        <v>10</v>
+      </c>
+      <c r="G2608" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2609">
+        <v>0</v>
+      </c>
+      <c r="B2609">
+        <v>1</v>
+      </c>
+      <c r="C2609">
+        <v>0</v>
+      </c>
+      <c r="D2609">
+        <v>0</v>
+      </c>
+      <c r="E2609">
+        <v>1</v>
+      </c>
+      <c r="F2609">
+        <v>10</v>
+      </c>
+      <c r="G2609" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2610">
+        <v>0</v>
+      </c>
+      <c r="B2610">
+        <v>1</v>
+      </c>
+      <c r="C2610">
+        <v>0</v>
+      </c>
+      <c r="D2610">
+        <v>-2</v>
+      </c>
+      <c r="E2610">
+        <v>1</v>
+      </c>
+      <c r="F2610">
+        <v>10</v>
+      </c>
+      <c r="G2610" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2611">
+        <v>-2</v>
+      </c>
+      <c r="B2611">
+        <v>1</v>
+      </c>
+      <c r="C2611">
+        <v>0</v>
+      </c>
+      <c r="D2611">
+        <v>0</v>
+      </c>
+      <c r="E2611">
+        <v>1</v>
+      </c>
+      <c r="F2611">
+        <v>10</v>
+      </c>
+      <c r="G2611" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2612">
+        <v>0</v>
+      </c>
+      <c r="B2612">
+        <v>1</v>
+      </c>
+      <c r="C2612">
+        <v>0</v>
+      </c>
+      <c r="D2612">
+        <v>2</v>
+      </c>
+      <c r="E2612">
+        <v>1</v>
+      </c>
+      <c r="F2612">
+        <v>10</v>
+      </c>
+      <c r="G2612" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2613">
+        <v>2</v>
+      </c>
+      <c r="B2613">
+        <v>1</v>
+      </c>
+      <c r="C2613">
+        <v>0</v>
+      </c>
+      <c r="D2613">
+        <v>0</v>
+      </c>
+      <c r="E2613">
+        <v>1</v>
+      </c>
+      <c r="F2613">
+        <v>10</v>
+      </c>
+      <c r="G2613" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2614">
+        <v>0</v>
+      </c>
+      <c r="B2614">
+        <v>1</v>
+      </c>
+      <c r="C2614">
+        <v>0</v>
+      </c>
+      <c r="D2614">
+        <v>0</v>
+      </c>
+      <c r="E2614">
+        <v>1</v>
+      </c>
+      <c r="F2614">
+        <v>10</v>
+      </c>
+      <c r="G2614" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2615">
+        <v>0</v>
+      </c>
+      <c r="B2615">
+        <v>1</v>
+      </c>
+      <c r="C2615">
+        <v>0</v>
+      </c>
+      <c r="D2615">
+        <v>2</v>
+      </c>
+      <c r="E2615">
+        <v>1</v>
+      </c>
+      <c r="F2615">
+        <v>10</v>
+      </c>
+      <c r="G2615" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2616">
+        <v>2</v>
+      </c>
+      <c r="B2616">
+        <v>1</v>
+      </c>
+      <c r="C2616">
+        <v>0</v>
+      </c>
+      <c r="D2616">
+        <v>0</v>
+      </c>
+      <c r="E2616">
+        <v>1</v>
+      </c>
+      <c r="F2616">
+        <v>10</v>
+      </c>
+      <c r="G2616" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2617">
+        <v>0</v>
+      </c>
+      <c r="B2617">
+        <v>1</v>
+      </c>
+      <c r="C2617">
+        <v>0</v>
+      </c>
+      <c r="D2617">
+        <v>0</v>
+      </c>
+      <c r="E2617">
+        <v>1</v>
+      </c>
+      <c r="F2617">
+        <v>10</v>
+      </c>
+      <c r="G2617" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2618">
+        <v>0</v>
+      </c>
+      <c r="B2618">
+        <v>1</v>
+      </c>
+      <c r="C2618">
+        <v>0</v>
+      </c>
+      <c r="D2618">
+        <v>2</v>
+      </c>
+      <c r="E2618">
+        <v>1</v>
+      </c>
+      <c r="F2618">
+        <v>10</v>
+      </c>
+      <c r="G2618" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2619">
+        <v>2</v>
+      </c>
+      <c r="B2619">
+        <v>1</v>
+      </c>
+      <c r="C2619">
+        <v>0</v>
+      </c>
+      <c r="D2619">
+        <v>2</v>
+      </c>
+      <c r="E2619">
+        <v>1</v>
+      </c>
+      <c r="F2619">
+        <v>10</v>
+      </c>
+      <c r="G2619" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2620">
+        <v>2</v>
+      </c>
+      <c r="B2620">
+        <v>1</v>
+      </c>
+      <c r="C2620">
+        <v>0</v>
+      </c>
+      <c r="D2620">
+        <v>0</v>
+      </c>
+      <c r="E2620">
+        <v>1</v>
+      </c>
+      <c r="F2620">
+        <v>10</v>
+      </c>
+      <c r="G2620" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2621">
+        <v>0</v>
+      </c>
+      <c r="B2621">
+        <v>1</v>
+      </c>
+      <c r="C2621">
+        <v>0</v>
+      </c>
+      <c r="D2621">
+        <v>0</v>
+      </c>
+      <c r="E2621">
+        <v>1</v>
+      </c>
+      <c r="F2621">
+        <v>10</v>
+      </c>
+      <c r="G2621" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2622">
+        <v>0</v>
+      </c>
+      <c r="B2622">
+        <v>1</v>
+      </c>
+      <c r="C2622">
+        <v>0</v>
+      </c>
+      <c r="D2622">
+        <v>2</v>
+      </c>
+      <c r="E2622">
+        <v>1</v>
+      </c>
+      <c r="F2622">
+        <v>10</v>
+      </c>
+      <c r="G2622" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2623">
+        <v>2</v>
+      </c>
+      <c r="B2623">
+        <v>1</v>
+      </c>
+      <c r="C2623">
+        <v>0</v>
+      </c>
+      <c r="D2623">
+        <v>2</v>
+      </c>
+      <c r="E2623">
+        <v>1</v>
+      </c>
+      <c r="F2623">
+        <v>10</v>
+      </c>
+      <c r="G2623" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2624">
+        <v>2</v>
+      </c>
+      <c r="B2624">
+        <v>1</v>
+      </c>
+      <c r="C2624">
+        <v>0</v>
+      </c>
+      <c r="D2624">
+        <v>0</v>
+      </c>
+      <c r="E2624">
+        <v>1</v>
+      </c>
+      <c r="F2624">
+        <v>10</v>
+      </c>
+      <c r="G2624" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2625">
+        <v>0</v>
+      </c>
+      <c r="B2625">
+        <v>1</v>
+      </c>
+      <c r="C2625">
+        <v>0</v>
+      </c>
+      <c r="D2625">
+        <v>-2</v>
+      </c>
+      <c r="E2625">
+        <v>1</v>
+      </c>
+      <c r="F2625">
+        <v>10</v>
+      </c>
+      <c r="G2625" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2626">
+        <v>-2</v>
+      </c>
+      <c r="B2626">
+        <v>1</v>
+      </c>
+      <c r="C2626">
+        <v>0</v>
+      </c>
+      <c r="D2626">
+        <v>-2</v>
+      </c>
+      <c r="E2626">
+        <v>1</v>
+      </c>
+      <c r="F2626">
+        <v>10</v>
+      </c>
+      <c r="G2626" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2627">
+        <v>-2</v>
+      </c>
+      <c r="B2627">
+        <v>1</v>
+      </c>
+      <c r="C2627">
+        <v>0</v>
+      </c>
+      <c r="D2627">
+        <v>0</v>
+      </c>
+      <c r="E2627">
+        <v>1</v>
+      </c>
+      <c r="F2627">
+        <v>10</v>
+      </c>
+      <c r="G2627" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2628">
+        <v>0</v>
+      </c>
+      <c r="B2628">
+        <v>1</v>
+      </c>
+      <c r="C2628">
+        <v>0</v>
+      </c>
+      <c r="D2628">
+        <v>0</v>
+      </c>
+      <c r="E2628">
+        <v>1</v>
+      </c>
+      <c r="F2628">
+        <v>10</v>
+      </c>
+      <c r="G2628" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2629">
+        <v>0</v>
+      </c>
+      <c r="B2629">
+        <v>1</v>
+      </c>
+      <c r="C2629">
+        <v>0</v>
+      </c>
+      <c r="D2629">
+        <v>-2</v>
+      </c>
+      <c r="E2629">
+        <v>1</v>
+      </c>
+      <c r="F2629">
+        <v>10</v>
+      </c>
+      <c r="G2629" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2630">
+        <v>-2</v>
+      </c>
+      <c r="B2630">
+        <v>1</v>
+      </c>
+      <c r="C2630">
+        <v>0</v>
+      </c>
+      <c r="D2630">
+        <v>0</v>
+      </c>
+      <c r="E2630">
+        <v>1</v>
+      </c>
+      <c r="F2630">
+        <v>10</v>
+      </c>
+      <c r="G2630" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2631">
+        <v>0</v>
+      </c>
+      <c r="B2631">
+        <v>1</v>
+      </c>
+      <c r="C2631">
+        <v>0</v>
+      </c>
+      <c r="D2631">
+        <v>2</v>
+      </c>
+      <c r="E2631">
+        <v>1</v>
+      </c>
+      <c r="F2631">
+        <v>10</v>
+      </c>
+      <c r="G2631" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2632">
+        <v>2</v>
+      </c>
+      <c r="B2632">
+        <v>1</v>
+      </c>
+      <c r="C2632">
+        <v>0</v>
+      </c>
+      <c r="D2632">
+        <v>2</v>
+      </c>
+      <c r="E2632">
+        <v>1</v>
+      </c>
+      <c r="F2632">
+        <v>10</v>
+      </c>
+      <c r="G2632" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2633">
+        <v>2</v>
+      </c>
+      <c r="B2633">
+        <v>1</v>
+      </c>
+      <c r="C2633">
+        <v>0</v>
+      </c>
+      <c r="D2633">
+        <v>0</v>
+      </c>
+      <c r="E2633">
+        <v>1</v>
+      </c>
+      <c r="F2633">
+        <v>10</v>
+      </c>
+      <c r="G2633" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2634">
+        <v>0</v>
+      </c>
+      <c r="B2634">
+        <v>1</v>
+      </c>
+      <c r="C2634">
+        <v>0</v>
+      </c>
+      <c r="D2634">
+        <v>2</v>
+      </c>
+      <c r="E2634">
+        <v>1</v>
+      </c>
+      <c r="F2634">
+        <v>10</v>
+      </c>
+      <c r="G2634" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2635">
+        <v>0</v>
+      </c>
+      <c r="B2635">
+        <v>1</v>
+      </c>
+      <c r="C2635">
+        <v>0</v>
+      </c>
+      <c r="D2635">
+        <v>0</v>
+      </c>
+      <c r="E2635">
+        <v>1</v>
+      </c>
+      <c r="F2635">
+        <v>10</v>
+      </c>
+      <c r="G2635" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2636">
+        <v>0</v>
+      </c>
+      <c r="B2636">
+        <v>1</v>
+      </c>
+      <c r="C2636">
+        <v>0</v>
+      </c>
+      <c r="D2636">
+        <v>-2</v>
+      </c>
+      <c r="E2636">
+        <v>1</v>
+      </c>
+      <c r="F2636">
+        <v>10</v>
+      </c>
+      <c r="G2636" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2637">
+        <v>-2</v>
+      </c>
+      <c r="B2637">
+        <v>1</v>
+      </c>
+      <c r="C2637">
+        <v>0</v>
+      </c>
+      <c r="D2637">
+        <v>-2</v>
+      </c>
+      <c r="E2637">
+        <v>1</v>
+      </c>
+      <c r="F2637">
+        <v>10</v>
+      </c>
+      <c r="G2637" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2638">
+        <v>-2</v>
+      </c>
+      <c r="B2638">
+        <v>1</v>
+      </c>
+      <c r="C2638">
+        <v>0</v>
+      </c>
+      <c r="D2638">
+        <v>0</v>
+      </c>
+      <c r="E2638">
+        <v>1</v>
+      </c>
+      <c r="F2638">
+        <v>10</v>
+      </c>
+      <c r="G2638" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2639">
+        <v>0</v>
+      </c>
+      <c r="B2639">
+        <v>1</v>
+      </c>
+      <c r="C2639">
+        <v>0</v>
+      </c>
+      <c r="D2639">
+        <v>2</v>
+      </c>
+      <c r="E2639">
+        <v>1</v>
+      </c>
+      <c r="F2639">
+        <v>10</v>
+      </c>
+      <c r="G2639" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2640">
+        <v>2</v>
+      </c>
+      <c r="B2640">
+        <v>1</v>
+      </c>
+      <c r="C2640">
+        <v>0</v>
+      </c>
+      <c r="D2640">
+        <v>2</v>
+      </c>
+      <c r="E2640">
+        <v>1</v>
+      </c>
+      <c r="F2640">
+        <v>10</v>
+      </c>
+      <c r="G2640" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2641">
+        <v>2</v>
+      </c>
+      <c r="B2641">
+        <v>1</v>
+      </c>
+      <c r="C2641">
+        <v>0</v>
+      </c>
+      <c r="D2641">
+        <v>0</v>
+      </c>
+      <c r="E2641">
+        <v>1</v>
+      </c>
+      <c r="F2641">
+        <v>10</v>
+      </c>
+      <c r="G2641" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2642">
+        <v>0</v>
+      </c>
+      <c r="B2642">
+        <v>1</v>
+      </c>
+      <c r="C2642">
+        <v>0</v>
+      </c>
+      <c r="D2642">
+        <v>0</v>
+      </c>
+      <c r="E2642">
+        <v>1</v>
+      </c>
+      <c r="F2642">
+        <v>10</v>
+      </c>
+      <c r="G2642" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2643">
+        <v>0</v>
+      </c>
+      <c r="B2643">
+        <v>1</v>
+      </c>
+      <c r="C2643">
+        <v>0</v>
+      </c>
+      <c r="D2643">
+        <v>2</v>
+      </c>
+      <c r="E2643">
+        <v>1</v>
+      </c>
+      <c r="F2643">
+        <v>10</v>
+      </c>
+      <c r="G2643" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2644">
+        <v>2</v>
+      </c>
+      <c r="B2644">
+        <v>1</v>
+      </c>
+      <c r="C2644">
+        <v>0</v>
+      </c>
+      <c r="D2644">
+        <v>2</v>
+      </c>
+      <c r="E2644">
+        <v>1</v>
+      </c>
+      <c r="F2644">
+        <v>10</v>
+      </c>
+      <c r="G2644" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2645">
+        <v>2</v>
+      </c>
+      <c r="B2645">
+        <v>1</v>
+      </c>
+      <c r="C2645">
+        <v>0</v>
+      </c>
+      <c r="D2645">
+        <v>0</v>
+      </c>
+      <c r="E2645">
+        <v>1</v>
+      </c>
+      <c r="F2645">
+        <v>10</v>
+      </c>
+      <c r="G2645" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2646">
+        <v>0</v>
+      </c>
+      <c r="B2646">
+        <v>1</v>
+      </c>
+      <c r="C2646">
+        <v>0</v>
+      </c>
+      <c r="D2646">
+        <v>0</v>
+      </c>
+      <c r="E2646">
+        <v>1</v>
+      </c>
+      <c r="F2646">
+        <v>10</v>
+      </c>
+      <c r="G2646" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2647">
+        <v>0</v>
+      </c>
+      <c r="B2647">
+        <v>1</v>
+      </c>
+      <c r="C2647">
+        <v>0</v>
+      </c>
+      <c r="D2647">
+        <v>0</v>
+      </c>
+      <c r="E2647">
+        <v>1</v>
+      </c>
+      <c r="F2647">
+        <v>10</v>
+      </c>
+      <c r="G2647" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2648">
+        <v>0</v>
+      </c>
+      <c r="B2648">
+        <v>1</v>
+      </c>
+      <c r="C2648">
+        <v>0</v>
+      </c>
+      <c r="D2648">
+        <v>-2</v>
+      </c>
+      <c r="E2648">
+        <v>1</v>
+      </c>
+      <c r="F2648">
+        <v>10</v>
+      </c>
+      <c r="G2648" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2649">
+        <v>-2</v>
+      </c>
+      <c r="B2649">
+        <v>1</v>
+      </c>
+      <c r="C2649">
+        <v>0</v>
+      </c>
+      <c r="D2649">
+        <v>-2</v>
+      </c>
+      <c r="E2649">
+        <v>1</v>
+      </c>
+      <c r="F2649">
+        <v>10</v>
+      </c>
+      <c r="G2649" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2650">
+        <v>-2</v>
+      </c>
+      <c r="B2650">
+        <v>1</v>
+      </c>
+      <c r="C2650">
+        <v>0</v>
+      </c>
+      <c r="D2650">
+        <v>0</v>
+      </c>
+      <c r="E2650">
+        <v>1</v>
+      </c>
+      <c r="F2650">
+        <v>10</v>
+      </c>
+      <c r="G2650" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2651">
+        <v>0</v>
+      </c>
+      <c r="B2651">
+        <v>1</v>
+      </c>
+      <c r="C2651">
+        <v>0</v>
+      </c>
+      <c r="D2651">
+        <v>0</v>
+      </c>
+      <c r="E2651">
+        <v>1</v>
+      </c>
+      <c r="F2651">
+        <v>10</v>
+      </c>
+      <c r="G2651" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2652">
+        <v>0</v>
+      </c>
+      <c r="B2652">
+        <v>1</v>
+      </c>
+      <c r="C2652">
+        <v>0</v>
+      </c>
+      <c r="D2652">
+        <v>-2</v>
+      </c>
+      <c r="E2652">
+        <v>1</v>
+      </c>
+      <c r="F2652">
+        <v>10</v>
+      </c>
+      <c r="G2652" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2653">
+        <v>0</v>
+      </c>
+      <c r="B2653">
+        <v>1</v>
+      </c>
+      <c r="C2653">
+        <v>0</v>
+      </c>
+      <c r="D2653">
+        <v>0</v>
+      </c>
+      <c r="E2653">
+        <v>1</v>
+      </c>
+      <c r="F2653">
+        <v>10</v>
+      </c>
+      <c r="G2653" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2654">
+        <v>0</v>
+      </c>
+      <c r="B2654">
+        <v>1</v>
+      </c>
+      <c r="C2654">
+        <v>0</v>
+      </c>
+      <c r="D2654">
+        <v>-2</v>
+      </c>
+      <c r="E2654">
+        <v>1</v>
+      </c>
+      <c r="F2654">
+        <v>10</v>
+      </c>
+      <c r="G2654" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2655">
+        <v>-2</v>
+      </c>
+      <c r="B2655">
+        <v>1</v>
+      </c>
+      <c r="C2655">
+        <v>0</v>
+      </c>
+      <c r="D2655">
+        <v>-2</v>
+      </c>
+      <c r="E2655">
+        <v>1</v>
+      </c>
+      <c r="F2655">
+        <v>10</v>
+      </c>
+      <c r="G2655" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2656">
+        <v>-2</v>
+      </c>
+      <c r="B2656">
+        <v>1</v>
+      </c>
+      <c r="C2656">
+        <v>0</v>
+      </c>
+      <c r="D2656">
+        <v>0</v>
+      </c>
+      <c r="E2656">
+        <v>1</v>
+      </c>
+      <c r="F2656">
+        <v>10</v>
+      </c>
+      <c r="G2656" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2657">
+        <v>0</v>
+      </c>
+      <c r="B2657">
+        <v>1</v>
+      </c>
+      <c r="C2657">
+        <v>0</v>
+      </c>
+      <c r="D2657">
+        <v>0</v>
+      </c>
+      <c r="E2657">
+        <v>1</v>
+      </c>
+      <c r="F2657">
+        <v>10</v>
+      </c>
+      <c r="G2657" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2658">
+        <v>0</v>
+      </c>
+      <c r="B2658">
+        <v>1</v>
+      </c>
+      <c r="C2658">
+        <v>0</v>
+      </c>
+      <c r="D2658">
+        <v>-2</v>
+      </c>
+      <c r="E2658">
+        <v>1</v>
+      </c>
+      <c r="F2658">
+        <v>10</v>
+      </c>
+      <c r="G2658" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2659">
+        <v>-2</v>
+      </c>
+      <c r="B2659">
+        <v>1</v>
+      </c>
+      <c r="C2659">
+        <v>0</v>
+      </c>
+      <c r="D2659">
+        <v>-2</v>
+      </c>
+      <c r="E2659">
+        <v>1</v>
+      </c>
+      <c r="F2659">
+        <v>10</v>
+      </c>
+      <c r="G2659" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2660">
+        <v>-2</v>
+      </c>
+      <c r="B2660">
+        <v>1</v>
+      </c>
+      <c r="C2660">
+        <v>0</v>
+      </c>
+      <c r="D2660">
+        <v>0</v>
+      </c>
+      <c r="E2660">
+        <v>1</v>
+      </c>
+      <c r="F2660">
+        <v>10</v>
+      </c>
+      <c r="G2660" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2661">
+        <v>0</v>
+      </c>
+      <c r="B2661">
+        <v>1</v>
+      </c>
+      <c r="C2661">
+        <v>0</v>
+      </c>
+      <c r="D2661">
+        <v>2</v>
+      </c>
+      <c r="E2661">
+        <v>1</v>
+      </c>
+      <c r="F2661">
+        <v>10</v>
+      </c>
+      <c r="G2661" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2662">
+        <v>2</v>
+      </c>
+      <c r="B2662">
+        <v>1</v>
+      </c>
+      <c r="C2662">
+        <v>0</v>
+      </c>
+      <c r="D2662">
+        <v>0</v>
+      </c>
+      <c r="E2662">
+        <v>1</v>
+      </c>
+      <c r="F2662">
+        <v>10</v>
+      </c>
+      <c r="G2662" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2663">
+        <v>0</v>
+      </c>
+      <c r="B2663">
+        <v>1</v>
+      </c>
+      <c r="C2663">
+        <v>0</v>
+      </c>
+      <c r="D2663">
+        <v>-2</v>
+      </c>
+      <c r="E2663">
+        <v>1</v>
+      </c>
+      <c r="F2663">
+        <v>10</v>
+      </c>
+      <c r="G2663" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2664">
+        <v>-2</v>
+      </c>
+      <c r="B2664">
+        <v>1</v>
+      </c>
+      <c r="C2664">
+        <v>0</v>
+      </c>
+      <c r="D2664">
+        <v>0</v>
+      </c>
+      <c r="E2664">
+        <v>1</v>
+      </c>
+      <c r="F2664">
+        <v>10</v>
+      </c>
+      <c r="G2664" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2665">
+        <v>0</v>
+      </c>
+      <c r="B2665">
+        <v>1</v>
+      </c>
+      <c r="C2665">
+        <v>0</v>
+      </c>
+      <c r="D2665">
+        <v>2</v>
+      </c>
+      <c r="E2665">
+        <v>1</v>
+      </c>
+      <c r="F2665">
+        <v>10</v>
+      </c>
+      <c r="G2665" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2666">
+        <v>2</v>
+      </c>
+      <c r="B2666">
+        <v>1</v>
+      </c>
+      <c r="C2666">
+        <v>0</v>
+      </c>
+      <c r="D2666">
+        <v>0</v>
+      </c>
+      <c r="E2666">
+        <v>1</v>
+      </c>
+      <c r="F2666">
+        <v>10</v>
+      </c>
+      <c r="G2666" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2667">
+        <v>0</v>
+      </c>
+      <c r="B2667">
+        <v>1</v>
+      </c>
+      <c r="C2667">
+        <v>0</v>
+      </c>
+      <c r="D2667">
+        <v>-2</v>
+      </c>
+      <c r="E2667">
+        <v>1</v>
+      </c>
+      <c r="F2667">
+        <v>10</v>
+      </c>
+      <c r="G2667" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2668">
+        <v>-2</v>
+      </c>
+      <c r="B2668">
+        <v>1</v>
+      </c>
+      <c r="C2668">
+        <v>0</v>
+      </c>
+      <c r="D2668">
+        <v>0</v>
+      </c>
+      <c r="E2668">
+        <v>1</v>
+      </c>
+      <c r="F2668">
+        <v>10</v>
+      </c>
+      <c r="G2668" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2669">
+        <v>0</v>
+      </c>
+      <c r="B2669">
+        <v>1</v>
+      </c>
+      <c r="C2669">
+        <v>0</v>
+      </c>
+      <c r="D2669">
+        <v>2</v>
+      </c>
+      <c r="E2669">
+        <v>1</v>
+      </c>
+      <c r="F2669">
+        <v>10</v>
+      </c>
+      <c r="G2669" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2670">
+        <v>2</v>
+      </c>
+      <c r="B2670">
+        <v>1</v>
+      </c>
+      <c r="C2670">
+        <v>0</v>
+      </c>
+      <c r="D2670">
+        <v>2</v>
+      </c>
+      <c r="E2670">
+        <v>1</v>
+      </c>
+      <c r="F2670">
+        <v>10</v>
+      </c>
+      <c r="G2670" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2671">
+        <v>2</v>
+      </c>
+      <c r="B2671">
+        <v>1</v>
+      </c>
+      <c r="C2671">
+        <v>0</v>
+      </c>
+      <c r="D2671">
+        <v>0</v>
+      </c>
+      <c r="E2671">
+        <v>1</v>
+      </c>
+      <c r="F2671">
+        <v>10</v>
+      </c>
+      <c r="G2671" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2672">
+        <v>0</v>
+      </c>
+      <c r="B2672">
+        <v>1</v>
+      </c>
+      <c r="C2672">
+        <v>0</v>
+      </c>
+      <c r="D2672">
+        <v>0</v>
+      </c>
+      <c r="E2672">
+        <v>1</v>
+      </c>
+      <c r="F2672">
+        <v>10</v>
+      </c>
+      <c r="G2672" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2673">
+        <v>0</v>
+      </c>
+      <c r="B2673">
+        <v>1</v>
+      </c>
+      <c r="C2673">
+        <v>0</v>
+      </c>
+      <c r="D2673">
+        <v>2</v>
+      </c>
+      <c r="E2673">
+        <v>1</v>
+      </c>
+      <c r="F2673">
+        <v>10</v>
+      </c>
+      <c r="G2673" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2674">
+        <v>2</v>
+      </c>
+      <c r="B2674">
+        <v>1</v>
+      </c>
+      <c r="C2674">
+        <v>0</v>
+      </c>
+      <c r="D2674">
+        <v>2</v>
+      </c>
+      <c r="E2674">
+        <v>1</v>
+      </c>
+      <c r="F2674">
+        <v>10</v>
+      </c>
+      <c r="G2674" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2675">
+        <v>2</v>
+      </c>
+      <c r="B2675">
+        <v>1</v>
+      </c>
+      <c r="C2675">
+        <v>0</v>
+      </c>
+      <c r="D2675">
+        <v>0</v>
+      </c>
+      <c r="E2675">
+        <v>1</v>
+      </c>
+      <c r="F2675">
+        <v>10</v>
+      </c>
+      <c r="G2675" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2676">
+        <v>0</v>
+      </c>
+      <c r="B2676">
+        <v>1</v>
+      </c>
+      <c r="C2676">
+        <v>0</v>
+      </c>
+      <c r="D2676">
+        <v>-2</v>
+      </c>
+      <c r="E2676">
+        <v>1</v>
+      </c>
+      <c r="F2676">
+        <v>10</v>
+      </c>
+      <c r="G2676" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2677">
+        <v>-2</v>
+      </c>
+      <c r="B2677">
+        <v>1</v>
+      </c>
+      <c r="C2677">
+        <v>0</v>
+      </c>
+      <c r="D2677">
+        <v>-2</v>
+      </c>
+      <c r="E2677">
+        <v>1</v>
+      </c>
+      <c r="F2677">
+        <v>10</v>
+      </c>
+      <c r="G2677" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2678">
+        <v>-2</v>
+      </c>
+      <c r="B2678">
+        <v>1</v>
+      </c>
+      <c r="C2678">
+        <v>0</v>
+      </c>
+      <c r="D2678">
+        <v>0</v>
+      </c>
+      <c r="E2678">
+        <v>1</v>
+      </c>
+      <c r="F2678">
+        <v>10</v>
+      </c>
+      <c r="G2678" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2679">
+        <v>0</v>
+      </c>
+      <c r="B2679">
+        <v>1</v>
+      </c>
+      <c r="C2679">
+        <v>0</v>
+      </c>
+      <c r="D2679">
+        <v>2</v>
+      </c>
+      <c r="E2679">
+        <v>1</v>
+      </c>
+      <c r="F2679">
+        <v>10</v>
+      </c>
+      <c r="G2679" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2680">
+        <v>2</v>
+      </c>
+      <c r="B2680">
+        <v>1</v>
+      </c>
+      <c r="C2680">
+        <v>0</v>
+      </c>
+      <c r="D2680">
+        <v>2</v>
+      </c>
+      <c r="E2680">
+        <v>1</v>
+      </c>
+      <c r="F2680">
+        <v>10</v>
+      </c>
+      <c r="G2680" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2681">
+        <v>2</v>
+      </c>
+      <c r="B2681">
+        <v>1</v>
+      </c>
+      <c r="C2681">
+        <v>0</v>
+      </c>
+      <c r="D2681">
+        <v>0</v>
+      </c>
+      <c r="E2681">
+        <v>1</v>
+      </c>
+      <c r="F2681">
+        <v>10</v>
+      </c>
+      <c r="G2681" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2682">
+        <v>0</v>
+      </c>
+      <c r="B2682">
+        <v>1</v>
+      </c>
+      <c r="C2682">
+        <v>0</v>
+      </c>
+      <c r="D2682">
+        <v>0</v>
+      </c>
+      <c r="E2682">
+        <v>1</v>
+      </c>
+      <c r="F2682">
+        <v>10</v>
+      </c>
+      <c r="G2682" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2683">
+        <v>0</v>
+      </c>
+      <c r="B2683">
+        <v>1</v>
+      </c>
+      <c r="C2683">
+        <v>0</v>
+      </c>
+      <c r="D2683">
+        <v>-2</v>
+      </c>
+      <c r="E2683">
+        <v>1</v>
+      </c>
+      <c r="F2683">
+        <v>10</v>
+      </c>
+      <c r="G2683" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2684">
+        <v>-2</v>
+      </c>
+      <c r="B2684">
+        <v>1</v>
+      </c>
+      <c r="C2684">
+        <v>0</v>
+      </c>
+      <c r="D2684">
+        <v>-2</v>
+      </c>
+      <c r="E2684">
+        <v>1</v>
+      </c>
+      <c r="F2684">
+        <v>10</v>
+      </c>
+      <c r="G2684" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2685">
+        <v>-2</v>
+      </c>
+      <c r="B2685">
+        <v>1</v>
+      </c>
+      <c r="C2685">
+        <v>0</v>
+      </c>
+      <c r="D2685">
+        <v>0</v>
+      </c>
+      <c r="E2685">
+        <v>1</v>
+      </c>
+      <c r="F2685">
+        <v>10</v>
+      </c>
+      <c r="G2685" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2686">
+        <v>-2</v>
+      </c>
+      <c r="B2686">
+        <v>1</v>
+      </c>
+      <c r="C2686">
+        <v>0</v>
+      </c>
+      <c r="D2686">
+        <v>0</v>
+      </c>
+      <c r="E2686">
+        <v>1</v>
+      </c>
+      <c r="F2686">
+        <v>10</v>
+      </c>
+      <c r="G2686" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2687">
+        <v>0</v>
+      </c>
+      <c r="B2687">
+        <v>1</v>
+      </c>
+      <c r="C2687">
+        <v>0</v>
+      </c>
+      <c r="D2687">
+        <v>-2</v>
+      </c>
+      <c r="E2687">
+        <v>1</v>
+      </c>
+      <c r="F2687">
+        <v>10</v>
+      </c>
+      <c r="G2687" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2688">
+        <v>-2</v>
+      </c>
+      <c r="B2688">
+        <v>1</v>
+      </c>
+      <c r="C2688">
+        <v>0</v>
+      </c>
+      <c r="D2688">
+        <v>-2</v>
+      </c>
+      <c r="E2688">
+        <v>1</v>
+      </c>
+      <c r="F2688">
+        <v>10</v>
+      </c>
+      <c r="G2688" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2689">
+        <v>-2</v>
+      </c>
+      <c r="B2689">
+        <v>1</v>
+      </c>
+      <c r="C2689">
+        <v>0</v>
+      </c>
+      <c r="D2689">
+        <v>0</v>
+      </c>
+      <c r="E2689">
+        <v>1</v>
+      </c>
+      <c r="F2689">
+        <v>10</v>
+      </c>
+      <c r="G2689" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2690">
+        <v>0</v>
+      </c>
+      <c r="B2690">
+        <v>1</v>
+      </c>
+      <c r="C2690">
+        <v>0</v>
+      </c>
+      <c r="D2690">
+        <v>2</v>
+      </c>
+      <c r="E2690">
+        <v>1</v>
+      </c>
+      <c r="F2690">
+        <v>10</v>
+      </c>
+      <c r="G2690" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2691">
+        <v>2</v>
+      </c>
+      <c r="B2691">
+        <v>1</v>
+      </c>
+      <c r="C2691">
+        <v>0</v>
+      </c>
+      <c r="D2691">
+        <v>2</v>
+      </c>
+      <c r="E2691">
+        <v>1</v>
+      </c>
+      <c r="F2691">
+        <v>10</v>
+      </c>
+      <c r="G2691" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2692">
+        <v>2</v>
+      </c>
+      <c r="B2692">
+        <v>1</v>
+      </c>
+      <c r="C2692">
+        <v>0</v>
+      </c>
+      <c r="D2692">
+        <v>0</v>
+      </c>
+      <c r="E2692">
+        <v>1</v>
+      </c>
+      <c r="F2692">
+        <v>10</v>
+      </c>
+      <c r="G2692" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2693">
+        <v>0</v>
+      </c>
+      <c r="B2693">
+        <v>1</v>
+      </c>
+      <c r="C2693">
+        <v>0</v>
+      </c>
+      <c r="D2693">
+        <v>-2</v>
+      </c>
+      <c r="E2693">
+        <v>1</v>
+      </c>
+      <c r="F2693">
+        <v>10</v>
+      </c>
+      <c r="G2693" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2694">
+        <v>-2</v>
+      </c>
+      <c r="B2694">
+        <v>1</v>
+      </c>
+      <c r="C2694">
+        <v>0</v>
+      </c>
+      <c r="D2694">
+        <v>0</v>
+      </c>
+      <c r="E2694">
+        <v>1</v>
+      </c>
+      <c r="F2694">
+        <v>10</v>
+      </c>
+      <c r="G2694" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2695">
+        <v>0</v>
+      </c>
+      <c r="B2695">
+        <v>1</v>
+      </c>
+      <c r="C2695">
+        <v>0</v>
+      </c>
+      <c r="D2695">
+        <v>2</v>
+      </c>
+      <c r="E2695">
+        <v>1</v>
+      </c>
+      <c r="F2695">
+        <v>10</v>
+      </c>
+      <c r="G2695" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2696">
+        <v>2</v>
+      </c>
+      <c r="B2696">
+        <v>1</v>
+      </c>
+      <c r="C2696">
+        <v>0</v>
+      </c>
+      <c r="D2696">
+        <v>2</v>
+      </c>
+      <c r="E2696">
+        <v>1</v>
+      </c>
+      <c r="F2696">
+        <v>10</v>
+      </c>
+      <c r="G2696" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2697">
+        <v>2</v>
+      </c>
+      <c r="B2697">
+        <v>1</v>
+      </c>
+      <c r="C2697">
+        <v>0</v>
+      </c>
+      <c r="D2697">
+        <v>0</v>
+      </c>
+      <c r="E2697">
+        <v>1</v>
+      </c>
+      <c r="F2697">
+        <v>10</v>
+      </c>
+      <c r="G2697" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2698">
+        <v>0</v>
+      </c>
+      <c r="B2698">
+        <v>1</v>
+      </c>
+      <c r="C2698">
+        <v>0</v>
+      </c>
+      <c r="D2698">
+        <v>0</v>
+      </c>
+      <c r="E2698">
+        <v>1</v>
+      </c>
+      <c r="F2698">
+        <v>10</v>
+      </c>
+      <c r="G2698" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2699">
+        <v>0</v>
+      </c>
+      <c r="B2699">
+        <v>1</v>
+      </c>
+      <c r="C2699">
+        <v>0</v>
+      </c>
+      <c r="D2699">
+        <v>2</v>
+      </c>
+      <c r="E2699">
+        <v>1</v>
+      </c>
+      <c r="F2699">
+        <v>10</v>
+      </c>
+      <c r="G2699" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2700">
+        <v>2</v>
+      </c>
+      <c r="B2700">
+        <v>1</v>
+      </c>
+      <c r="C2700">
+        <v>0</v>
+      </c>
+      <c r="D2700">
+        <v>2</v>
+      </c>
+      <c r="E2700">
+        <v>1</v>
+      </c>
+      <c r="F2700">
+        <v>10</v>
+      </c>
+      <c r="G2700" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2701">
+        <v>0</v>
+      </c>
+      <c r="B2701">
+        <v>1</v>
+      </c>
+      <c r="C2701">
+        <v>0</v>
+      </c>
+      <c r="D2701">
+        <v>-2</v>
+      </c>
+      <c r="E2701">
+        <v>1</v>
+      </c>
+      <c r="F2701">
+        <v>10</v>
+      </c>
+      <c r="G2701" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2702">
+        <v>-2</v>
+      </c>
+      <c r="B2702">
+        <v>1</v>
+      </c>
+      <c r="C2702">
+        <v>0</v>
+      </c>
+      <c r="D2702">
+        <v>-2</v>
+      </c>
+      <c r="E2702">
+        <v>1</v>
+      </c>
+      <c r="F2702">
+        <v>10</v>
+      </c>
+      <c r="G2702" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2703">
+        <v>-2</v>
+      </c>
+      <c r="B2703">
+        <v>1</v>
+      </c>
+      <c r="C2703">
+        <v>0</v>
+      </c>
+      <c r="D2703">
+        <v>0</v>
+      </c>
+      <c r="E2703">
+        <v>1</v>
+      </c>
+      <c r="F2703">
+        <v>10</v>
+      </c>
+      <c r="G2703" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2704">
+        <v>0</v>
+      </c>
+      <c r="B2704">
+        <v>1</v>
+      </c>
+      <c r="C2704">
+        <v>0</v>
+      </c>
+      <c r="D2704">
+        <v>2</v>
+      </c>
+      <c r="E2704">
+        <v>1</v>
+      </c>
+      <c r="F2704">
+        <v>10</v>
+      </c>
+      <c r="G2704" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2705">
+        <v>2</v>
+      </c>
+      <c r="B2705">
+        <v>1</v>
+      </c>
+      <c r="C2705">
+        <v>0</v>
+      </c>
+      <c r="D2705">
+        <v>2</v>
+      </c>
+      <c r="E2705">
+        <v>1</v>
+      </c>
+      <c r="F2705">
+        <v>10</v>
+      </c>
+      <c r="G2705" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2706">
+        <v>2</v>
+      </c>
+      <c r="B2706">
+        <v>1</v>
+      </c>
+      <c r="C2706">
+        <v>0</v>
+      </c>
+      <c r="D2706">
+        <v>0</v>
+      </c>
+      <c r="E2706">
+        <v>1</v>
+      </c>
+      <c r="F2706">
+        <v>10</v>
+      </c>
+      <c r="G2706" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2707">
+        <v>2</v>
+      </c>
+      <c r="B2707">
+        <v>1</v>
+      </c>
+      <c r="C2707">
+        <v>0</v>
+      </c>
+      <c r="D2707">
+        <v>-2</v>
+      </c>
+      <c r="E2707">
+        <v>1</v>
+      </c>
+      <c r="F2707">
+        <v>10</v>
+      </c>
+      <c r="G2707" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2708">
+        <v>2</v>
+      </c>
+      <c r="B2708">
+        <v>1</v>
+      </c>
+      <c r="C2708">
+        <v>0</v>
+      </c>
+      <c r="D2708">
+        <v>2</v>
+      </c>
+      <c r="E2708">
+        <v>1</v>
+      </c>
+      <c r="F2708">
+        <v>10</v>
+      </c>
+      <c r="G2708" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2709">
+        <v>2</v>
+      </c>
+      <c r="B2709">
+        <v>1</v>
+      </c>
+      <c r="C2709">
+        <v>0</v>
+      </c>
+      <c r="D2709">
+        <v>-2</v>
+      </c>
+      <c r="E2709">
+        <v>1</v>
+      </c>
+      <c r="F2709">
+        <v>10</v>
+      </c>
+      <c r="G2709" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2710">
+        <v>2</v>
+      </c>
+      <c r="B2710">
+        <v>1</v>
+      </c>
+      <c r="C2710">
+        <v>0</v>
+      </c>
+      <c r="D2710">
+        <v>0</v>
+      </c>
+      <c r="E2710">
+        <v>1</v>
+      </c>
+      <c r="F2710">
+        <v>10</v>
+      </c>
+      <c r="G2710" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2711">
+        <v>2</v>
+      </c>
+      <c r="B2711">
+        <v>1</v>
+      </c>
+      <c r="C2711">
+        <v>0</v>
+      </c>
+      <c r="D2711">
+        <v>0</v>
+      </c>
+      <c r="E2711">
+        <v>1</v>
+      </c>
+      <c r="F2711">
+        <v>10</v>
+      </c>
+      <c r="G2711" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2712">
+        <v>2</v>
+      </c>
+      <c r="B2712">
+        <v>1</v>
+      </c>
+      <c r="C2712">
+        <v>0</v>
+      </c>
+      <c r="D2712">
+        <v>0</v>
+      </c>
+      <c r="E2712">
+        <v>1</v>
+      </c>
+      <c r="F2712">
+        <v>10</v>
+      </c>
+      <c r="G2712" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2713">
+        <v>0</v>
+      </c>
+      <c r="B2713">
+        <v>1</v>
+      </c>
+      <c r="C2713">
+        <v>0</v>
+      </c>
+      <c r="D2713">
+        <v>0</v>
+      </c>
+      <c r="E2713">
+        <v>1</v>
+      </c>
+      <c r="F2713">
+        <v>10</v>
+      </c>
+      <c r="G2713" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2714">
+        <v>0</v>
+      </c>
+      <c r="B2714">
+        <v>1</v>
+      </c>
+      <c r="C2714">
+        <v>0</v>
+      </c>
+      <c r="D2714">
+        <v>-2</v>
+      </c>
+      <c r="E2714">
+        <v>1</v>
+      </c>
+      <c r="F2714">
+        <v>10</v>
+      </c>
+      <c r="G2714" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2715">
+        <v>-2</v>
+      </c>
+      <c r="B2715">
+        <v>1</v>
+      </c>
+      <c r="C2715">
+        <v>0</v>
+      </c>
+      <c r="D2715">
+        <v>0</v>
+      </c>
+      <c r="E2715">
+        <v>1</v>
+      </c>
+      <c r="F2715">
+        <v>10</v>
+      </c>
+      <c r="G2715" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2716">
+        <v>0</v>
+      </c>
+      <c r="B2716">
+        <v>1</v>
+      </c>
+      <c r="C2716">
+        <v>0</v>
+      </c>
+      <c r="D2716">
+        <v>2</v>
+      </c>
+      <c r="E2716">
+        <v>1</v>
+      </c>
+      <c r="F2716">
+        <v>10</v>
+      </c>
+      <c r="G2716" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2717">
+        <v>2</v>
+      </c>
+      <c r="B2717">
+        <v>1</v>
+      </c>
+      <c r="C2717">
+        <v>0</v>
+      </c>
+      <c r="D2717">
+        <v>2</v>
+      </c>
+      <c r="E2717">
+        <v>1</v>
+      </c>
+      <c r="F2717">
+        <v>10</v>
+      </c>
+      <c r="G2717" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2718">
+        <v>2</v>
+      </c>
+      <c r="B2718">
+        <v>1</v>
+      </c>
+      <c r="C2718">
+        <v>0</v>
+      </c>
+      <c r="D2718">
+        <v>2</v>
+      </c>
+      <c r="E2718">
+        <v>1</v>
+      </c>
+      <c r="F2718">
+        <v>10</v>
+      </c>
+      <c r="G2718" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2719">
+        <v>2</v>
+      </c>
+      <c r="B2719">
+        <v>1</v>
+      </c>
+      <c r="C2719">
+        <v>0</v>
+      </c>
+      <c r="D2719">
+        <v>0</v>
+      </c>
+      <c r="E2719">
+        <v>1</v>
+      </c>
+      <c r="F2719">
+        <v>10</v>
+      </c>
+      <c r="G2719" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2720">
+        <v>0</v>
+      </c>
+      <c r="B2720">
+        <v>1</v>
+      </c>
+      <c r="C2720">
+        <v>0</v>
+      </c>
+      <c r="D2720">
+        <v>0</v>
+      </c>
+      <c r="E2720">
+        <v>1</v>
+      </c>
+      <c r="F2720">
+        <v>10</v>
+      </c>
+      <c r="G2720" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2721">
+        <v>0</v>
+      </c>
+      <c r="B2721">
+        <v>1</v>
+      </c>
+      <c r="C2721">
+        <v>0</v>
+      </c>
+      <c r="D2721">
+        <v>-2</v>
+      </c>
+      <c r="E2721">
+        <v>1</v>
+      </c>
+      <c r="F2721">
+        <v>10</v>
+      </c>
+      <c r="G2721" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2722">
+        <v>-2</v>
+      </c>
+      <c r="B2722">
+        <v>1</v>
+      </c>
+      <c r="C2722">
+        <v>0</v>
+      </c>
+      <c r="D2722">
+        <v>-2</v>
+      </c>
+      <c r="E2722">
+        <v>1</v>
+      </c>
+      <c r="F2722">
+        <v>10</v>
+      </c>
+      <c r="G2722" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2723">
+        <v>-2</v>
+      </c>
+      <c r="B2723">
+        <v>1</v>
+      </c>
+      <c r="C2723">
+        <v>0</v>
+      </c>
+      <c r="D2723">
+        <v>0</v>
+      </c>
+      <c r="E2723">
+        <v>1</v>
+      </c>
+      <c r="F2723">
+        <v>10</v>
+      </c>
+      <c r="G2723" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2724">
+        <v>0</v>
+      </c>
+      <c r="B2724">
+        <v>1</v>
+      </c>
+      <c r="C2724">
+        <v>0</v>
+      </c>
+      <c r="D2724">
+        <v>0</v>
+      </c>
+      <c r="E2724">
+        <v>1</v>
+      </c>
+      <c r="F2724">
+        <v>10</v>
+      </c>
+      <c r="G2724" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2725">
+        <v>0</v>
+      </c>
+      <c r="B2725">
+        <v>1</v>
+      </c>
+      <c r="C2725">
+        <v>0</v>
+      </c>
+      <c r="D2725">
+        <v>0</v>
+      </c>
+      <c r="E2725">
+        <v>1</v>
+      </c>
+      <c r="F2725">
+        <v>10</v>
+      </c>
+      <c r="G2725" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2726">
+        <v>0</v>
+      </c>
+      <c r="B2726">
+        <v>1</v>
+      </c>
+      <c r="C2726">
+        <v>0</v>
+      </c>
+      <c r="D2726">
+        <v>-2</v>
+      </c>
+      <c r="E2726">
+        <v>1</v>
+      </c>
+      <c r="F2726">
+        <v>10</v>
+      </c>
+      <c r="G2726" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2727">
+        <v>-2</v>
+      </c>
+      <c r="B2727">
+        <v>1</v>
+      </c>
+      <c r="C2727">
+        <v>0</v>
+      </c>
+      <c r="D2727">
+        <v>0</v>
+      </c>
+      <c r="E2727">
+        <v>1</v>
+      </c>
+      <c r="F2727">
+        <v>10</v>
+      </c>
+      <c r="G2727" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2728">
+        <v>0</v>
+      </c>
+      <c r="B2728">
+        <v>1</v>
+      </c>
+      <c r="C2728">
+        <v>0</v>
+      </c>
+      <c r="D2728">
+        <v>2</v>
+      </c>
+      <c r="E2728">
+        <v>1</v>
+      </c>
+      <c r="F2728">
+        <v>10</v>
+      </c>
+      <c r="G2728" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2729">
+        <v>2</v>
+      </c>
+      <c r="B2729">
+        <v>1</v>
+      </c>
+      <c r="C2729">
+        <v>0</v>
+      </c>
+      <c r="D2729">
+        <v>2</v>
+      </c>
+      <c r="E2729">
+        <v>1</v>
+      </c>
+      <c r="F2729">
+        <v>10</v>
+      </c>
+      <c r="G2729" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2730">
+        <v>2</v>
+      </c>
+      <c r="B2730">
+        <v>1</v>
+      </c>
+      <c r="C2730">
+        <v>0</v>
+      </c>
+      <c r="D2730">
+        <v>0</v>
+      </c>
+      <c r="E2730">
+        <v>1</v>
+      </c>
+      <c r="F2730">
+        <v>10</v>
+      </c>
+      <c r="G2730" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2731">
+        <v>0</v>
+      </c>
+      <c r="B2731">
+        <v>1</v>
+      </c>
+      <c r="C2731">
+        <v>0</v>
+      </c>
+      <c r="D2731">
+        <v>0</v>
+      </c>
+      <c r="E2731">
+        <v>1</v>
+      </c>
+      <c r="F2731">
+        <v>10</v>
+      </c>
+      <c r="G2731" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2732">
+        <v>0</v>
+      </c>
+      <c r="B2732">
+        <v>1</v>
+      </c>
+      <c r="C2732">
+        <v>0</v>
+      </c>
+      <c r="D2732">
+        <v>2</v>
+      </c>
+      <c r="E2732">
+        <v>1</v>
+      </c>
+      <c r="F2732">
+        <v>10</v>
+      </c>
+      <c r="G2732" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2733">
+        <v>2</v>
+      </c>
+      <c r="B2733">
+        <v>1</v>
+      </c>
+      <c r="C2733">
+        <v>0</v>
+      </c>
+      <c r="D2733">
+        <v>0</v>
+      </c>
+      <c r="E2733">
+        <v>1</v>
+      </c>
+      <c r="F2733">
+        <v>10</v>
+      </c>
+      <c r="G2733" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2734">
+        <v>0</v>
+      </c>
+      <c r="B2734">
+        <v>1</v>
+      </c>
+      <c r="C2734">
+        <v>0</v>
+      </c>
+      <c r="D2734">
+        <v>-2</v>
+      </c>
+      <c r="E2734">
+        <v>1</v>
+      </c>
+      <c r="F2734">
+        <v>10</v>
+      </c>
+      <c r="G2734" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2735">
+        <v>-2</v>
+      </c>
+      <c r="B2735">
+        <v>1</v>
+      </c>
+      <c r="C2735">
+        <v>0</v>
+      </c>
+      <c r="D2735">
+        <v>-2</v>
+      </c>
+      <c r="E2735">
+        <v>1</v>
+      </c>
+      <c r="F2735">
+        <v>10</v>
+      </c>
+      <c r="G2735" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2736">
+        <v>-2</v>
+      </c>
+      <c r="B2736">
+        <v>1</v>
+      </c>
+      <c r="C2736">
+        <v>0</v>
+      </c>
+      <c r="D2736">
+        <v>0</v>
+      </c>
+      <c r="E2736">
+        <v>1</v>
+      </c>
+      <c r="F2736">
+        <v>10</v>
+      </c>
+      <c r="G2736" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2737">
+        <v>0</v>
+      </c>
+      <c r="B2737">
+        <v>1</v>
+      </c>
+      <c r="C2737">
+        <v>0</v>
+      </c>
+      <c r="D2737">
+        <v>2</v>
+      </c>
+      <c r="E2737">
+        <v>1</v>
+      </c>
+      <c r="F2737">
+        <v>10</v>
+      </c>
+      <c r="G2737" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2738">
+        <v>2</v>
+      </c>
+      <c r="B2738">
+        <v>1</v>
+      </c>
+      <c r="C2738">
+        <v>0</v>
+      </c>
+      <c r="D2738">
+        <v>0</v>
+      </c>
+      <c r="E2738">
+        <v>1</v>
+      </c>
+      <c r="F2738">
+        <v>10</v>
+      </c>
+      <c r="G2738" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2739">
+        <v>0</v>
+      </c>
+      <c r="B2739">
+        <v>1</v>
+      </c>
+      <c r="C2739">
+        <v>0</v>
+      </c>
+      <c r="D2739">
+        <v>-2</v>
+      </c>
+      <c r="E2739">
+        <v>1</v>
+      </c>
+      <c r="F2739">
+        <v>10</v>
+      </c>
+      <c r="G2739" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2740">
+        <v>-2</v>
+      </c>
+      <c r="B2740">
+        <v>1</v>
+      </c>
+      <c r="C2740">
+        <v>0</v>
+      </c>
+      <c r="D2740">
+        <v>0</v>
+      </c>
+      <c r="E2740">
+        <v>1</v>
+      </c>
+      <c r="F2740">
+        <v>10</v>
+      </c>
+      <c r="G2740" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2741">
+        <v>0</v>
+      </c>
+      <c r="B2741">
+        <v>1</v>
+      </c>
+      <c r="C2741">
+        <v>0</v>
+      </c>
+      <c r="D2741">
+        <v>-2</v>
+      </c>
+      <c r="E2741">
+        <v>1</v>
+      </c>
+      <c r="F2741">
+        <v>10</v>
+      </c>
+      <c r="G2741" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2742">
+        <v>0</v>
+      </c>
+      <c r="B2742">
+        <v>1</v>
+      </c>
+      <c r="C2742">
+        <v>0</v>
+      </c>
+      <c r="D2742">
+        <v>2</v>
+      </c>
+      <c r="E2742">
+        <v>1</v>
+      </c>
+      <c r="F2742">
+        <v>10</v>
+      </c>
+      <c r="G2742" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2743">
+        <v>2</v>
+      </c>
+      <c r="B2743">
+        <v>1</v>
+      </c>
+      <c r="C2743">
+        <v>0</v>
+      </c>
+      <c r="D2743">
+        <v>2</v>
+      </c>
+      <c r="E2743">
+        <v>1</v>
+      </c>
+      <c r="F2743">
+        <v>10</v>
+      </c>
+      <c r="G2743" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2744">
+        <v>2</v>
+      </c>
+      <c r="B2744">
+        <v>1</v>
+      </c>
+      <c r="C2744">
+        <v>0</v>
+      </c>
+      <c r="D2744">
+        <v>0</v>
+      </c>
+      <c r="E2744">
+        <v>1</v>
+      </c>
+      <c r="F2744">
+        <v>10</v>
+      </c>
+      <c r="G2744" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2745">
+        <v>0</v>
+      </c>
+      <c r="B2745">
+        <v>1</v>
+      </c>
+      <c r="C2745">
+        <v>0</v>
+      </c>
+      <c r="D2745">
+        <v>0</v>
+      </c>
+      <c r="E2745">
+        <v>1</v>
+      </c>
+      <c r="F2745">
+        <v>10</v>
+      </c>
+      <c r="G2745" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2746">
+        <v>0</v>
+      </c>
+      <c r="B2746">
+        <v>1</v>
+      </c>
+      <c r="C2746">
+        <v>0</v>
+      </c>
+      <c r="D2746">
+        <v>2</v>
+      </c>
+      <c r="E2746">
+        <v>1</v>
+      </c>
+      <c r="F2746">
+        <v>10</v>
+      </c>
+      <c r="G2746" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2747">
+        <v>2</v>
+      </c>
+      <c r="B2747">
+        <v>1</v>
+      </c>
+      <c r="C2747">
+        <v>0</v>
+      </c>
+      <c r="D2747">
+        <v>2</v>
+      </c>
+      <c r="E2747">
+        <v>1</v>
+      </c>
+      <c r="F2747">
+        <v>10</v>
+      </c>
+      <c r="G2747" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2748">
+        <v>2</v>
+      </c>
+      <c r="B2748">
+        <v>1</v>
+      </c>
+      <c r="C2748">
+        <v>0</v>
+      </c>
+      <c r="D2748">
+        <v>-2</v>
+      </c>
+      <c r="E2748">
+        <v>1</v>
+      </c>
+      <c r="F2748">
+        <v>10</v>
+      </c>
+      <c r="G2748" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2749">
+        <v>2</v>
+      </c>
+      <c r="B2749">
+        <v>1</v>
+      </c>
+      <c r="C2749">
+        <v>0</v>
+      </c>
+      <c r="D2749">
+        <v>0</v>
+      </c>
+      <c r="E2749">
+        <v>1</v>
+      </c>
+      <c r="F2749">
+        <v>10</v>
+      </c>
+      <c r="G2749" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2750">
+        <v>0</v>
+      </c>
+      <c r="B2750">
+        <v>1</v>
+      </c>
+      <c r="C2750">
+        <v>0</v>
+      </c>
+      <c r="D2750">
+        <v>0</v>
+      </c>
+      <c r="E2750">
+        <v>1</v>
+      </c>
+      <c r="F2750">
+        <v>10</v>
+      </c>
+      <c r="G2750" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2751">
+        <v>0</v>
+      </c>
+      <c r="B2751">
+        <v>1</v>
+      </c>
+      <c r="C2751">
+        <v>0</v>
+      </c>
+      <c r="D2751">
+        <v>2</v>
+      </c>
+      <c r="E2751">
+        <v>1</v>
+      </c>
+      <c r="F2751">
+        <v>10</v>
+      </c>
+      <c r="G2751" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2752">
+        <v>2</v>
+      </c>
+      <c r="B2752">
+        <v>1</v>
+      </c>
+      <c r="C2752">
+        <v>0</v>
+      </c>
+      <c r="D2752">
+        <v>0</v>
+      </c>
+      <c r="E2752">
+        <v>1</v>
+      </c>
+      <c r="F2752">
+        <v>10</v>
+      </c>
+      <c r="G2752" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2753">
+        <v>0</v>
+      </c>
+      <c r="B2753">
+        <v>1</v>
+      </c>
+      <c r="C2753">
+        <v>0</v>
+      </c>
+      <c r="D2753">
+        <v>0</v>
+      </c>
+      <c r="E2753">
+        <v>1</v>
+      </c>
+      <c r="F2753">
+        <v>10</v>
+      </c>
+      <c r="G2753" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2754">
+        <v>0</v>
+      </c>
+      <c r="B2754">
+        <v>1</v>
+      </c>
+      <c r="C2754">
+        <v>0</v>
+      </c>
+      <c r="D2754">
+        <v>-2</v>
+      </c>
+      <c r="E2754">
+        <v>1</v>
+      </c>
+      <c r="F2754">
+        <v>10</v>
+      </c>
+      <c r="G2754" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2755">
+        <v>0</v>
+      </c>
+      <c r="B2755">
+        <v>1</v>
+      </c>
+      <c r="C2755">
+        <v>0</v>
+      </c>
+      <c r="D2755">
+        <v>-2</v>
+      </c>
+      <c r="E2755">
+        <v>1</v>
+      </c>
+      <c r="F2755">
+        <v>10</v>
+      </c>
+      <c r="G2755" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2756">
+        <v>-2</v>
+      </c>
+      <c r="B2756">
+        <v>1</v>
+      </c>
+      <c r="C2756">
+        <v>0</v>
+      </c>
+      <c r="D2756">
+        <v>-2</v>
+      </c>
+      <c r="E2756">
+        <v>1</v>
+      </c>
+      <c r="F2756">
+        <v>10</v>
+      </c>
+      <c r="G2756" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2757">
+        <v>-2</v>
+      </c>
+      <c r="B2757">
+        <v>1</v>
+      </c>
+      <c r="C2757">
+        <v>0</v>
+      </c>
+      <c r="D2757">
+        <v>0</v>
+      </c>
+      <c r="E2757">
+        <v>1</v>
+      </c>
+      <c r="F2757">
+        <v>10</v>
+      </c>
+      <c r="G2757" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2758">
+        <v>0</v>
+      </c>
+      <c r="B2758">
+        <v>1</v>
+      </c>
+      <c r="C2758">
+        <v>0</v>
+      </c>
+      <c r="D2758">
+        <v>2</v>
+      </c>
+      <c r="E2758">
+        <v>1</v>
+      </c>
+      <c r="F2758">
+        <v>10</v>
+      </c>
+      <c r="G2758" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2759">
+        <v>2</v>
+      </c>
+      <c r="B2759">
+        <v>1</v>
+      </c>
+      <c r="C2759">
+        <v>0</v>
+      </c>
+      <c r="D2759">
+        <v>0</v>
+      </c>
+      <c r="E2759">
+        <v>1</v>
+      </c>
+      <c r="F2759">
+        <v>10</v>
+      </c>
+      <c r="G2759" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2760">
+        <v>0</v>
+      </c>
+      <c r="B2760">
+        <v>1</v>
+      </c>
+      <c r="C2760">
+        <v>0</v>
+      </c>
+      <c r="D2760">
+        <v>2</v>
+      </c>
+      <c r="E2760">
+        <v>1</v>
+      </c>
+      <c r="F2760">
+        <v>10</v>
+      </c>
+      <c r="G2760" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2761">
+        <v>2</v>
+      </c>
+      <c r="B2761">
+        <v>1</v>
+      </c>
+      <c r="C2761">
+        <v>0</v>
+      </c>
+      <c r="D2761">
+        <v>0</v>
+      </c>
+      <c r="E2761">
+        <v>1</v>
+      </c>
+      <c r="F2761">
+        <v>10</v>
+      </c>
+      <c r="G2761" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2762">
+        <v>0</v>
+      </c>
+      <c r="B2762">
+        <v>1</v>
+      </c>
+      <c r="C2762">
+        <v>0</v>
+      </c>
+      <c r="D2762">
+        <v>-2</v>
+      </c>
+      <c r="E2762">
+        <v>1</v>
+      </c>
+      <c r="F2762">
+        <v>10</v>
+      </c>
+      <c r="G2762" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2763">
+        <v>0</v>
+      </c>
+      <c r="B2763">
+        <v>1</v>
+      </c>
+      <c r="C2763">
+        <v>0</v>
+      </c>
+      <c r="D2763">
+        <v>-2</v>
+      </c>
+      <c r="E2763">
+        <v>1</v>
+      </c>
+      <c r="F2763">
+        <v>10</v>
+      </c>
+      <c r="G2763" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2764">
+        <v>-2</v>
+      </c>
+      <c r="B2764">
+        <v>1</v>
+      </c>
+      <c r="C2764">
+        <v>0</v>
+      </c>
+      <c r="D2764">
+        <v>-2</v>
+      </c>
+      <c r="E2764">
+        <v>1</v>
+      </c>
+      <c r="F2764">
+        <v>10</v>
+      </c>
+      <c r="G2764" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2765">
+        <v>-2</v>
+      </c>
+      <c r="B2765">
+        <v>1</v>
+      </c>
+      <c r="C2765">
+        <v>0</v>
+      </c>
+      <c r="D2765">
+        <v>0</v>
+      </c>
+      <c r="E2765">
+        <v>1</v>
+      </c>
+      <c r="F2765">
+        <v>10</v>
+      </c>
+      <c r="G2765" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2766">
+        <v>0</v>
+      </c>
+      <c r="B2766">
+        <v>1</v>
+      </c>
+      <c r="C2766">
+        <v>0</v>
+      </c>
+      <c r="D2766">
+        <v>2</v>
+      </c>
+      <c r="E2766">
+        <v>1</v>
+      </c>
+      <c r="F2766">
+        <v>10</v>
+      </c>
+      <c r="G2766" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2767">
+        <v>2</v>
+      </c>
+      <c r="B2767">
+        <v>1</v>
+      </c>
+      <c r="C2767">
+        <v>0</v>
+      </c>
+      <c r="D2767">
+        <v>0</v>
+      </c>
+      <c r="E2767">
+        <v>1</v>
+      </c>
+      <c r="F2767">
+        <v>10</v>
+      </c>
+      <c r="G2767" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2768">
+        <v>0</v>
+      </c>
+      <c r="B2768">
+        <v>1</v>
+      </c>
+      <c r="C2768">
+        <v>0</v>
+      </c>
+      <c r="D2768">
+        <v>-2</v>
+      </c>
+      <c r="E2768">
+        <v>1</v>
+      </c>
+      <c r="F2768">
+        <v>10</v>
+      </c>
+      <c r="G2768" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2769">
+        <v>-2</v>
+      </c>
+      <c r="B2769">
+        <v>1</v>
+      </c>
+      <c r="C2769">
+        <v>0</v>
+      </c>
+      <c r="D2769">
+        <v>0</v>
+      </c>
+      <c r="E2769">
+        <v>1</v>
+      </c>
+      <c r="F2769">
+        <v>10</v>
+      </c>
+      <c r="G2769" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2770">
+        <v>0</v>
+      </c>
+      <c r="B2770">
+        <v>1</v>
+      </c>
+      <c r="C2770">
+        <v>0</v>
+      </c>
+      <c r="D2770">
+        <v>-2</v>
+      </c>
+      <c r="E2770">
+        <v>1</v>
+      </c>
+      <c r="F2770">
+        <v>10</v>
+      </c>
+      <c r="G2770" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2771">
+        <v>-2</v>
+      </c>
+      <c r="B2771">
+        <v>1</v>
+      </c>
+      <c r="C2771">
+        <v>0</v>
+      </c>
+      <c r="D2771">
+        <v>-2</v>
+      </c>
+      <c r="E2771">
+        <v>1</v>
+      </c>
+      <c r="F2771">
+        <v>10</v>
+      </c>
+      <c r="G2771" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2772">
+        <v>-2</v>
+      </c>
+      <c r="B2772">
+        <v>1</v>
+      </c>
+      <c r="C2772">
+        <v>0</v>
+      </c>
+      <c r="D2772">
+        <v>0</v>
+      </c>
+      <c r="E2772">
+        <v>1</v>
+      </c>
+      <c r="F2772">
+        <v>10</v>
+      </c>
+      <c r="G2772" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2773">
+        <v>0</v>
+      </c>
+      <c r="B2773">
+        <v>1</v>
+      </c>
+      <c r="C2773">
+        <v>0</v>
+      </c>
+      <c r="D2773">
+        <v>2</v>
+      </c>
+      <c r="E2773">
+        <v>1</v>
+      </c>
+      <c r="F2773">
+        <v>10</v>
+      </c>
+      <c r="G2773" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2774">
+        <v>2</v>
+      </c>
+      <c r="B2774">
+        <v>1</v>
+      </c>
+      <c r="C2774">
+        <v>0</v>
+      </c>
+      <c r="D2774">
+        <v>2</v>
+      </c>
+      <c r="E2774">
+        <v>1</v>
+      </c>
+      <c r="F2774">
+        <v>10</v>
+      </c>
+      <c r="G2774" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2775">
+        <v>2</v>
+      </c>
+      <c r="B2775">
+        <v>1</v>
+      </c>
+      <c r="C2775">
+        <v>0</v>
+      </c>
+      <c r="D2775">
+        <v>0</v>
+      </c>
+      <c r="E2775">
+        <v>1</v>
+      </c>
+      <c r="F2775">
+        <v>10</v>
+      </c>
+      <c r="G2775" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2776">
+        <v>0</v>
+      </c>
+      <c r="B2776">
+        <v>1</v>
+      </c>
+      <c r="C2776">
+        <v>0</v>
+      </c>
+      <c r="D2776">
+        <v>0</v>
+      </c>
+      <c r="E2776">
+        <v>1</v>
+      </c>
+      <c r="F2776">
+        <v>10</v>
+      </c>
+      <c r="G2776" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2777">
+        <v>0</v>
+      </c>
+      <c r="B2777">
+        <v>1</v>
+      </c>
+      <c r="C2777">
+        <v>0</v>
+      </c>
+      <c r="D2777">
+        <v>-2</v>
+      </c>
+      <c r="E2777">
+        <v>1</v>
+      </c>
+      <c r="F2777">
+        <v>10</v>
+      </c>
+      <c r="G2777" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2778">
+        <v>-2</v>
+      </c>
+      <c r="B2778">
+        <v>1</v>
+      </c>
+      <c r="C2778">
+        <v>0</v>
+      </c>
+      <c r="D2778">
+        <v>0</v>
+      </c>
+      <c r="E2778">
+        <v>1</v>
+      </c>
+      <c r="F2778">
+        <v>10</v>
+      </c>
+      <c r="G2778" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2779">
+        <v>0</v>
+      </c>
+      <c r="B2779">
+        <v>1</v>
+      </c>
+      <c r="C2779">
+        <v>0</v>
+      </c>
+      <c r="D2779">
+        <v>2</v>
+      </c>
+      <c r="E2779">
+        <v>1</v>
+      </c>
+      <c r="F2779">
+        <v>10</v>
+      </c>
+      <c r="G2779" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2780">
+        <v>2</v>
+      </c>
+      <c r="B2780">
+        <v>1</v>
+      </c>
+      <c r="C2780">
+        <v>0</v>
+      </c>
+      <c r="D2780">
+        <v>0</v>
+      </c>
+      <c r="E2780">
+        <v>1</v>
+      </c>
+      <c r="F2780">
+        <v>10</v>
+      </c>
+      <c r="G2780" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2781">
+        <v>0</v>
+      </c>
+      <c r="B2781">
+        <v>1</v>
+      </c>
+      <c r="C2781">
+        <v>0</v>
+      </c>
+      <c r="D2781">
+        <v>2</v>
+      </c>
+      <c r="E2781">
+        <v>1</v>
+      </c>
+      <c r="F2781">
+        <v>10</v>
+      </c>
+      <c r="G2781" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2782">
+        <v>2</v>
+      </c>
+      <c r="B2782">
+        <v>1</v>
+      </c>
+      <c r="C2782">
+        <v>0</v>
+      </c>
+      <c r="D2782">
+        <v>-2</v>
+      </c>
+      <c r="E2782">
+        <v>1</v>
+      </c>
+      <c r="F2782">
+        <v>10</v>
+      </c>
+      <c r="G2782" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2783">
+        <v>2</v>
+      </c>
+      <c r="B2783">
+        <v>1</v>
+      </c>
+      <c r="C2783">
+        <v>0</v>
+      </c>
+      <c r="D2783">
+        <v>0</v>
+      </c>
+      <c r="E2783">
+        <v>1</v>
+      </c>
+      <c r="F2783">
+        <v>10</v>
+      </c>
+      <c r="G2783" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2784">
+        <v>2</v>
+      </c>
+      <c r="B2784">
+        <v>1</v>
+      </c>
+      <c r="C2784">
+        <v>0</v>
+      </c>
+      <c r="D2784">
+        <v>0</v>
+      </c>
+      <c r="E2784">
+        <v>1</v>
+      </c>
+      <c r="F2784">
+        <v>10</v>
+      </c>
+      <c r="G2784" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2785">
+        <v>0</v>
+      </c>
+      <c r="B2785">
+        <v>1</v>
+      </c>
+      <c r="C2785">
+        <v>0</v>
+      </c>
+      <c r="D2785">
+        <v>0</v>
+      </c>
+      <c r="E2785">
+        <v>1</v>
+      </c>
+      <c r="F2785">
+        <v>10</v>
+      </c>
+      <c r="G2785" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2786">
+        <v>0</v>
+      </c>
+      <c r="B2786">
+        <v>1</v>
+      </c>
+      <c r="C2786">
+        <v>0</v>
+      </c>
+      <c r="D2786">
+        <v>-2</v>
+      </c>
+      <c r="E2786">
+        <v>1</v>
+      </c>
+      <c r="F2786">
+        <v>10</v>
+      </c>
+      <c r="G2786" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2787">
+        <v>-2</v>
+      </c>
+      <c r="B2787">
+        <v>1</v>
+      </c>
+      <c r="C2787">
+        <v>0</v>
+      </c>
+      <c r="D2787">
+        <v>-2</v>
+      </c>
+      <c r="E2787">
+        <v>1</v>
+      </c>
+      <c r="F2787">
+        <v>10</v>
+      </c>
+      <c r="G2787" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2788">
+        <v>-2</v>
+      </c>
+      <c r="B2788">
+        <v>1</v>
+      </c>
+      <c r="C2788">
+        <v>0</v>
+      </c>
+      <c r="D2788">
+        <v>0</v>
+      </c>
+      <c r="E2788">
+        <v>1</v>
+      </c>
+      <c r="F2788">
+        <v>10</v>
+      </c>
+      <c r="G2788" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2789">
+        <v>0</v>
+      </c>
+      <c r="B2789">
+        <v>1</v>
+      </c>
+      <c r="C2789">
+        <v>0</v>
+      </c>
+      <c r="D2789">
+        <v>0</v>
+      </c>
+      <c r="E2789">
+        <v>1</v>
+      </c>
+      <c r="F2789">
+        <v>10</v>
+      </c>
+      <c r="G2789" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2790">
+        <v>0</v>
+      </c>
+      <c r="B2790">
+        <v>1</v>
+      </c>
+      <c r="C2790">
+        <v>0</v>
+      </c>
+      <c r="D2790">
+        <v>2</v>
+      </c>
+      <c r="E2790">
+        <v>1</v>
+      </c>
+      <c r="F2790">
+        <v>10</v>
+      </c>
+      <c r="G2790" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2791">
+        <v>2</v>
+      </c>
+      <c r="B2791">
+        <v>1</v>
+      </c>
+      <c r="C2791">
+        <v>0</v>
+      </c>
+      <c r="D2791">
+        <v>0</v>
+      </c>
+      <c r="E2791">
+        <v>1</v>
+      </c>
+      <c r="F2791">
+        <v>10</v>
+      </c>
+      <c r="G2791" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2792">
+        <v>0</v>
+      </c>
+      <c r="B2792">
+        <v>1</v>
+      </c>
+      <c r="C2792">
+        <v>0</v>
+      </c>
+      <c r="D2792">
+        <v>0</v>
+      </c>
+      <c r="E2792">
+        <v>1</v>
+      </c>
+      <c r="F2792">
+        <v>10</v>
+      </c>
+      <c r="G2792" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2793">
+        <v>0</v>
+      </c>
+      <c r="B2793">
+        <v>1</v>
+      </c>
+      <c r="C2793">
+        <v>0</v>
+      </c>
+      <c r="D2793">
+        <v>2</v>
+      </c>
+      <c r="E2793">
+        <v>1</v>
+      </c>
+      <c r="F2793">
+        <v>10</v>
+      </c>
+      <c r="G2793" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2794">
+        <v>2</v>
+      </c>
+      <c r="B2794">
+        <v>1</v>
+      </c>
+      <c r="C2794">
+        <v>0</v>
+      </c>
+      <c r="D2794">
+        <v>2</v>
+      </c>
+      <c r="E2794">
+        <v>1</v>
+      </c>
+      <c r="F2794">
+        <v>10</v>
+      </c>
+      <c r="G2794" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2795">
+        <v>2</v>
+      </c>
+      <c r="B2795">
+        <v>1</v>
+      </c>
+      <c r="C2795">
+        <v>0</v>
+      </c>
+      <c r="D2795">
+        <v>0</v>
+      </c>
+      <c r="E2795">
+        <v>1</v>
+      </c>
+      <c r="F2795">
+        <v>10</v>
+      </c>
+      <c r="G2795" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2796">
+        <v>0</v>
+      </c>
+      <c r="B2796">
+        <v>1</v>
+      </c>
+      <c r="C2796">
+        <v>0</v>
+      </c>
+      <c r="D2796">
+        <v>-2</v>
+      </c>
+      <c r="E2796">
+        <v>1</v>
+      </c>
+      <c r="F2796">
+        <v>10</v>
+      </c>
+      <c r="G2796" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2797">
+        <v>-2</v>
+      </c>
+      <c r="B2797">
+        <v>1</v>
+      </c>
+      <c r="C2797">
+        <v>0</v>
+      </c>
+      <c r="D2797">
+        <v>-2</v>
+      </c>
+      <c r="E2797">
+        <v>1</v>
+      </c>
+      <c r="F2797">
+        <v>10</v>
+      </c>
+      <c r="G2797" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2798">
+        <v>-2</v>
+      </c>
+      <c r="B2798">
+        <v>1</v>
+      </c>
+      <c r="C2798">
+        <v>0</v>
+      </c>
+      <c r="D2798">
+        <v>0</v>
+      </c>
+      <c r="E2798">
+        <v>1</v>
+      </c>
+      <c r="F2798">
+        <v>10</v>
+      </c>
+      <c r="G2798" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2799">
+        <v>0</v>
+      </c>
+      <c r="B2799">
+        <v>1</v>
+      </c>
+      <c r="C2799">
+        <v>0</v>
+      </c>
+      <c r="D2799">
+        <v>2</v>
+      </c>
+      <c r="E2799">
+        <v>1</v>
+      </c>
+      <c r="F2799">
+        <v>10</v>
+      </c>
+      <c r="G2799" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2800">
+        <v>2</v>
+      </c>
+      <c r="B2800">
+        <v>1</v>
+      </c>
+      <c r="C2800">
+        <v>0</v>
+      </c>
+      <c r="D2800">
+        <v>0</v>
+      </c>
+      <c r="E2800">
+        <v>1</v>
+      </c>
+      <c r="F2800">
+        <v>10</v>
+      </c>
+      <c r="G2800" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2801">
+        <v>0</v>
+      </c>
+      <c r="B2801">
+        <v>1</v>
+      </c>
+      <c r="C2801">
+        <v>0</v>
+      </c>
+      <c r="D2801">
+        <v>2</v>
+      </c>
+      <c r="E2801">
+        <v>1</v>
+      </c>
+      <c r="F2801">
+        <v>10</v>
+      </c>
+      <c r="G2801" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2802">
+        <v>2</v>
+      </c>
+      <c r="B2802">
+        <v>1</v>
+      </c>
+      <c r="C2802">
+        <v>0</v>
+      </c>
+      <c r="D2802">
+        <v>0</v>
+      </c>
+      <c r="E2802">
+        <v>1</v>
+      </c>
+      <c r="F2802">
+        <v>10</v>
+      </c>
+      <c r="G2802" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2803">
+        <v>0</v>
+      </c>
+      <c r="B2803">
+        <v>1</v>
+      </c>
+      <c r="C2803">
+        <v>0</v>
+      </c>
+      <c r="D2803">
+        <v>0</v>
+      </c>
+      <c r="E2803">
+        <v>1</v>
+      </c>
+      <c r="F2803">
+        <v>10</v>
+      </c>
+      <c r="G2803" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2804">
+        <v>0</v>
+      </c>
+      <c r="B2804">
+        <v>1</v>
+      </c>
+      <c r="C2804">
+        <v>0</v>
+      </c>
+      <c r="D2804">
+        <v>-2</v>
+      </c>
+      <c r="E2804">
+        <v>1</v>
+      </c>
+      <c r="F2804">
+        <v>10</v>
+      </c>
+      <c r="G2804" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2805">
+        <v>0</v>
+      </c>
+      <c r="B2805">
+        <v>1</v>
+      </c>
+      <c r="C2805">
+        <v>0</v>
+      </c>
+      <c r="D2805">
+        <v>0</v>
+      </c>
+      <c r="E2805">
+        <v>1</v>
+      </c>
+      <c r="F2805">
+        <v>10</v>
+      </c>
+      <c r="G2805" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2806">
+        <v>0</v>
+      </c>
+      <c r="B2806">
+        <v>1</v>
+      </c>
+      <c r="C2806">
+        <v>0</v>
+      </c>
+      <c r="D2806">
+        <v>2</v>
+      </c>
+      <c r="E2806">
+        <v>1</v>
+      </c>
+      <c r="F2806">
+        <v>10</v>
+      </c>
+      <c r="G2806" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2807">
+        <v>2</v>
+      </c>
+      <c r="B2807">
+        <v>1</v>
+      </c>
+      <c r="C2807">
+        <v>0</v>
+      </c>
+      <c r="D2807">
+        <v>2</v>
+      </c>
+      <c r="E2807">
+        <v>1</v>
+      </c>
+      <c r="F2807">
+        <v>10</v>
+      </c>
+      <c r="G2807" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2808">
+        <v>2</v>
+      </c>
+      <c r="B2808">
+        <v>1</v>
+      </c>
+      <c r="C2808">
+        <v>0</v>
+      </c>
+      <c r="D2808">
+        <v>0</v>
+      </c>
+      <c r="E2808">
+        <v>1</v>
+      </c>
+      <c r="F2808">
+        <v>10</v>
+      </c>
+      <c r="G2808" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2809">
+        <v>0</v>
+      </c>
+      <c r="B2809">
+        <v>1</v>
+      </c>
+      <c r="C2809">
+        <v>0</v>
+      </c>
+      <c r="D2809">
+        <v>-2</v>
+      </c>
+      <c r="E2809">
+        <v>1</v>
+      </c>
+      <c r="F2809">
+        <v>10</v>
+      </c>
+      <c r="G2809" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2810">
+        <v>-2</v>
+      </c>
+      <c r="B2810">
+        <v>1</v>
+      </c>
+      <c r="C2810">
+        <v>0</v>
+      </c>
+      <c r="D2810">
+        <v>0</v>
+      </c>
+      <c r="E2810">
+        <v>1</v>
+      </c>
+      <c r="F2810">
+        <v>10</v>
+      </c>
+      <c r="G2810" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2811">
+        <v>0</v>
+      </c>
+      <c r="B2811">
+        <v>1</v>
+      </c>
+      <c r="C2811">
+        <v>0</v>
+      </c>
+      <c r="D2811">
+        <v>-2</v>
+      </c>
+      <c r="E2811">
+        <v>1</v>
+      </c>
+      <c r="F2811">
+        <v>10</v>
+      </c>
+      <c r="G2811" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2812">
+        <v>-2</v>
+      </c>
+      <c r="B2812">
+        <v>1</v>
+      </c>
+      <c r="C2812">
+        <v>0</v>
+      </c>
+      <c r="D2812">
+        <v>0</v>
+      </c>
+      <c r="E2812">
+        <v>1</v>
+      </c>
+      <c r="F2812">
+        <v>10</v>
+      </c>
+      <c r="G2812" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2813">
+        <v>0</v>
+      </c>
+      <c r="B2813">
+        <v>1</v>
+      </c>
+      <c r="C2813">
+        <v>0</v>
+      </c>
+      <c r="D2813">
+        <v>2</v>
+      </c>
+      <c r="E2813">
+        <v>1</v>
+      </c>
+      <c r="F2813">
+        <v>10</v>
+      </c>
+      <c r="G2813" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2814">
+        <v>2</v>
+      </c>
+      <c r="B2814">
+        <v>1</v>
+      </c>
+      <c r="C2814">
+        <v>0</v>
+      </c>
+      <c r="D2814">
+        <v>-2</v>
+      </c>
+      <c r="E2814">
+        <v>1</v>
+      </c>
+      <c r="F2814">
+        <v>10</v>
+      </c>
+      <c r="G2814" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2815">
+        <v>2</v>
+      </c>
+      <c r="B2815">
+        <v>1</v>
+      </c>
+      <c r="C2815">
+        <v>0</v>
+      </c>
+      <c r="D2815">
+        <v>0</v>
+      </c>
+      <c r="E2815">
+        <v>1</v>
+      </c>
+      <c r="F2815">
+        <v>10</v>
+      </c>
+      <c r="G2815" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2816">
+        <v>0</v>
+      </c>
+      <c r="B2816">
+        <v>1</v>
+      </c>
+      <c r="C2816">
+        <v>0</v>
+      </c>
+      <c r="D2816">
+        <v>-2</v>
+      </c>
+      <c r="E2816">
+        <v>1</v>
+      </c>
+      <c r="F2816">
+        <v>10</v>
+      </c>
+      <c r="G2816" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2817">
+        <v>-2</v>
+      </c>
+      <c r="B2817">
+        <v>1</v>
+      </c>
+      <c r="C2817">
+        <v>0</v>
+      </c>
+      <c r="D2817">
+        <v>0</v>
+      </c>
+      <c r="E2817">
+        <v>1</v>
+      </c>
+      <c r="F2817">
+        <v>10</v>
+      </c>
+      <c r="G2817" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2818">
+        <v>0</v>
+      </c>
+      <c r="B2818">
+        <v>1</v>
+      </c>
+      <c r="C2818">
+        <v>0</v>
+      </c>
+      <c r="D2818">
+        <v>-2</v>
+      </c>
+      <c r="E2818">
+        <v>1</v>
+      </c>
+      <c r="F2818">
+        <v>10</v>
+      </c>
+      <c r="G2818" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2819">
+        <v>0</v>
+      </c>
+      <c r="B2819">
+        <v>1</v>
+      </c>
+      <c r="C2819">
+        <v>0</v>
+      </c>
+      <c r="D2819">
+        <v>0</v>
+      </c>
+      <c r="E2819">
+        <v>1</v>
+      </c>
+      <c r="F2819">
+        <v>10</v>
+      </c>
+      <c r="G2819" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2820">
+        <v>0</v>
+      </c>
+      <c r="B2820">
+        <v>1</v>
+      </c>
+      <c r="C2820">
+        <v>0</v>
+      </c>
+      <c r="D2820">
+        <v>2</v>
+      </c>
+      <c r="E2820">
+        <v>1</v>
+      </c>
+      <c r="F2820">
+        <v>10</v>
+      </c>
+      <c r="G2820" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2821">
+        <v>2</v>
+      </c>
+      <c r="B2821">
+        <v>1</v>
+      </c>
+      <c r="C2821">
+        <v>0</v>
+      </c>
+      <c r="D2821">
+        <v>0</v>
+      </c>
+      <c r="E2821">
+        <v>1</v>
+      </c>
+      <c r="F2821">
+        <v>10</v>
+      </c>
+      <c r="G2821" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2822">
+        <v>0</v>
+      </c>
+      <c r="B2822">
+        <v>1</v>
+      </c>
+      <c r="C2822">
+        <v>0</v>
+      </c>
+      <c r="D2822">
+        <v>-2</v>
+      </c>
+      <c r="E2822">
+        <v>1</v>
+      </c>
+      <c r="F2822">
+        <v>10</v>
+      </c>
+      <c r="G2822" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2823">
+        <v>-2</v>
+      </c>
+      <c r="B2823">
+        <v>1</v>
+      </c>
+      <c r="C2823">
+        <v>0</v>
+      </c>
+      <c r="D2823">
+        <v>0</v>
+      </c>
+      <c r="E2823">
+        <v>1</v>
+      </c>
+      <c r="F2823">
+        <v>10</v>
+      </c>
+      <c r="G2823" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2824">
+        <v>0</v>
+      </c>
+      <c r="B2824">
+        <v>1</v>
+      </c>
+      <c r="C2824">
+        <v>0</v>
+      </c>
+      <c r="D2824">
+        <v>2</v>
+      </c>
+      <c r="E2824">
+        <v>1</v>
+      </c>
+      <c r="F2824">
+        <v>10</v>
+      </c>
+      <c r="G2824" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2825">
+        <v>2</v>
+      </c>
+      <c r="B2825">
+        <v>1</v>
+      </c>
+      <c r="C2825">
+        <v>0</v>
+      </c>
+      <c r="D2825">
+        <v>2</v>
+      </c>
+      <c r="E2825">
+        <v>1</v>
+      </c>
+      <c r="F2825">
+        <v>10</v>
+      </c>
+      <c r="G2825" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2826">
+        <v>2</v>
+      </c>
+      <c r="B2826">
+        <v>1</v>
+      </c>
+      <c r="C2826">
+        <v>0</v>
+      </c>
+      <c r="D2826">
+        <v>0</v>
+      </c>
+      <c r="E2826">
+        <v>1</v>
+      </c>
+      <c r="F2826">
+        <v>10</v>
+      </c>
+      <c r="G2826" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2827">
+        <v>0</v>
+      </c>
+      <c r="B2827">
+        <v>1</v>
+      </c>
+      <c r="C2827">
+        <v>0</v>
+      </c>
+      <c r="D2827">
+        <v>-2</v>
+      </c>
+      <c r="E2827">
+        <v>1</v>
+      </c>
+      <c r="F2827">
+        <v>10</v>
+      </c>
+      <c r="G2827" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2828">
+        <v>-2</v>
+      </c>
+      <c r="B2828">
+        <v>1</v>
+      </c>
+      <c r="C2828">
+        <v>0</v>
+      </c>
+      <c r="D2828">
+        <v>0</v>
+      </c>
+      <c r="E2828">
+        <v>1</v>
+      </c>
+      <c r="F2828">
+        <v>10</v>
+      </c>
+      <c r="G2828" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2829">
+        <v>0</v>
+      </c>
+      <c r="B2829">
+        <v>1</v>
+      </c>
+      <c r="C2829">
+        <v>0</v>
+      </c>
+      <c r="D2829">
+        <v>2</v>
+      </c>
+      <c r="E2829">
+        <v>1</v>
+      </c>
+      <c r="F2829">
+        <v>10</v>
+      </c>
+      <c r="G2829" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2830">
+        <v>2</v>
+      </c>
+      <c r="B2830">
+        <v>1</v>
+      </c>
+      <c r="C2830">
+        <v>0</v>
+      </c>
+      <c r="D2830">
+        <v>0</v>
+      </c>
+      <c r="E2830">
+        <v>1</v>
+      </c>
+      <c r="F2830">
+        <v>10</v>
+      </c>
+      <c r="G2830" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2831">
+        <v>0</v>
+      </c>
+      <c r="B2831">
+        <v>1</v>
+      </c>
+      <c r="C2831">
+        <v>0</v>
+      </c>
+      <c r="D2831">
+        <v>0</v>
+      </c>
+      <c r="E2831">
+        <v>1</v>
+      </c>
+      <c r="F2831">
+        <v>10</v>
+      </c>
+      <c r="G2831" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2832">
+        <v>0</v>
+      </c>
+      <c r="B2832">
+        <v>1</v>
+      </c>
+      <c r="C2832">
+        <v>0</v>
+      </c>
+      <c r="D2832">
+        <v>-2</v>
+      </c>
+      <c r="E2832">
+        <v>1</v>
+      </c>
+      <c r="F2832">
+        <v>10</v>
+      </c>
+      <c r="G2832" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2833">
+        <v>-2</v>
+      </c>
+      <c r="B2833">
+        <v>1</v>
+      </c>
+      <c r="C2833">
+        <v>0</v>
+      </c>
+      <c r="D2833">
+        <v>0</v>
+      </c>
+      <c r="E2833">
+        <v>1</v>
+      </c>
+      <c r="F2833">
+        <v>10</v>
+      </c>
+      <c r="G2833" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2834">
+        <v>0</v>
+      </c>
+      <c r="B2834">
+        <v>1</v>
+      </c>
+      <c r="C2834">
+        <v>0</v>
+      </c>
+      <c r="D2834">
+        <v>2</v>
+      </c>
+      <c r="E2834">
+        <v>1</v>
+      </c>
+      <c r="F2834">
+        <v>10</v>
+      </c>
+      <c r="G2834" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2835">
+        <v>2</v>
+      </c>
+      <c r="B2835">
+        <v>1</v>
+      </c>
+      <c r="C2835">
+        <v>0</v>
+      </c>
+      <c r="D2835">
+        <v>0</v>
+      </c>
+      <c r="E2835">
+        <v>1</v>
+      </c>
+      <c r="F2835">
+        <v>10</v>
+      </c>
+      <c r="G2835" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2836">
+        <v>0</v>
+      </c>
+      <c r="B2836">
+        <v>1</v>
+      </c>
+      <c r="C2836">
+        <v>0</v>
+      </c>
+      <c r="D2836">
+        <v>0</v>
+      </c>
+      <c r="E2836">
+        <v>1</v>
+      </c>
+      <c r="F2836">
+        <v>10</v>
+      </c>
+      <c r="G2836" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2837">
+        <v>0</v>
+      </c>
+      <c r="B2837">
+        <v>1</v>
+      </c>
+      <c r="C2837">
+        <v>0</v>
+      </c>
+      <c r="D2837">
+        <v>-2</v>
+      </c>
+      <c r="E2837">
+        <v>1</v>
+      </c>
+      <c r="F2837">
+        <v>10</v>
+      </c>
+      <c r="G2837" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2838">
+        <v>-2</v>
+      </c>
+      <c r="B2838">
+        <v>1</v>
+      </c>
+      <c r="C2838">
+        <v>0</v>
+      </c>
+      <c r="D2838">
+        <v>2</v>
+      </c>
+      <c r="E2838">
+        <v>1</v>
+      </c>
+      <c r="F2838">
+        <v>10</v>
+      </c>
+      <c r="G2838" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2839">
+        <v>-2</v>
+      </c>
+      <c r="B2839">
+        <v>1</v>
+      </c>
+      <c r="C2839">
+        <v>0</v>
+      </c>
+      <c r="D2839">
+        <v>0</v>
+      </c>
+      <c r="E2839">
+        <v>1</v>
+      </c>
+      <c r="F2839">
+        <v>10</v>
+      </c>
+      <c r="G2839" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2840">
+        <v>0</v>
+      </c>
+      <c r="B2840">
+        <v>1</v>
+      </c>
+      <c r="C2840">
+        <v>0</v>
+      </c>
+      <c r="D2840">
+        <v>2</v>
+      </c>
+      <c r="E2840">
+        <v>1</v>
+      </c>
+      <c r="F2840">
+        <v>10</v>
+      </c>
+      <c r="G2840" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2841">
+        <v>2</v>
+      </c>
+      <c r="B2841">
+        <v>1</v>
+      </c>
+      <c r="C2841">
+        <v>0</v>
+      </c>
+      <c r="D2841">
+        <v>0</v>
+      </c>
+      <c r="E2841">
+        <v>1</v>
+      </c>
+      <c r="F2841">
+        <v>10</v>
+      </c>
+      <c r="G2841" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2842">
+        <v>0</v>
+      </c>
+      <c r="B2842">
+        <v>1</v>
+      </c>
+      <c r="C2842">
+        <v>0</v>
+      </c>
+      <c r="D2842">
+        <v>-2</v>
+      </c>
+      <c r="E2842">
+        <v>1</v>
+      </c>
+      <c r="F2842">
+        <v>10</v>
+      </c>
+      <c r="G2842" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2843">
+        <v>-2</v>
+      </c>
+      <c r="B2843">
+        <v>1</v>
+      </c>
+      <c r="C2843">
+        <v>0</v>
+      </c>
+      <c r="D2843">
+        <v>0</v>
+      </c>
+      <c r="E2843">
+        <v>1</v>
+      </c>
+      <c r="F2843">
+        <v>10</v>
+      </c>
+      <c r="G2843" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2844">
+        <v>0</v>
+      </c>
+      <c r="B2844">
+        <v>1</v>
+      </c>
+      <c r="C2844">
+        <v>0</v>
+      </c>
+      <c r="D2844">
+        <v>-2</v>
+      </c>
+      <c r="E2844">
+        <v>1</v>
+      </c>
+      <c r="F2844">
+        <v>10</v>
+      </c>
+      <c r="G2844" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2845">
+        <v>0</v>
+      </c>
+      <c r="B2845">
+        <v>1</v>
+      </c>
+      <c r="C2845">
+        <v>0</v>
+      </c>
+      <c r="D2845">
+        <v>2</v>
+      </c>
+      <c r="E2845">
+        <v>1</v>
+      </c>
+      <c r="F2845">
+        <v>10</v>
+      </c>
+      <c r="G2845" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2846">
+        <v>2</v>
+      </c>
+      <c r="B2846">
+        <v>1</v>
+      </c>
+      <c r="C2846">
+        <v>0</v>
+      </c>
+      <c r="D2846">
+        <v>2</v>
+      </c>
+      <c r="E2846">
+        <v>1</v>
+      </c>
+      <c r="F2846">
+        <v>10</v>
+      </c>
+      <c r="G2846" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2847">
+        <v>0</v>
+      </c>
+      <c r="B2847">
+        <v>1</v>
+      </c>
+      <c r="C2847">
+        <v>0</v>
+      </c>
+      <c r="D2847">
+        <v>0</v>
+      </c>
+      <c r="E2847">
+        <v>1</v>
+      </c>
+      <c r="F2847">
+        <v>10</v>
+      </c>
+      <c r="G2847" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2848">
+        <v>0</v>
+      </c>
+      <c r="B2848">
+        <v>1</v>
+      </c>
+      <c r="C2848">
+        <v>0</v>
+      </c>
+      <c r="D2848">
+        <v>2</v>
+      </c>
+      <c r="E2848">
+        <v>1</v>
+      </c>
+      <c r="F2848">
+        <v>10</v>
+      </c>
+      <c r="G2848" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2849">
+        <v>2</v>
+      </c>
+      <c r="B2849">
+        <v>1</v>
+      </c>
+      <c r="C2849">
+        <v>0</v>
+      </c>
+      <c r="D2849">
+        <v>2</v>
+      </c>
+      <c r="E2849">
+        <v>1</v>
+      </c>
+      <c r="F2849">
+        <v>10</v>
+      </c>
+      <c r="G2849" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2850">
+        <v>0</v>
+      </c>
+      <c r="B2850">
+        <v>1</v>
+      </c>
+      <c r="C2850">
+        <v>0</v>
+      </c>
+      <c r="D2850">
+        <v>0</v>
+      </c>
+      <c r="E2850">
+        <v>1</v>
+      </c>
+      <c r="F2850">
+        <v>10</v>
+      </c>
+      <c r="G2850" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2851">
+        <v>2</v>
+      </c>
+      <c r="B2851">
+        <v>1</v>
+      </c>
+      <c r="C2851">
+        <v>0</v>
+      </c>
+      <c r="D2851">
+        <v>2</v>
+      </c>
+      <c r="E2851">
+        <v>1</v>
+      </c>
+      <c r="F2851">
+        <v>10</v>
+      </c>
+      <c r="G2851" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2852">
+        <v>0</v>
+      </c>
+      <c r="B2852">
+        <v>1</v>
+      </c>
+      <c r="C2852">
+        <v>0</v>
+      </c>
+      <c r="D2852">
+        <v>0</v>
+      </c>
+      <c r="E2852">
+        <v>1</v>
+      </c>
+      <c r="F2852">
+        <v>10</v>
+      </c>
+      <c r="G2852" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2853">
+        <v>0</v>
+      </c>
+      <c r="B2853">
+        <v>1</v>
+      </c>
+      <c r="C2853">
+        <v>0</v>
+      </c>
+      <c r="D2853">
+        <v>0</v>
+      </c>
+      <c r="E2853">
+        <v>1</v>
+      </c>
+      <c r="F2853">
+        <v>10</v>
+      </c>
+      <c r="G2853" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2854">
+        <v>-2</v>
+      </c>
+      <c r="B2854">
+        <v>1</v>
+      </c>
+      <c r="C2854">
+        <v>0</v>
+      </c>
+      <c r="D2854">
+        <v>-2</v>
+      </c>
+      <c r="E2854">
+        <v>1</v>
+      </c>
+      <c r="F2854">
+        <v>10</v>
+      </c>
+      <c r="G2854" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2855">
+        <v>0</v>
+      </c>
+      <c r="B2855">
+        <v>1</v>
+      </c>
+      <c r="C2855">
+        <v>0</v>
+      </c>
+      <c r="D2855">
+        <v>0</v>
+      </c>
+      <c r="E2855">
+        <v>1</v>
+      </c>
+      <c r="F2855">
+        <v>10</v>
+      </c>
+      <c r="G2855" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2856">
+        <v>0</v>
+      </c>
+      <c r="B2856">
+        <v>1</v>
+      </c>
+      <c r="C2856">
+        <v>0</v>
+      </c>
+      <c r="D2856">
+        <v>0</v>
+      </c>
+      <c r="E2856">
+        <v>1</v>
+      </c>
+      <c r="F2856">
+        <v>10</v>
+      </c>
+      <c r="G2856" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2857">
+        <v>0</v>
+      </c>
+      <c r="B2857">
+        <v>1</v>
+      </c>
+      <c r="C2857">
+        <v>0</v>
+      </c>
+      <c r="D2857">
+        <v>2</v>
+      </c>
+      <c r="E2857">
+        <v>1</v>
+      </c>
+      <c r="F2857">
+        <v>10</v>
+      </c>
+      <c r="G2857" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2858">
+        <v>2</v>
+      </c>
+      <c r="B2858">
+        <v>1</v>
+      </c>
+      <c r="C2858">
+        <v>0</v>
+      </c>
+      <c r="D2858">
+        <v>2</v>
+      </c>
+      <c r="E2858">
+        <v>1</v>
+      </c>
+      <c r="F2858">
+        <v>10</v>
+      </c>
+      <c r="G2858" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2859">
+        <v>2</v>
+      </c>
+      <c r="B2859">
+        <v>1</v>
+      </c>
+      <c r="C2859">
+        <v>0</v>
+      </c>
+      <c r="D2859">
+        <v>0</v>
+      </c>
+      <c r="E2859">
+        <v>1</v>
+      </c>
+      <c r="F2859">
+        <v>10</v>
+      </c>
+      <c r="G2859" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2860">
+        <v>0</v>
+      </c>
+      <c r="B2860">
+        <v>1</v>
+      </c>
+      <c r="C2860">
+        <v>0</v>
+      </c>
+      <c r="D2860">
+        <v>-2</v>
+      </c>
+      <c r="E2860">
+        <v>1</v>
+      </c>
+      <c r="F2860">
+        <v>10</v>
+      </c>
+      <c r="G2860" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2861">
+        <v>-2</v>
+      </c>
+      <c r="B2861">
+        <v>1</v>
+      </c>
+      <c r="C2861">
+        <v>0</v>
+      </c>
+      <c r="D2861">
+        <v>0</v>
+      </c>
+      <c r="E2861">
+        <v>1</v>
+      </c>
+      <c r="F2861">
+        <v>10</v>
+      </c>
+      <c r="G2861" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2862">
+        <v>0</v>
+      </c>
+      <c r="B2862">
+        <v>1</v>
+      </c>
+      <c r="C2862">
+        <v>0</v>
+      </c>
+      <c r="D2862">
+        <v>0</v>
+      </c>
+      <c r="E2862">
+        <v>1</v>
+      </c>
+      <c r="F2862">
+        <v>10</v>
+      </c>
+      <c r="G2862" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2863">
+        <v>0</v>
+      </c>
+      <c r="B2863">
+        <v>1</v>
+      </c>
+      <c r="C2863">
+        <v>0</v>
+      </c>
+      <c r="D2863">
+        <v>-2</v>
+      </c>
+      <c r="E2863">
+        <v>1</v>
+      </c>
+      <c r="F2863">
+        <v>10</v>
+      </c>
+      <c r="G2863" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2864">
+        <v>-2</v>
+      </c>
+      <c r="B2864">
+        <v>1</v>
+      </c>
+      <c r="C2864">
+        <v>0</v>
+      </c>
+      <c r="D2864">
+        <v>-2</v>
+      </c>
+      <c r="E2864">
+        <v>1</v>
+      </c>
+      <c r="F2864">
+        <v>10</v>
+      </c>
+      <c r="G2864" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2865">
+        <v>-2</v>
+      </c>
+      <c r="B2865">
+        <v>1</v>
+      </c>
+      <c r="C2865">
+        <v>0</v>
+      </c>
+      <c r="D2865">
+        <v>0</v>
+      </c>
+      <c r="E2865">
+        <v>1</v>
+      </c>
+      <c r="F2865">
+        <v>10</v>
+      </c>
+      <c r="G2865" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2866">
+        <v>0</v>
+      </c>
+      <c r="B2866">
+        <v>1</v>
+      </c>
+      <c r="C2866">
+        <v>0</v>
+      </c>
+      <c r="D2866">
+        <v>0</v>
+      </c>
+      <c r="E2866">
+        <v>1</v>
+      </c>
+      <c r="F2866">
+        <v>10</v>
+      </c>
+      <c r="G2866" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2867">
+        <v>0</v>
+      </c>
+      <c r="B2867">
+        <v>1</v>
+      </c>
+      <c r="C2867">
+        <v>0</v>
+      </c>
+      <c r="D2867">
+        <v>0</v>
+      </c>
+      <c r="E2867">
+        <v>1</v>
+      </c>
+      <c r="F2867">
+        <v>10</v>
+      </c>
+      <c r="G2867" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2868">
+        <v>0</v>
+      </c>
+      <c r="B2868">
+        <v>1</v>
+      </c>
+      <c r="C2868">
+        <v>0</v>
+      </c>
+      <c r="D2868">
+        <v>2</v>
+      </c>
+      <c r="E2868">
+        <v>1</v>
+      </c>
+      <c r="F2868">
+        <v>10</v>
+      </c>
+      <c r="G2868" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2869">
+        <v>2</v>
+      </c>
+      <c r="B2869">
+        <v>1</v>
+      </c>
+      <c r="C2869">
+        <v>0</v>
+      </c>
+      <c r="D2869">
+        <v>2</v>
+      </c>
+      <c r="E2869">
+        <v>1</v>
+      </c>
+      <c r="F2869">
+        <v>10</v>
+      </c>
+      <c r="G2869" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2870">
+        <v>2</v>
+      </c>
+      <c r="B2870">
+        <v>1</v>
+      </c>
+      <c r="C2870">
+        <v>0</v>
+      </c>
+      <c r="D2870">
+        <v>0</v>
+      </c>
+      <c r="E2870">
+        <v>1</v>
+      </c>
+      <c r="F2870">
+        <v>10</v>
+      </c>
+      <c r="G2870" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2871">
+        <v>0</v>
+      </c>
+      <c r="B2871">
+        <v>1</v>
+      </c>
+      <c r="C2871">
+        <v>0</v>
+      </c>
+      <c r="D2871">
+        <v>0</v>
+      </c>
+      <c r="E2871">
+        <v>1</v>
+      </c>
+      <c r="F2871">
+        <v>10</v>
+      </c>
+      <c r="G2871" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2872">
+        <v>0</v>
+      </c>
+      <c r="B2872">
+        <v>1</v>
+      </c>
+      <c r="C2872">
+        <v>0</v>
+      </c>
+      <c r="D2872">
+        <v>0</v>
+      </c>
+      <c r="E2872">
+        <v>1</v>
+      </c>
+      <c r="F2872">
+        <v>10</v>
+      </c>
+      <c r="G2872" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2873">
+        <v>0</v>
+      </c>
+      <c r="B2873">
+        <v>1</v>
+      </c>
+      <c r="C2873">
+        <v>0</v>
+      </c>
+      <c r="D2873">
+        <v>2</v>
+      </c>
+      <c r="E2873">
+        <v>1</v>
+      </c>
+      <c r="F2873">
+        <v>10</v>
+      </c>
+      <c r="G2873" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2874">
+        <v>2</v>
+      </c>
+      <c r="B2874">
+        <v>1</v>
+      </c>
+      <c r="C2874">
+        <v>0</v>
+      </c>
+      <c r="D2874">
+        <v>0</v>
+      </c>
+      <c r="E2874">
+        <v>1</v>
+      </c>
+      <c r="F2874">
+        <v>10</v>
+      </c>
+      <c r="G2874" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2875">
+        <v>0</v>
+      </c>
+      <c r="B2875">
+        <v>1</v>
+      </c>
+      <c r="C2875">
+        <v>0</v>
+      </c>
+      <c r="D2875">
+        <v>0</v>
+      </c>
+      <c r="E2875">
+        <v>1</v>
+      </c>
+      <c r="F2875">
+        <v>10</v>
+      </c>
+      <c r="G2875" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2876">
+        <v>0</v>
+      </c>
+      <c r="B2876">
+        <v>1</v>
+      </c>
+      <c r="C2876">
+        <v>0</v>
+      </c>
+      <c r="D2876">
+        <v>2</v>
+      </c>
+      <c r="E2876">
+        <v>1</v>
+      </c>
+      <c r="F2876">
+        <v>10</v>
+      </c>
+      <c r="G2876" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2877">
+        <v>2</v>
+      </c>
+      <c r="B2877">
+        <v>1</v>
+      </c>
+      <c r="C2877">
+        <v>0</v>
+      </c>
+      <c r="D2877">
+        <v>0</v>
+      </c>
+      <c r="E2877">
+        <v>1</v>
+      </c>
+      <c r="F2877">
+        <v>10</v>
+      </c>
+      <c r="G2877" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2878">
+        <v>0</v>
+      </c>
+      <c r="B2878">
+        <v>1</v>
+      </c>
+      <c r="C2878">
+        <v>0</v>
+      </c>
+      <c r="D2878">
+        <v>-2</v>
+      </c>
+      <c r="E2878">
+        <v>1</v>
+      </c>
+      <c r="F2878">
+        <v>10</v>
+      </c>
+      <c r="G2878" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2879">
+        <v>-2</v>
+      </c>
+      <c r="B2879">
+        <v>1</v>
+      </c>
+      <c r="C2879">
+        <v>0</v>
+      </c>
+      <c r="D2879">
+        <v>0</v>
+      </c>
+      <c r="E2879">
+        <v>1</v>
+      </c>
+      <c r="F2879">
+        <v>10</v>
+      </c>
+      <c r="G2879" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2880">
+        <v>0</v>
+      </c>
+      <c r="B2880">
+        <v>1</v>
+      </c>
+      <c r="C2880">
+        <v>0</v>
+      </c>
+      <c r="D2880">
+        <v>2</v>
+      </c>
+      <c r="E2880">
+        <v>1</v>
+      </c>
+      <c r="F2880">
+        <v>10</v>
+      </c>
+      <c r="G2880" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2881">
+        <v>2</v>
+      </c>
+      <c r="B2881">
+        <v>1</v>
+      </c>
+      <c r="C2881">
+        <v>0</v>
+      </c>
+      <c r="D2881">
+        <v>0</v>
+      </c>
+      <c r="E2881">
+        <v>1</v>
+      </c>
+      <c r="F2881">
+        <v>10</v>
+      </c>
+      <c r="G2881" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2882">
+        <v>0</v>
+      </c>
+      <c r="B2882">
+        <v>1</v>
+      </c>
+      <c r="C2882">
+        <v>0</v>
+      </c>
+      <c r="D2882">
+        <v>0</v>
+      </c>
+      <c r="E2882">
+        <v>1</v>
+      </c>
+      <c r="F2882">
+        <v>10</v>
+      </c>
+      <c r="G2882" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2883">
+        <v>0</v>
+      </c>
+      <c r="B2883">
+        <v>1</v>
+      </c>
+      <c r="C2883">
+        <v>0</v>
+      </c>
+      <c r="D2883">
+        <v>2</v>
+      </c>
+      <c r="E2883">
+        <v>1</v>
+      </c>
+      <c r="F2883">
+        <v>10</v>
+      </c>
+      <c r="G2883" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2884">
+        <v>2</v>
+      </c>
+      <c r="B2884">
+        <v>1</v>
+      </c>
+      <c r="C2884">
+        <v>0</v>
+      </c>
+      <c r="D2884">
+        <v>2</v>
+      </c>
+      <c r="E2884">
+        <v>1</v>
+      </c>
+      <c r="F2884">
+        <v>10</v>
+      </c>
+      <c r="G2884" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2885">
+        <v>2</v>
+      </c>
+      <c r="B2885">
+        <v>1</v>
+      </c>
+      <c r="C2885">
+        <v>0</v>
+      </c>
+      <c r="D2885">
+        <v>0</v>
+      </c>
+      <c r="E2885">
+        <v>1</v>
+      </c>
+      <c r="F2885">
+        <v>10</v>
+      </c>
+      <c r="G2885" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2886">
+        <v>2</v>
+      </c>
+      <c r="B2886">
+        <v>1</v>
+      </c>
+      <c r="C2886">
+        <v>0</v>
+      </c>
+      <c r="D2886">
+        <v>-2</v>
+      </c>
+      <c r="E2886">
+        <v>1</v>
+      </c>
+      <c r="F2886">
+        <v>10</v>
+      </c>
+      <c r="G2886" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2887">
+        <v>2</v>
+      </c>
+      <c r="B2887">
+        <v>1</v>
+      </c>
+      <c r="C2887">
+        <v>0</v>
+      </c>
+      <c r="D2887">
+        <v>0</v>
+      </c>
+      <c r="E2887">
+        <v>1</v>
+      </c>
+      <c r="F2887">
+        <v>10</v>
+      </c>
+      <c r="G2887" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2888">
+        <v>0</v>
+      </c>
+      <c r="B2888">
+        <v>1</v>
+      </c>
+      <c r="C2888">
+        <v>0</v>
+      </c>
+      <c r="D2888">
+        <v>0</v>
+      </c>
+      <c r="E2888">
+        <v>1</v>
+      </c>
+      <c r="F2888">
+        <v>10</v>
+      </c>
+      <c r="G2888" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2889">
+        <v>0</v>
+      </c>
+      <c r="B2889">
+        <v>1</v>
+      </c>
+      <c r="C2889">
+        <v>0</v>
+      </c>
+      <c r="D2889">
+        <v>-2</v>
+      </c>
+      <c r="E2889">
+        <v>1</v>
+      </c>
+      <c r="F2889">
+        <v>10</v>
+      </c>
+      <c r="G2889" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2890">
+        <v>-2</v>
+      </c>
+      <c r="B2890">
+        <v>1</v>
+      </c>
+      <c r="C2890">
+        <v>0</v>
+      </c>
+      <c r="D2890">
+        <v>0</v>
+      </c>
+      <c r="E2890">
+        <v>1</v>
+      </c>
+      <c r="F2890">
+        <v>10</v>
+      </c>
+      <c r="G2890" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2891">
+        <v>0</v>
+      </c>
+      <c r="B2891">
+        <v>1</v>
+      </c>
+      <c r="C2891">
+        <v>0</v>
+      </c>
+      <c r="D2891">
+        <v>2</v>
+      </c>
+      <c r="E2891">
+        <v>1</v>
+      </c>
+      <c r="F2891">
+        <v>10</v>
+      </c>
+      <c r="G2891" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2892">
+        <v>2</v>
+      </c>
+      <c r="B2892">
+        <v>1</v>
+      </c>
+      <c r="C2892">
+        <v>0</v>
+      </c>
+      <c r="D2892">
+        <v>0</v>
+      </c>
+      <c r="E2892">
+        <v>1</v>
+      </c>
+      <c r="F2892">
+        <v>10</v>
+      </c>
+      <c r="G2892" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2893">
+        <v>0</v>
+      </c>
+      <c r="B2893">
+        <v>1</v>
+      </c>
+      <c r="C2893">
+        <v>0</v>
+      </c>
+      <c r="D2893">
+        <v>2</v>
+      </c>
+      <c r="E2893">
+        <v>1</v>
+      </c>
+      <c r="F2893">
+        <v>10</v>
+      </c>
+      <c r="G2893" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2894">
+        <v>2</v>
+      </c>
+      <c r="B2894">
+        <v>1</v>
+      </c>
+      <c r="C2894">
+        <v>0</v>
+      </c>
+      <c r="D2894">
+        <v>2</v>
+      </c>
+      <c r="E2894">
+        <v>1</v>
+      </c>
+      <c r="F2894">
+        <v>10</v>
+      </c>
+      <c r="G2894" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2895">
+        <v>2</v>
+      </c>
+      <c r="B2895">
+        <v>1</v>
+      </c>
+      <c r="C2895">
+        <v>0</v>
+      </c>
+      <c r="D2895">
+        <v>0</v>
+      </c>
+      <c r="E2895">
+        <v>1</v>
+      </c>
+      <c r="F2895">
+        <v>10</v>
+      </c>
+      <c r="G2895" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2896">
+        <v>0</v>
+      </c>
+      <c r="B2896">
+        <v>1</v>
+      </c>
+      <c r="C2896">
+        <v>0</v>
+      </c>
+      <c r="D2896">
+        <v>0</v>
+      </c>
+      <c r="E2896">
+        <v>1</v>
+      </c>
+      <c r="F2896">
+        <v>10</v>
+      </c>
+      <c r="G2896" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2897">
+        <v>0</v>
+      </c>
+      <c r="B2897">
+        <v>1</v>
+      </c>
+      <c r="C2897">
+        <v>0</v>
+      </c>
+      <c r="D2897">
+        <v>-2</v>
+      </c>
+      <c r="E2897">
+        <v>1</v>
+      </c>
+      <c r="F2897">
+        <v>10</v>
+      </c>
+      <c r="G2897" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2898">
+        <v>-2</v>
+      </c>
+      <c r="B2898">
+        <v>1</v>
+      </c>
+      <c r="C2898">
+        <v>0</v>
+      </c>
+      <c r="D2898">
+        <v>0</v>
+      </c>
+      <c r="E2898">
+        <v>1</v>
+      </c>
+      <c r="F2898">
+        <v>10</v>
+      </c>
+      <c r="G2898" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2899">
+        <v>0</v>
+      </c>
+      <c r="B2899">
+        <v>1</v>
+      </c>
+      <c r="C2899">
+        <v>0</v>
+      </c>
+      <c r="D2899">
+        <v>-2</v>
+      </c>
+      <c r="E2899">
+        <v>1</v>
+      </c>
+      <c r="F2899">
+        <v>10</v>
+      </c>
+      <c r="G2899" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2900">
+        <v>-2</v>
+      </c>
+      <c r="B2900">
+        <v>1</v>
+      </c>
+      <c r="C2900">
+        <v>0</v>
+      </c>
+      <c r="D2900">
+        <v>0</v>
+      </c>
+      <c r="E2900">
+        <v>1</v>
+      </c>
+      <c r="F2900">
+        <v>10</v>
+      </c>
+      <c r="G2900" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2901">
+        <v>0</v>
+      </c>
+      <c r="B2901">
+        <v>1</v>
+      </c>
+      <c r="C2901">
+        <v>0</v>
+      </c>
+      <c r="D2901">
+        <v>0</v>
+      </c>
+      <c r="E2901">
+        <v>1</v>
+      </c>
+      <c r="F2901">
+        <v>10</v>
+      </c>
+      <c r="G2901" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2902">
+        <v>0</v>
+      </c>
+      <c r="B2902">
+        <v>1</v>
+      </c>
+      <c r="C2902">
+        <v>0</v>
+      </c>
+      <c r="D2902">
+        <v>2</v>
+      </c>
+      <c r="E2902">
+        <v>1</v>
+      </c>
+      <c r="F2902">
+        <v>10</v>
+      </c>
+      <c r="G2902" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2903">
+        <v>2</v>
+      </c>
+      <c r="B2903">
+        <v>1</v>
+      </c>
+      <c r="C2903">
+        <v>0</v>
+      </c>
+      <c r="D2903">
+        <v>2</v>
+      </c>
+      <c r="E2903">
+        <v>1</v>
+      </c>
+      <c r="F2903">
+        <v>10</v>
+      </c>
+      <c r="G2903" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2904">
+        <v>2</v>
+      </c>
+      <c r="B2904">
+        <v>1</v>
+      </c>
+      <c r="C2904">
+        <v>0</v>
+      </c>
+      <c r="D2904">
+        <v>0</v>
+      </c>
+      <c r="E2904">
+        <v>1</v>
+      </c>
+      <c r="F2904">
+        <v>10</v>
+      </c>
+      <c r="G2904" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2905">
+        <v>0</v>
+      </c>
+      <c r="B2905">
+        <v>1</v>
+      </c>
+      <c r="C2905">
+        <v>0</v>
+      </c>
+      <c r="D2905">
+        <v>-2</v>
+      </c>
+      <c r="E2905">
+        <v>1</v>
+      </c>
+      <c r="F2905">
+        <v>10</v>
+      </c>
+      <c r="G2905" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2906">
+        <v>-2</v>
+      </c>
+      <c r="B2906">
+        <v>1</v>
+      </c>
+      <c r="C2906">
+        <v>0</v>
+      </c>
+      <c r="D2906">
+        <v>-2</v>
+      </c>
+      <c r="E2906">
+        <v>1</v>
+      </c>
+      <c r="F2906">
+        <v>10</v>
+      </c>
+      <c r="G2906" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2907">
+        <v>-2</v>
+      </c>
+      <c r="B2907">
+        <v>1</v>
+      </c>
+      <c r="C2907">
+        <v>0</v>
+      </c>
+      <c r="D2907">
+        <v>0</v>
+      </c>
+      <c r="E2907">
+        <v>1</v>
+      </c>
+      <c r="F2907">
+        <v>10</v>
+      </c>
+      <c r="G2907" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2908">
+        <v>2</v>
+      </c>
+      <c r="B2908">
+        <v>1</v>
+      </c>
+      <c r="C2908">
+        <v>0</v>
+      </c>
+      <c r="D2908">
+        <v>0</v>
+      </c>
+      <c r="E2908">
+        <v>1</v>
+      </c>
+      <c r="F2908">
+        <v>10</v>
+      </c>
+      <c r="G2908" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2909">
+        <v>2</v>
+      </c>
+      <c r="B2909">
+        <v>1</v>
+      </c>
+      <c r="C2909">
+        <v>0</v>
+      </c>
+      <c r="D2909">
+        <v>0</v>
+      </c>
+      <c r="E2909">
+        <v>1</v>
+      </c>
+      <c r="F2909">
+        <v>10</v>
+      </c>
+      <c r="G2909" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2910">
+        <v>0</v>
+      </c>
+      <c r="B2910">
+        <v>1</v>
+      </c>
+      <c r="C2910">
+        <v>0</v>
+      </c>
+      <c r="D2910">
+        <v>0</v>
+      </c>
+      <c r="E2910">
+        <v>1</v>
+      </c>
+      <c r="F2910">
+        <v>10</v>
+      </c>
+      <c r="G2910" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2911">
+        <v>0</v>
+      </c>
+      <c r="B2911">
+        <v>1</v>
+      </c>
+      <c r="C2911">
+        <v>0</v>
+      </c>
+      <c r="D2911">
+        <v>2</v>
+      </c>
+      <c r="E2911">
+        <v>1</v>
+      </c>
+      <c r="F2911">
+        <v>10</v>
+      </c>
+      <c r="G2911" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2912">
+        <v>2</v>
+      </c>
+      <c r="B2912">
+        <v>1</v>
+      </c>
+      <c r="C2912">
+        <v>0</v>
+      </c>
+      <c r="D2912">
+        <v>0</v>
+      </c>
+      <c r="E2912">
+        <v>1</v>
+      </c>
+      <c r="F2912">
+        <v>10</v>
+      </c>
+      <c r="G2912" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2913">
+        <v>0</v>
+      </c>
+      <c r="B2913">
+        <v>1</v>
+      </c>
+      <c r="C2913">
+        <v>0</v>
+      </c>
+      <c r="D2913">
+        <v>-2</v>
+      </c>
+      <c r="E2913">
+        <v>1</v>
+      </c>
+      <c r="F2913">
+        <v>10</v>
+      </c>
+      <c r="G2913" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2914">
+        <v>-2</v>
+      </c>
+      <c r="B2914">
+        <v>1</v>
+      </c>
+      <c r="C2914">
+        <v>0</v>
+      </c>
+      <c r="D2914">
+        <v>0</v>
+      </c>
+      <c r="E2914">
+        <v>1</v>
+      </c>
+      <c r="F2914">
+        <v>10</v>
+      </c>
+      <c r="G2914" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2915">
+        <v>0</v>
+      </c>
+      <c r="B2915">
+        <v>1</v>
+      </c>
+      <c r="C2915">
+        <v>0</v>
+      </c>
+      <c r="D2915">
+        <v>2</v>
+      </c>
+      <c r="E2915">
+        <v>1</v>
+      </c>
+      <c r="F2915">
+        <v>10</v>
+      </c>
+      <c r="G2915" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2916">
+        <v>2</v>
+      </c>
+      <c r="B2916">
+        <v>1</v>
+      </c>
+      <c r="C2916">
+        <v>0</v>
+      </c>
+      <c r="D2916">
+        <v>0</v>
+      </c>
+      <c r="E2916">
+        <v>1</v>
+      </c>
+      <c r="F2916">
+        <v>10</v>
+      </c>
+      <c r="G2916" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2917">
+        <v>0</v>
+      </c>
+      <c r="B2917">
+        <v>1</v>
+      </c>
+      <c r="C2917">
+        <v>0</v>
+      </c>
+      <c r="D2917">
+        <v>-2</v>
+      </c>
+      <c r="E2917">
+        <v>1</v>
+      </c>
+      <c r="F2917">
+        <v>10</v>
+      </c>
+      <c r="G2917" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2918">
+        <v>-2</v>
+      </c>
+      <c r="B2918">
+        <v>1</v>
+      </c>
+      <c r="C2918">
+        <v>0</v>
+      </c>
+      <c r="D2918">
+        <v>0</v>
+      </c>
+      <c r="E2918">
+        <v>1</v>
+      </c>
+      <c r="F2918">
+        <v>10</v>
+      </c>
+      <c r="G2918" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2919">
+        <v>0</v>
+      </c>
+      <c r="B2919">
+        <v>1</v>
+      </c>
+      <c r="C2919">
+        <v>0</v>
+      </c>
+      <c r="D2919">
+        <v>2</v>
+      </c>
+      <c r="E2919">
+        <v>1</v>
+      </c>
+      <c r="F2919">
+        <v>10</v>
+      </c>
+      <c r="G2919" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2920">
+        <v>2</v>
+      </c>
+      <c r="B2920">
+        <v>1</v>
+      </c>
+      <c r="C2920">
+        <v>0</v>
+      </c>
+      <c r="D2920">
+        <v>0</v>
+      </c>
+      <c r="E2920">
+        <v>1</v>
+      </c>
+      <c r="F2920">
+        <v>10</v>
+      </c>
+      <c r="G2920" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2921">
+        <v>0</v>
+      </c>
+      <c r="B2921">
+        <v>1</v>
+      </c>
+      <c r="C2921">
+        <v>0</v>
+      </c>
+      <c r="D2921">
+        <v>-2</v>
+      </c>
+      <c r="E2921">
+        <v>1</v>
+      </c>
+      <c r="F2921">
+        <v>10</v>
+      </c>
+      <c r="G2921" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2922">
+        <v>-2</v>
+      </c>
+      <c r="B2922">
+        <v>1</v>
+      </c>
+      <c r="C2922">
+        <v>0</v>
+      </c>
+      <c r="D2922">
+        <v>0</v>
+      </c>
+      <c r="E2922">
+        <v>1</v>
+      </c>
+      <c r="F2922">
+        <v>10</v>
+      </c>
+      <c r="G2922" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2923">
+        <v>0</v>
+      </c>
+      <c r="B2923">
+        <v>1</v>
+      </c>
+      <c r="C2923">
+        <v>0</v>
+      </c>
+      <c r="D2923">
+        <v>2</v>
+      </c>
+      <c r="E2923">
+        <v>1</v>
+      </c>
+      <c r="F2923">
+        <v>10</v>
+      </c>
+      <c r="G2923" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2924">
+        <v>2</v>
+      </c>
+      <c r="B2924">
+        <v>1</v>
+      </c>
+      <c r="C2924">
+        <v>0</v>
+      </c>
+      <c r="D2924">
+        <v>0</v>
+      </c>
+      <c r="E2924">
+        <v>1</v>
+      </c>
+      <c r="F2924">
+        <v>10</v>
+      </c>
+      <c r="G2924" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2925">
+        <v>0</v>
+      </c>
+      <c r="B2925">
+        <v>1</v>
+      </c>
+      <c r="C2925">
+        <v>0</v>
+      </c>
+      <c r="D2925">
+        <v>-2</v>
+      </c>
+      <c r="E2925">
+        <v>1</v>
+      </c>
+      <c r="F2925">
+        <v>10</v>
+      </c>
+      <c r="G2925" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2926">
+        <v>-2</v>
+      </c>
+      <c r="B2926">
+        <v>1</v>
+      </c>
+      <c r="C2926">
+        <v>0</v>
+      </c>
+      <c r="D2926">
+        <v>0</v>
+      </c>
+      <c r="E2926">
+        <v>1</v>
+      </c>
+      <c r="F2926">
+        <v>10</v>
+      </c>
+      <c r="G2926" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2927">
+        <v>0</v>
+      </c>
+      <c r="B2927">
+        <v>1</v>
+      </c>
+      <c r="C2927">
+        <v>0</v>
+      </c>
+      <c r="D2927">
+        <v>2</v>
+      </c>
+      <c r="E2927">
+        <v>1</v>
+      </c>
+      <c r="F2927">
+        <v>10</v>
+      </c>
+      <c r="G2927" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2928">
+        <v>2</v>
+      </c>
+      <c r="B2928">
+        <v>1</v>
+      </c>
+      <c r="C2928">
+        <v>0</v>
+      </c>
+      <c r="D2928">
+        <v>0</v>
+      </c>
+      <c r="E2928">
+        <v>1</v>
+      </c>
+      <c r="F2928">
+        <v>10</v>
+      </c>
+      <c r="G2928" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2929">
+        <v>0</v>
+      </c>
+      <c r="B2929">
+        <v>1</v>
+      </c>
+      <c r="C2929">
+        <v>0</v>
+      </c>
+      <c r="D2929">
+        <v>-2</v>
+      </c>
+      <c r="E2929">
+        <v>1</v>
+      </c>
+      <c r="F2929">
+        <v>10</v>
+      </c>
+      <c r="G2929" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2930">
+        <v>-2</v>
+      </c>
+      <c r="B2930">
+        <v>1</v>
+      </c>
+      <c r="C2930">
+        <v>0</v>
+      </c>
+      <c r="D2930">
+        <v>0</v>
+      </c>
+      <c r="E2930">
+        <v>1</v>
+      </c>
+      <c r="F2930">
+        <v>10</v>
+      </c>
+      <c r="G2930" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2931">
+        <v>0</v>
+      </c>
+      <c r="B2931">
+        <v>1</v>
+      </c>
+      <c r="C2931">
+        <v>0</v>
+      </c>
+      <c r="D2931">
+        <v>2</v>
+      </c>
+      <c r="E2931">
+        <v>1</v>
+      </c>
+      <c r="F2931">
+        <v>10</v>
+      </c>
+      <c r="G2931" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2932">
+        <v>2</v>
+      </c>
+      <c r="B2932">
+        <v>1</v>
+      </c>
+      <c r="C2932">
+        <v>0</v>
+      </c>
+      <c r="D2932">
+        <v>2</v>
+      </c>
+      <c r="E2932">
+        <v>1</v>
+      </c>
+      <c r="F2932">
+        <v>10</v>
+      </c>
+      <c r="G2932" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2933">
+        <v>2</v>
+      </c>
+      <c r="B2933">
+        <v>1</v>
+      </c>
+      <c r="C2933">
+        <v>0</v>
+      </c>
+      <c r="D2933">
+        <v>0</v>
+      </c>
+      <c r="E2933">
+        <v>1</v>
+      </c>
+      <c r="F2933">
+        <v>10</v>
+      </c>
+      <c r="G2933" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2934">
+        <v>0</v>
+      </c>
+      <c r="B2934">
+        <v>1</v>
+      </c>
+      <c r="C2934">
+        <v>0</v>
+      </c>
+      <c r="D2934">
+        <v>0</v>
+      </c>
+      <c r="E2934">
+        <v>1</v>
+      </c>
+      <c r="F2934">
+        <v>10</v>
+      </c>
+      <c r="G2934" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2935">
+        <v>0</v>
+      </c>
+      <c r="B2935">
+        <v>1</v>
+      </c>
+      <c r="C2935">
+        <v>0</v>
+      </c>
+      <c r="D2935">
+        <v>2</v>
+      </c>
+      <c r="E2935">
+        <v>1</v>
+      </c>
+      <c r="F2935">
+        <v>10</v>
+      </c>
+      <c r="G2935" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2936">
+        <v>2</v>
+      </c>
+      <c r="B2936">
+        <v>1</v>
+      </c>
+      <c r="C2936">
+        <v>0</v>
+      </c>
+      <c r="D2936">
+        <v>0</v>
+      </c>
+      <c r="E2936">
+        <v>1</v>
+      </c>
+      <c r="F2936">
+        <v>10</v>
+      </c>
+      <c r="G2936" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2937">
+        <v>0</v>
+      </c>
+      <c r="B2937">
+        <v>1</v>
+      </c>
+      <c r="C2937">
+        <v>0</v>
+      </c>
+      <c r="D2937">
+        <v>2</v>
+      </c>
+      <c r="E2937">
+        <v>1</v>
+      </c>
+      <c r="F2937">
+        <v>10</v>
+      </c>
+      <c r="G2937" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2938">
+        <v>2</v>
+      </c>
+      <c r="B2938">
+        <v>1</v>
+      </c>
+      <c r="C2938">
+        <v>0</v>
+      </c>
+      <c r="D2938">
+        <v>2</v>
+      </c>
+      <c r="E2938">
+        <v>1</v>
+      </c>
+      <c r="F2938">
+        <v>10</v>
+      </c>
+      <c r="G2938" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2939">
+        <v>2</v>
+      </c>
+      <c r="B2939">
+        <v>1</v>
+      </c>
+      <c r="C2939">
+        <v>0</v>
+      </c>
+      <c r="D2939">
+        <v>0</v>
+      </c>
+      <c r="E2939">
+        <v>1</v>
+      </c>
+      <c r="F2939">
+        <v>10</v>
+      </c>
+      <c r="G2939" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2940">
+        <v>0</v>
+      </c>
+      <c r="B2940">
+        <v>1</v>
+      </c>
+      <c r="C2940">
+        <v>0</v>
+      </c>
+      <c r="D2940">
+        <v>0</v>
+      </c>
+      <c r="E2940">
+        <v>1</v>
+      </c>
+      <c r="F2940">
+        <v>10</v>
+      </c>
+      <c r="G2940" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2941">
+        <v>0</v>
+      </c>
+      <c r="B2941">
+        <v>1</v>
+      </c>
+      <c r="C2941">
+        <v>0</v>
+      </c>
+      <c r="D2941">
+        <v>-2</v>
+      </c>
+      <c r="E2941">
+        <v>1</v>
+      </c>
+      <c r="F2941">
+        <v>10</v>
+      </c>
+      <c r="G2941" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2942">
+        <v>-2</v>
+      </c>
+      <c r="B2942">
+        <v>1</v>
+      </c>
+      <c r="C2942">
+        <v>0</v>
+      </c>
+      <c r="D2942">
+        <v>0</v>
+      </c>
+      <c r="E2942">
+        <v>1</v>
+      </c>
+      <c r="F2942">
+        <v>10</v>
+      </c>
+      <c r="G2942" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2943">
+        <v>0</v>
+      </c>
+      <c r="B2943">
+        <v>1</v>
+      </c>
+      <c r="C2943">
+        <v>0</v>
+      </c>
+      <c r="D2943">
+        <v>0</v>
+      </c>
+      <c r="E2943">
+        <v>1</v>
+      </c>
+      <c r="F2943">
+        <v>10</v>
+      </c>
+      <c r="G2943" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2944">
+        <v>0</v>
+      </c>
+      <c r="B2944">
+        <v>1</v>
+      </c>
+      <c r="C2944">
+        <v>0</v>
+      </c>
+      <c r="D2944">
+        <v>2</v>
+      </c>
+      <c r="E2944">
+        <v>1</v>
+      </c>
+      <c r="F2944">
+        <v>10</v>
+      </c>
+      <c r="G2944" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2945">
+        <v>2</v>
+      </c>
+      <c r="B2945">
+        <v>1</v>
+      </c>
+      <c r="C2945">
+        <v>0</v>
+      </c>
+      <c r="D2945">
+        <v>2</v>
+      </c>
+      <c r="E2945">
+        <v>1</v>
+      </c>
+      <c r="F2945">
+        <v>10</v>
+      </c>
+      <c r="G2945" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2946">
+        <v>2</v>
+      </c>
+      <c r="B2946">
+        <v>1</v>
+      </c>
+      <c r="C2946">
+        <v>0</v>
+      </c>
+      <c r="D2946">
+        <v>0</v>
+      </c>
+      <c r="E2946">
+        <v>1</v>
+      </c>
+      <c r="F2946">
+        <v>10</v>
+      </c>
+      <c r="G2946" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2947">
+        <v>0</v>
+      </c>
+      <c r="B2947">
+        <v>1</v>
+      </c>
+      <c r="C2947">
+        <v>0</v>
+      </c>
+      <c r="D2947">
+        <v>-2</v>
+      </c>
+      <c r="E2947">
+        <v>1</v>
+      </c>
+      <c r="F2947">
+        <v>10</v>
+      </c>
+      <c r="G2947" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2948">
+        <v>-2</v>
+      </c>
+      <c r="B2948">
+        <v>1</v>
+      </c>
+      <c r="C2948">
+        <v>0</v>
+      </c>
+      <c r="D2948">
+        <v>-2</v>
+      </c>
+      <c r="E2948">
+        <v>1</v>
+      </c>
+      <c r="F2948">
+        <v>10</v>
+      </c>
+      <c r="G2948" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2949">
+        <v>-2</v>
+      </c>
+      <c r="B2949">
+        <v>1</v>
+      </c>
+      <c r="C2949">
+        <v>0</v>
+      </c>
+      <c r="D2949">
+        <v>0</v>
+      </c>
+      <c r="E2949">
+        <v>1</v>
+      </c>
+      <c r="F2949">
+        <v>10</v>
+      </c>
+      <c r="G2949" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2950">
+        <v>0</v>
+      </c>
+      <c r="B2950">
+        <v>1</v>
+      </c>
+      <c r="C2950">
+        <v>0</v>
+      </c>
+      <c r="D2950">
+        <v>0</v>
+      </c>
+      <c r="E2950">
+        <v>1</v>
+      </c>
+      <c r="F2950">
+        <v>10</v>
+      </c>
+      <c r="G2950" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2951">
+        <v>0</v>
+      </c>
+      <c r="B2951">
+        <v>1</v>
+      </c>
+      <c r="C2951">
+        <v>0</v>
+      </c>
+      <c r="D2951">
+        <v>2</v>
+      </c>
+      <c r="E2951">
+        <v>1</v>
+      </c>
+      <c r="F2951">
+        <v>10</v>
+      </c>
+      <c r="G2951" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="10">
   <si>
     <t>x1</t>
   </si>
@@ -361,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2951"/>
+  <dimension ref="A1:G3003"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="G10" sqref="G10"/>
@@ -68219,6 +68219,1202 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2952" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2952">
+        <v>0</v>
+      </c>
+      <c r="B2952">
+        <v>1</v>
+      </c>
+      <c r="C2952">
+        <v>0</v>
+      </c>
+      <c r="D2952">
+        <v>0</v>
+      </c>
+      <c r="E2952">
+        <v>1</v>
+      </c>
+      <c r="F2952">
+        <v>10</v>
+      </c>
+      <c r="G2952" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2953">
+        <v>0</v>
+      </c>
+      <c r="B2953">
+        <v>1</v>
+      </c>
+      <c r="C2953">
+        <v>0</v>
+      </c>
+      <c r="D2953">
+        <v>-2</v>
+      </c>
+      <c r="E2953">
+        <v>1</v>
+      </c>
+      <c r="F2953">
+        <v>10</v>
+      </c>
+      <c r="G2953" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2954">
+        <v>0</v>
+      </c>
+      <c r="B2954">
+        <v>1</v>
+      </c>
+      <c r="C2954">
+        <v>0</v>
+      </c>
+      <c r="D2954">
+        <v>0</v>
+      </c>
+      <c r="E2954">
+        <v>1</v>
+      </c>
+      <c r="F2954">
+        <v>10</v>
+      </c>
+      <c r="G2954" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2955">
+        <v>0</v>
+      </c>
+      <c r="B2955">
+        <v>1</v>
+      </c>
+      <c r="C2955">
+        <v>0</v>
+      </c>
+      <c r="D2955">
+        <v>2</v>
+      </c>
+      <c r="E2955">
+        <v>1</v>
+      </c>
+      <c r="F2955">
+        <v>10</v>
+      </c>
+      <c r="G2955" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2956">
+        <v>2</v>
+      </c>
+      <c r="B2956">
+        <v>1</v>
+      </c>
+      <c r="C2956">
+        <v>0</v>
+      </c>
+      <c r="D2956">
+        <v>2</v>
+      </c>
+      <c r="E2956">
+        <v>1</v>
+      </c>
+      <c r="F2956">
+        <v>10</v>
+      </c>
+      <c r="G2956" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2957">
+        <v>2</v>
+      </c>
+      <c r="B2957">
+        <v>1</v>
+      </c>
+      <c r="C2957">
+        <v>0</v>
+      </c>
+      <c r="D2957">
+        <v>0</v>
+      </c>
+      <c r="E2957">
+        <v>1</v>
+      </c>
+      <c r="F2957">
+        <v>10</v>
+      </c>
+      <c r="G2957" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2958">
+        <v>0</v>
+      </c>
+      <c r="B2958">
+        <v>1</v>
+      </c>
+      <c r="C2958">
+        <v>0</v>
+      </c>
+      <c r="D2958">
+        <v>2</v>
+      </c>
+      <c r="E2958">
+        <v>1</v>
+      </c>
+      <c r="F2958">
+        <v>10</v>
+      </c>
+      <c r="G2958" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2959">
+        <v>2</v>
+      </c>
+      <c r="B2959">
+        <v>1</v>
+      </c>
+      <c r="C2959">
+        <v>0</v>
+      </c>
+      <c r="D2959">
+        <v>0</v>
+      </c>
+      <c r="E2959">
+        <v>1</v>
+      </c>
+      <c r="F2959">
+        <v>10</v>
+      </c>
+      <c r="G2959" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2960">
+        <v>0</v>
+      </c>
+      <c r="B2960">
+        <v>1</v>
+      </c>
+      <c r="C2960">
+        <v>0</v>
+      </c>
+      <c r="D2960">
+        <v>0</v>
+      </c>
+      <c r="E2960">
+        <v>1</v>
+      </c>
+      <c r="F2960">
+        <v>10</v>
+      </c>
+      <c r="G2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2961">
+        <v>0</v>
+      </c>
+      <c r="B2961">
+        <v>1</v>
+      </c>
+      <c r="C2961">
+        <v>0</v>
+      </c>
+      <c r="D2961">
+        <v>-2</v>
+      </c>
+      <c r="E2961">
+        <v>1</v>
+      </c>
+      <c r="F2961">
+        <v>10</v>
+      </c>
+      <c r="G2961" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2962">
+        <v>-2</v>
+      </c>
+      <c r="B2962">
+        <v>1</v>
+      </c>
+      <c r="C2962">
+        <v>0</v>
+      </c>
+      <c r="D2962">
+        <v>-2</v>
+      </c>
+      <c r="E2962">
+        <v>1</v>
+      </c>
+      <c r="F2962">
+        <v>10</v>
+      </c>
+      <c r="G2962" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2963">
+        <v>-2</v>
+      </c>
+      <c r="B2963">
+        <v>1</v>
+      </c>
+      <c r="C2963">
+        <v>0</v>
+      </c>
+      <c r="D2963">
+        <v>0</v>
+      </c>
+      <c r="E2963">
+        <v>1</v>
+      </c>
+      <c r="F2963">
+        <v>10</v>
+      </c>
+      <c r="G2963" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2964">
+        <v>0</v>
+      </c>
+      <c r="B2964">
+        <v>1</v>
+      </c>
+      <c r="C2964">
+        <v>0</v>
+      </c>
+      <c r="D2964">
+        <v>0</v>
+      </c>
+      <c r="E2964">
+        <v>1</v>
+      </c>
+      <c r="F2964">
+        <v>10</v>
+      </c>
+      <c r="G2964" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2965">
+        <v>0</v>
+      </c>
+      <c r="B2965">
+        <v>1</v>
+      </c>
+      <c r="C2965">
+        <v>0</v>
+      </c>
+      <c r="D2965">
+        <v>-2</v>
+      </c>
+      <c r="E2965">
+        <v>1</v>
+      </c>
+      <c r="F2965">
+        <v>10</v>
+      </c>
+      <c r="G2965" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2966">
+        <v>0</v>
+      </c>
+      <c r="B2966">
+        <v>1</v>
+      </c>
+      <c r="C2966">
+        <v>0</v>
+      </c>
+      <c r="D2966">
+        <v>0</v>
+      </c>
+      <c r="E2966">
+        <v>1</v>
+      </c>
+      <c r="F2966">
+        <v>10</v>
+      </c>
+      <c r="G2966" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2967">
+        <v>0</v>
+      </c>
+      <c r="B2967">
+        <v>1</v>
+      </c>
+      <c r="C2967">
+        <v>0</v>
+      </c>
+      <c r="D2967">
+        <v>2</v>
+      </c>
+      <c r="E2967">
+        <v>1</v>
+      </c>
+      <c r="F2967">
+        <v>10</v>
+      </c>
+      <c r="G2967" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2968">
+        <v>2</v>
+      </c>
+      <c r="B2968">
+        <v>1</v>
+      </c>
+      <c r="C2968">
+        <v>0</v>
+      </c>
+      <c r="D2968">
+        <v>0</v>
+      </c>
+      <c r="E2968">
+        <v>1</v>
+      </c>
+      <c r="F2968">
+        <v>10</v>
+      </c>
+      <c r="G2968" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2969">
+        <v>0</v>
+      </c>
+      <c r="B2969">
+        <v>1</v>
+      </c>
+      <c r="C2969">
+        <v>0</v>
+      </c>
+      <c r="D2969">
+        <v>0</v>
+      </c>
+      <c r="E2969">
+        <v>1</v>
+      </c>
+      <c r="F2969">
+        <v>10</v>
+      </c>
+      <c r="G2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2970">
+        <v>0</v>
+      </c>
+      <c r="B2970">
+        <v>1</v>
+      </c>
+      <c r="C2970">
+        <v>0</v>
+      </c>
+      <c r="D2970">
+        <v>2</v>
+      </c>
+      <c r="E2970">
+        <v>1</v>
+      </c>
+      <c r="F2970">
+        <v>10</v>
+      </c>
+      <c r="G2970" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2971">
+        <v>0</v>
+      </c>
+      <c r="B2971">
+        <v>1</v>
+      </c>
+      <c r="C2971">
+        <v>0</v>
+      </c>
+      <c r="D2971">
+        <v>0</v>
+      </c>
+      <c r="E2971">
+        <v>1</v>
+      </c>
+      <c r="F2971">
+        <v>10</v>
+      </c>
+      <c r="G2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2972">
+        <v>0</v>
+      </c>
+      <c r="B2972">
+        <v>1</v>
+      </c>
+      <c r="C2972">
+        <v>0</v>
+      </c>
+      <c r="D2972">
+        <v>-2</v>
+      </c>
+      <c r="E2972">
+        <v>1</v>
+      </c>
+      <c r="F2972">
+        <v>10</v>
+      </c>
+      <c r="G2972" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2973">
+        <v>-2</v>
+      </c>
+      <c r="B2973">
+        <v>1</v>
+      </c>
+      <c r="C2973">
+        <v>0</v>
+      </c>
+      <c r="D2973">
+        <v>-2</v>
+      </c>
+      <c r="E2973">
+        <v>1</v>
+      </c>
+      <c r="F2973">
+        <v>10</v>
+      </c>
+      <c r="G2973" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2974">
+        <v>-2</v>
+      </c>
+      <c r="B2974">
+        <v>1</v>
+      </c>
+      <c r="C2974">
+        <v>0</v>
+      </c>
+      <c r="D2974">
+        <v>-2</v>
+      </c>
+      <c r="E2974">
+        <v>1</v>
+      </c>
+      <c r="F2974">
+        <v>10</v>
+      </c>
+      <c r="G2974" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2975">
+        <v>-2</v>
+      </c>
+      <c r="B2975">
+        <v>1</v>
+      </c>
+      <c r="C2975">
+        <v>0</v>
+      </c>
+      <c r="D2975">
+        <v>2</v>
+      </c>
+      <c r="E2975">
+        <v>1</v>
+      </c>
+      <c r="F2975">
+        <v>10</v>
+      </c>
+      <c r="G2975" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2976">
+        <v>-2</v>
+      </c>
+      <c r="B2976">
+        <v>1</v>
+      </c>
+      <c r="C2976">
+        <v>0</v>
+      </c>
+      <c r="D2976">
+        <v>2</v>
+      </c>
+      <c r="E2976">
+        <v>1</v>
+      </c>
+      <c r="F2976">
+        <v>10</v>
+      </c>
+      <c r="G2976" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2977">
+        <v>-2</v>
+      </c>
+      <c r="B2977">
+        <v>1</v>
+      </c>
+      <c r="C2977">
+        <v>0</v>
+      </c>
+      <c r="D2977">
+        <v>0</v>
+      </c>
+      <c r="E2977">
+        <v>1</v>
+      </c>
+      <c r="F2977">
+        <v>10</v>
+      </c>
+      <c r="G2977" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2978">
+        <v>0</v>
+      </c>
+      <c r="B2978">
+        <v>1</v>
+      </c>
+      <c r="C2978">
+        <v>0</v>
+      </c>
+      <c r="D2978">
+        <v>0</v>
+      </c>
+      <c r="E2978">
+        <v>1</v>
+      </c>
+      <c r="F2978">
+        <v>10</v>
+      </c>
+      <c r="G2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2979">
+        <v>0</v>
+      </c>
+      <c r="B2979">
+        <v>1</v>
+      </c>
+      <c r="C2979">
+        <v>0</v>
+      </c>
+      <c r="D2979">
+        <v>2</v>
+      </c>
+      <c r="E2979">
+        <v>1</v>
+      </c>
+      <c r="F2979">
+        <v>10</v>
+      </c>
+      <c r="G2979" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2980">
+        <v>0</v>
+      </c>
+      <c r="B2980">
+        <v>1</v>
+      </c>
+      <c r="C2980">
+        <v>0</v>
+      </c>
+      <c r="D2980">
+        <v>-2</v>
+      </c>
+      <c r="E2980">
+        <v>1</v>
+      </c>
+      <c r="F2980">
+        <v>10</v>
+      </c>
+      <c r="G2980" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2981">
+        <v>-2</v>
+      </c>
+      <c r="B2981">
+        <v>1</v>
+      </c>
+      <c r="C2981">
+        <v>0</v>
+      </c>
+      <c r="D2981">
+        <v>-2</v>
+      </c>
+      <c r="E2981">
+        <v>1</v>
+      </c>
+      <c r="F2981">
+        <v>10</v>
+      </c>
+      <c r="G2981" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2982">
+        <v>-2</v>
+      </c>
+      <c r="B2982">
+        <v>1</v>
+      </c>
+      <c r="C2982">
+        <v>0</v>
+      </c>
+      <c r="D2982">
+        <v>0</v>
+      </c>
+      <c r="E2982">
+        <v>1</v>
+      </c>
+      <c r="F2982">
+        <v>10</v>
+      </c>
+      <c r="G2982" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2983">
+        <v>0</v>
+      </c>
+      <c r="B2983">
+        <v>1</v>
+      </c>
+      <c r="C2983">
+        <v>0</v>
+      </c>
+      <c r="D2983">
+        <v>0</v>
+      </c>
+      <c r="E2983">
+        <v>1</v>
+      </c>
+      <c r="F2983">
+        <v>10</v>
+      </c>
+      <c r="G2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2984">
+        <v>0</v>
+      </c>
+      <c r="B2984">
+        <v>1</v>
+      </c>
+      <c r="C2984">
+        <v>0</v>
+      </c>
+      <c r="D2984">
+        <v>-2</v>
+      </c>
+      <c r="E2984">
+        <v>1</v>
+      </c>
+      <c r="F2984">
+        <v>10</v>
+      </c>
+      <c r="G2984" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2985">
+        <v>-2</v>
+      </c>
+      <c r="B2985">
+        <v>1</v>
+      </c>
+      <c r="C2985">
+        <v>0</v>
+      </c>
+      <c r="D2985">
+        <v>0</v>
+      </c>
+      <c r="E2985">
+        <v>1</v>
+      </c>
+      <c r="F2985">
+        <v>10</v>
+      </c>
+      <c r="G2985" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2986">
+        <v>0</v>
+      </c>
+      <c r="B2986">
+        <v>1</v>
+      </c>
+      <c r="C2986">
+        <v>0</v>
+      </c>
+      <c r="D2986">
+        <v>2</v>
+      </c>
+      <c r="E2986">
+        <v>1</v>
+      </c>
+      <c r="F2986">
+        <v>10</v>
+      </c>
+      <c r="G2986" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2987">
+        <v>2</v>
+      </c>
+      <c r="B2987">
+        <v>1</v>
+      </c>
+      <c r="C2987">
+        <v>0</v>
+      </c>
+      <c r="D2987">
+        <v>2</v>
+      </c>
+      <c r="E2987">
+        <v>1</v>
+      </c>
+      <c r="F2987">
+        <v>10</v>
+      </c>
+      <c r="G2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2988">
+        <v>2</v>
+      </c>
+      <c r="B2988">
+        <v>1</v>
+      </c>
+      <c r="C2988">
+        <v>0</v>
+      </c>
+      <c r="D2988">
+        <v>0</v>
+      </c>
+      <c r="E2988">
+        <v>1</v>
+      </c>
+      <c r="F2988">
+        <v>10</v>
+      </c>
+      <c r="G2988" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2989">
+        <v>0</v>
+      </c>
+      <c r="B2989">
+        <v>1</v>
+      </c>
+      <c r="C2989">
+        <v>0</v>
+      </c>
+      <c r="D2989">
+        <v>0</v>
+      </c>
+      <c r="E2989">
+        <v>1</v>
+      </c>
+      <c r="F2989">
+        <v>10</v>
+      </c>
+      <c r="G2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2990">
+        <v>0</v>
+      </c>
+      <c r="B2990">
+        <v>1</v>
+      </c>
+      <c r="C2990">
+        <v>0</v>
+      </c>
+      <c r="D2990">
+        <v>-2</v>
+      </c>
+      <c r="E2990">
+        <v>1</v>
+      </c>
+      <c r="F2990">
+        <v>10</v>
+      </c>
+      <c r="G2990" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2991">
+        <v>-2</v>
+      </c>
+      <c r="B2991">
+        <v>1</v>
+      </c>
+      <c r="C2991">
+        <v>0</v>
+      </c>
+      <c r="D2991">
+        <v>-2</v>
+      </c>
+      <c r="E2991">
+        <v>1</v>
+      </c>
+      <c r="F2991">
+        <v>10</v>
+      </c>
+      <c r="G2991" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2992">
+        <v>-2</v>
+      </c>
+      <c r="B2992">
+        <v>1</v>
+      </c>
+      <c r="C2992">
+        <v>0</v>
+      </c>
+      <c r="D2992">
+        <v>0</v>
+      </c>
+      <c r="E2992">
+        <v>1</v>
+      </c>
+      <c r="F2992">
+        <v>10</v>
+      </c>
+      <c r="G2992" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2993">
+        <v>0</v>
+      </c>
+      <c r="B2993">
+        <v>1</v>
+      </c>
+      <c r="C2993">
+        <v>0</v>
+      </c>
+      <c r="D2993">
+        <v>0</v>
+      </c>
+      <c r="E2993">
+        <v>1</v>
+      </c>
+      <c r="F2993">
+        <v>10</v>
+      </c>
+      <c r="G2993" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2994">
+        <v>0</v>
+      </c>
+      <c r="B2994">
+        <v>1</v>
+      </c>
+      <c r="C2994">
+        <v>0</v>
+      </c>
+      <c r="D2994">
+        <v>2</v>
+      </c>
+      <c r="E2994">
+        <v>1</v>
+      </c>
+      <c r="F2994">
+        <v>10</v>
+      </c>
+      <c r="G2994" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2995">
+        <v>2</v>
+      </c>
+      <c r="B2995">
+        <v>1</v>
+      </c>
+      <c r="C2995">
+        <v>0</v>
+      </c>
+      <c r="D2995">
+        <v>0</v>
+      </c>
+      <c r="E2995">
+        <v>1</v>
+      </c>
+      <c r="F2995">
+        <v>10</v>
+      </c>
+      <c r="G2995" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2996">
+        <v>2</v>
+      </c>
+      <c r="B2996">
+        <v>1</v>
+      </c>
+      <c r="C2996">
+        <v>0</v>
+      </c>
+      <c r="D2996">
+        <v>0</v>
+      </c>
+      <c r="E2996">
+        <v>1</v>
+      </c>
+      <c r="F2996">
+        <v>10</v>
+      </c>
+      <c r="G2996" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2997">
+        <v>0</v>
+      </c>
+      <c r="B2997">
+        <v>1</v>
+      </c>
+      <c r="C2997">
+        <v>0</v>
+      </c>
+      <c r="D2997">
+        <v>0</v>
+      </c>
+      <c r="E2997">
+        <v>1</v>
+      </c>
+      <c r="F2997">
+        <v>10</v>
+      </c>
+      <c r="G2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2998">
+        <v>0</v>
+      </c>
+      <c r="B2998">
+        <v>1</v>
+      </c>
+      <c r="C2998">
+        <v>0</v>
+      </c>
+      <c r="D2998">
+        <v>-2</v>
+      </c>
+      <c r="E2998">
+        <v>1</v>
+      </c>
+      <c r="F2998">
+        <v>10</v>
+      </c>
+      <c r="G2998" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2999">
+        <v>-2</v>
+      </c>
+      <c r="B2999">
+        <v>1</v>
+      </c>
+      <c r="C2999">
+        <v>0</v>
+      </c>
+      <c r="D2999">
+        <v>-2</v>
+      </c>
+      <c r="E2999">
+        <v>1</v>
+      </c>
+      <c r="F2999">
+        <v>10</v>
+      </c>
+      <c r="G2999" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3000">
+        <v>-2</v>
+      </c>
+      <c r="B3000">
+        <v>1</v>
+      </c>
+      <c r="C3000">
+        <v>0</v>
+      </c>
+      <c r="D3000">
+        <v>0</v>
+      </c>
+      <c r="E3000">
+        <v>1</v>
+      </c>
+      <c r="F3000">
+        <v>10</v>
+      </c>
+      <c r="G3000" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3001">
+        <v>0</v>
+      </c>
+      <c r="B3001">
+        <v>1</v>
+      </c>
+      <c r="C3001">
+        <v>0</v>
+      </c>
+      <c r="D3001">
+        <v>0</v>
+      </c>
+      <c r="E3001">
+        <v>1</v>
+      </c>
+      <c r="F3001">
+        <v>10</v>
+      </c>
+      <c r="G3001" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3002">
+        <v>0</v>
+      </c>
+      <c r="B3002">
+        <v>1</v>
+      </c>
+      <c r="C3002">
+        <v>0</v>
+      </c>
+      <c r="D3002">
+        <v>2</v>
+      </c>
+      <c r="E3002">
+        <v>1</v>
+      </c>
+      <c r="F3002">
+        <v>10</v>
+      </c>
+      <c r="G3002" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3003">
+        <v>2</v>
+      </c>
+      <c r="B3003">
+        <v>1</v>
+      </c>
+      <c r="C3003">
+        <v>0</v>
+      </c>
+      <c r="D3003">
+        <v>2</v>
+      </c>
+      <c r="E3003">
+        <v>1</v>
+      </c>
+      <c r="F3003">
+        <v>10</v>
+      </c>
+      <c r="G3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
